--- a/水泥.excel/1103/1103(102.1~105.4)3.xlsx
+++ b/水泥.excel/1103/1103(102.1~105.4)3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>金額_x</t>
   </si>
@@ -115,741 +115,57 @@
     <t>不動產、廠房及設備</t>
   </si>
   <si>
-    <t>3,851,001</t>
-  </si>
-  <si>
-    <t>3,863,220</t>
-  </si>
-  <si>
-    <t>3,811,315</t>
-  </si>
-  <si>
-    <t>3,615,676</t>
-  </si>
-  <si>
-    <t>3,539,998</t>
-  </si>
-  <si>
-    <t>3,440,667</t>
-  </si>
-  <si>
-    <t>3,423,294</t>
-  </si>
-  <si>
-    <t>3,085,890</t>
-  </si>
-  <si>
-    <t>2,975,333</t>
-  </si>
-  <si>
-    <t>2,928,776</t>
-  </si>
-  <si>
-    <t>2,737,527</t>
-  </si>
-  <si>
-    <t>2,336,208</t>
-  </si>
-  <si>
-    <t>2,266,830</t>
-  </si>
-  <si>
-    <t>2,201,172</t>
-  </si>
-  <si>
-    <t>2,156,601</t>
-  </si>
-  <si>
-    <t>2,026,241</t>
-  </si>
-  <si>
     <t>以成本衡量之金融資產－非流動淨額</t>
   </si>
   <si>
-    <t>529,420</t>
-  </si>
-  <si>
-    <t>524,920</t>
-  </si>
-  <si>
-    <t>700,185</t>
-  </si>
-  <si>
-    <t>513,258</t>
-  </si>
-  <si>
-    <t>502,323</t>
-  </si>
-  <si>
-    <t>489,780</t>
-  </si>
-  <si>
-    <t>480,900</t>
-  </si>
-  <si>
-    <t>324,301</t>
-  </si>
-  <si>
-    <t>318,509</t>
-  </si>
-  <si>
-    <t>343,715</t>
-  </si>
-  <si>
     <t>保留盈餘合計</t>
   </si>
   <si>
-    <t>8,044,970</t>
-  </si>
-  <si>
-    <t>8,011,745</t>
-  </si>
-  <si>
-    <t>8,199,720</t>
-  </si>
-  <si>
-    <t>9,238,855</t>
-  </si>
-  <si>
-    <t>9,117,673</t>
-  </si>
-  <si>
-    <t>8,376,507</t>
-  </si>
-  <si>
-    <t>8,530,345</t>
-  </si>
-  <si>
-    <t>8,390,425</t>
-  </si>
-  <si>
-    <t>8,202,652</t>
-  </si>
-  <si>
-    <t>8,077,885</t>
-  </si>
-  <si>
-    <t>7,756,185</t>
-  </si>
-  <si>
-    <t>8,373,346</t>
-  </si>
-  <si>
-    <t>8,184,726</t>
-  </si>
-  <si>
-    <t>8,040,857</t>
-  </si>
-  <si>
-    <t>8,176,328</t>
-  </si>
-  <si>
-    <t>8,335,423</t>
-  </si>
-  <si>
     <t>備供出售金融資產－流動淨額</t>
   </si>
   <si>
-    <t>3,442,538</t>
-  </si>
-  <si>
-    <t>3,269,566</t>
-  </si>
-  <si>
-    <t>3,690,798</t>
-  </si>
-  <si>
-    <t>4,031,734</t>
-  </si>
-  <si>
-    <t>4,179,070</t>
-  </si>
-  <si>
-    <t>3,972,960</t>
-  </si>
-  <si>
-    <t>3,801,887</t>
-  </si>
-  <si>
-    <t>3,708,575</t>
-  </si>
-  <si>
-    <t>3,810,017</t>
-  </si>
-  <si>
-    <t>3,450,547</t>
-  </si>
-  <si>
-    <t>4,513,867</t>
-  </si>
-  <si>
-    <t>3,589,776</t>
-  </si>
-  <si>
-    <t>3,786,214</t>
-  </si>
-  <si>
-    <t>3,619,118</t>
-  </si>
-  <si>
-    <t>2,457,993</t>
-  </si>
-  <si>
-    <t>2,424,363</t>
-  </si>
-  <si>
     <t>備供出售金融資產－非流動淨額</t>
   </si>
   <si>
-    <t>3,867,438</t>
-  </si>
-  <si>
-    <t>3,425,217</t>
-  </si>
-  <si>
-    <t>4,541,915</t>
-  </si>
-  <si>
-    <t>7,071,724</t>
-  </si>
-  <si>
-    <t>7,414,004</t>
-  </si>
-  <si>
-    <t>5,780,651</t>
-  </si>
-  <si>
-    <t>5,760,686</t>
-  </si>
-  <si>
-    <t>5,943,688</t>
-  </si>
-  <si>
-    <t>5,506,926</t>
-  </si>
-  <si>
-    <t>4,508,835</t>
-  </si>
-  <si>
-    <t>2,955,390</t>
-  </si>
-  <si>
-    <t>2,930,848</t>
-  </si>
-  <si>
-    <t>2,831,316</t>
-  </si>
-  <si>
-    <t>2,557,324</t>
-  </si>
-  <si>
-    <t>3,746,519</t>
-  </si>
-  <si>
-    <t>3,613,290</t>
-  </si>
-  <si>
     <t>其他應付款</t>
   </si>
   <si>
-    <t>288,531</t>
-  </si>
-  <si>
-    <t>183,419</t>
-  </si>
-  <si>
-    <t>169,806</t>
-  </si>
-  <si>
-    <t>218,166</t>
-  </si>
-  <si>
-    <t>180,913</t>
-  </si>
-  <si>
-    <t>995,516</t>
-  </si>
-  <si>
-    <t>164,785</t>
-  </si>
-  <si>
-    <t>218,884</t>
-  </si>
-  <si>
-    <t>147,784</t>
-  </si>
-  <si>
-    <t>413,340</t>
-  </si>
-  <si>
-    <t>326,500</t>
-  </si>
-  <si>
-    <t>182,613</t>
-  </si>
-  <si>
-    <t>161,857</t>
-  </si>
-  <si>
-    <t>229,915</t>
-  </si>
-  <si>
-    <t>146,674</t>
-  </si>
-  <si>
-    <t>396,687</t>
-  </si>
-  <si>
     <t>其他應付款項－關係人</t>
   </si>
   <si>
-    <t>4,176</t>
-  </si>
-  <si>
-    <t>5,896</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>17,076</t>
-  </si>
-  <si>
     <t>其他應收款淨額</t>
   </si>
   <si>
-    <t>93,263</t>
-  </si>
-  <si>
-    <t>108,936</t>
-  </si>
-  <si>
-    <t>105,131</t>
-  </si>
-  <si>
-    <t>130,832</t>
-  </si>
-  <si>
-    <t>110,589</t>
-  </si>
-  <si>
-    <t>130,741</t>
-  </si>
-  <si>
-    <t>79,643</t>
-  </si>
-  <si>
-    <t>92,490</t>
-  </si>
-  <si>
-    <t>77,450</t>
-  </si>
-  <si>
-    <t>57,242</t>
-  </si>
-  <si>
-    <t>49,803</t>
-  </si>
-  <si>
-    <t>30,590</t>
-  </si>
-  <si>
-    <t>25,766</t>
-  </si>
-  <si>
-    <t>38,609</t>
-  </si>
-  <si>
-    <t>35,531</t>
-  </si>
-  <si>
-    <t>1,187,859</t>
-  </si>
-  <si>
     <t>其他應收款－關係人淨額</t>
   </si>
   <si>
-    <t>9,073</t>
-  </si>
-  <si>
-    <t>9,260</t>
-  </si>
-  <si>
-    <t>9,173</t>
-  </si>
-  <si>
-    <t>9,322</t>
-  </si>
-  <si>
-    <t>9,446</t>
-  </si>
-  <si>
-    <t>168,936</t>
-  </si>
-  <si>
-    <t>160,936</t>
-  </si>
-  <si>
-    <t>220,990</t>
-  </si>
-  <si>
-    <t>203,852</t>
-  </si>
-  <si>
-    <t>96,726</t>
-  </si>
-  <si>
-    <t>214,799</t>
-  </si>
-  <si>
-    <t>168,881</t>
-  </si>
-  <si>
-    <t>257,877</t>
-  </si>
-  <si>
-    <t>253,891</t>
-  </si>
-  <si>
-    <t>234,519</t>
-  </si>
-  <si>
-    <t>186,669</t>
-  </si>
-  <si>
     <t>其他權益合計</t>
   </si>
   <si>
-    <t>-997,405</t>
-  </si>
-  <si>
-    <t>-1,501,621</t>
-  </si>
-  <si>
-    <t>-51,838</t>
-  </si>
-  <si>
-    <t>2,773,856</t>
-  </si>
-  <si>
-    <t>3,282,956</t>
-  </si>
-  <si>
-    <t>1,440,954</t>
-  </si>
-  <si>
-    <t>1,482,946</t>
-  </si>
-  <si>
-    <t>1,774,583</t>
-  </si>
-  <si>
-    <t>1,340,053</t>
-  </si>
-  <si>
-    <t>130,664</t>
-  </si>
-  <si>
-    <t>-2,592,510</t>
-  </si>
-  <si>
-    <t>-3,201,522</t>
-  </si>
-  <si>
-    <t>-3,079,840</t>
-  </si>
-  <si>
-    <t>-3,550,134</t>
-  </si>
-  <si>
-    <t>-1,246,523</t>
-  </si>
-  <si>
-    <t>-1,447,600</t>
-  </si>
-  <si>
     <t>其他權益－其他</t>
   </si>
   <si>
     <t>其他流動負債</t>
   </si>
   <si>
-    <t>1,060,056</t>
-  </si>
-  <si>
-    <t>977,703</t>
-  </si>
-  <si>
-    <t>2,006,890</t>
-  </si>
-  <si>
-    <t>1,546,990</t>
-  </si>
-  <si>
-    <t>1,905,419</t>
-  </si>
-  <si>
-    <t>1,880,339</t>
-  </si>
-  <si>
-    <t>1,571,768</t>
-  </si>
-  <si>
-    <t>1,171,406</t>
-  </si>
-  <si>
-    <t>845,507</t>
-  </si>
-  <si>
-    <t>968,855</t>
-  </si>
-  <si>
-    <t>894,083</t>
-  </si>
-  <si>
-    <t>556,874</t>
-  </si>
-  <si>
-    <t>582,306</t>
-  </si>
-  <si>
-    <t>1,600,898</t>
-  </si>
-  <si>
-    <t>1,190,044</t>
-  </si>
-  <si>
-    <t>821,435</t>
-  </si>
-  <si>
     <t>其他流動資產</t>
   </si>
   <si>
-    <t>598,888</t>
-  </si>
-  <si>
-    <t>573,293</t>
-  </si>
-  <si>
-    <t>1,229,008</t>
-  </si>
-  <si>
-    <t>1,562,776</t>
-  </si>
-  <si>
-    <t>1,058,327</t>
-  </si>
-  <si>
-    <t>2,046,866</t>
-  </si>
-  <si>
-    <t>2,149,761</t>
-  </si>
-  <si>
-    <t>1,981,517</t>
-  </si>
-  <si>
-    <t>1,753,572</t>
-  </si>
-  <si>
-    <t>2,067,806</t>
-  </si>
-  <si>
-    <t>3,141,252</t>
-  </si>
-  <si>
-    <t>2,874,441</t>
-  </si>
-  <si>
-    <t>1,915,935</t>
-  </si>
-  <si>
-    <t>2,159,426</t>
-  </si>
-  <si>
-    <t>1,995,275</t>
-  </si>
-  <si>
-    <t>1,605,981</t>
-  </si>
-  <si>
     <t>其他非流動負債</t>
   </si>
   <si>
-    <t>460,613</t>
-  </si>
-  <si>
-    <t>462,123</t>
-  </si>
-  <si>
-    <t>504,060</t>
-  </si>
-  <si>
-    <t>486,257</t>
-  </si>
-  <si>
-    <t>565,830</t>
-  </si>
-  <si>
-    <t>566,219</t>
-  </si>
-  <si>
-    <t>573,228</t>
-  </si>
-  <si>
-    <t>270,226</t>
-  </si>
-  <si>
-    <t>277,681</t>
-  </si>
-  <si>
-    <t>280,010</t>
-  </si>
-  <si>
-    <t>285,632</t>
-  </si>
-  <si>
-    <t>256,537</t>
-  </si>
-  <si>
-    <t>257,706</t>
-  </si>
-  <si>
-    <t>254,604</t>
-  </si>
-  <si>
-    <t>252,309</t>
-  </si>
-  <si>
-    <t>229,255</t>
-  </si>
-  <si>
     <t>其他非流動資產</t>
   </si>
   <si>
-    <t>488,435</t>
-  </si>
-  <si>
-    <t>478,977</t>
-  </si>
-  <si>
-    <t>1,000,643</t>
-  </si>
-  <si>
-    <t>1,154,162</t>
-  </si>
-  <si>
-    <t>1,683,766</t>
-  </si>
-  <si>
-    <t>1,763,710</t>
-  </si>
-  <si>
-    <t>1,965,708</t>
-  </si>
-  <si>
-    <t>1,635,034</t>
-  </si>
-  <si>
-    <t>1,617,530</t>
-  </si>
-  <si>
-    <t>1,486,396</t>
-  </si>
-  <si>
-    <t>1,587,213</t>
-  </si>
-  <si>
-    <t>1,777,468</t>
-  </si>
-  <si>
-    <t>1,762,451</t>
-  </si>
-  <si>
-    <t>1,711,652</t>
-  </si>
-  <si>
-    <t>1,686,130</t>
-  </si>
-  <si>
-    <t>935,570</t>
-  </si>
-  <si>
     <t>存貨</t>
   </si>
   <si>
-    <t>921,566</t>
-  </si>
-  <si>
-    <t>923,011</t>
-  </si>
-  <si>
-    <t>967,937</t>
-  </si>
-  <si>
-    <t>1,312,784</t>
-  </si>
-  <si>
-    <t>1,342,103</t>
-  </si>
-  <si>
-    <t>1,574,644</t>
-  </si>
-  <si>
-    <t>1,117,994</t>
-  </si>
-  <si>
-    <t>1,148,184</t>
-  </si>
-  <si>
-    <t>1,142,911</t>
-  </si>
-  <si>
-    <t>1,161,759</t>
-  </si>
-  <si>
-    <t>1,192,776</t>
-  </si>
-  <si>
-    <t>1,229,687</t>
-  </si>
-  <si>
-    <t>1,195,874</t>
-  </si>
-  <si>
-    <t>1,156,905</t>
-  </si>
-  <si>
-    <t>1,063,506</t>
-  </si>
-  <si>
-    <t>806,951</t>
-  </si>
-  <si>
     <t>庫藏股票</t>
   </si>
   <si>
-    <t>-1,153,409</t>
-  </si>
-  <si>
-    <t>-1,149,426</t>
-  </si>
-  <si>
-    <t>-1,163,291</t>
-  </si>
-  <si>
-    <t>-1,170,260</t>
-  </si>
-  <si>
     <t>待出售非流動資產（淨額）</t>
   </si>
   <si>
-    <t>147,940</t>
-  </si>
-  <si>
-    <t>192,061</t>
-  </si>
-  <si>
     <t>待分配股票股利</t>
   </si>
   <si>
@@ -859,1636 +175,139 @@
     <t>應付帳款</t>
   </si>
   <si>
-    <t>308,533</t>
-  </si>
-  <si>
-    <t>428,357</t>
-  </si>
-  <si>
-    <t>450,965</t>
-  </si>
-  <si>
-    <t>572,950</t>
-  </si>
-  <si>
-    <t>535,538</t>
-  </si>
-  <si>
-    <t>463,771</t>
-  </si>
-  <si>
-    <t>467,874</t>
-  </si>
-  <si>
-    <t>527,656</t>
-  </si>
-  <si>
-    <t>275,434</t>
-  </si>
-  <si>
-    <t>224,366</t>
-  </si>
-  <si>
-    <t>220,477</t>
-  </si>
-  <si>
-    <t>324,362</t>
-  </si>
-  <si>
-    <t>229,395</t>
-  </si>
-  <si>
-    <t>363,261</t>
-  </si>
-  <si>
-    <t>276,841</t>
-  </si>
-  <si>
-    <t>242,258</t>
-  </si>
-  <si>
     <t>應付帳款－關係人</t>
   </si>
   <si>
-    <t>61,016</t>
-  </si>
-  <si>
-    <t>74,324</t>
-  </si>
-  <si>
-    <t>115,438</t>
-  </si>
-  <si>
-    <t>86,714</t>
-  </si>
-  <si>
-    <t>78,147</t>
-  </si>
-  <si>
-    <t>100,714</t>
-  </si>
-  <si>
-    <t>140,623</t>
-  </si>
-  <si>
-    <t>98,415</t>
-  </si>
-  <si>
-    <t>108,654</t>
-  </si>
-  <si>
-    <t>85,670</t>
-  </si>
-  <si>
-    <t>110,743</t>
-  </si>
-  <si>
-    <t>94,028</t>
-  </si>
-  <si>
-    <t>110,378</t>
-  </si>
-  <si>
-    <t>96,535</t>
-  </si>
-  <si>
     <t>應付短期票券</t>
   </si>
   <si>
-    <t>9,994</t>
-  </si>
-  <si>
-    <t>129,331</t>
-  </si>
-  <si>
-    <t>224,847</t>
-  </si>
-  <si>
-    <t>768,756</t>
-  </si>
-  <si>
-    <t>603,467</t>
-  </si>
-  <si>
-    <t>235,739</t>
-  </si>
-  <si>
-    <t>349,903</t>
-  </si>
-  <si>
-    <t>194,949</t>
-  </si>
-  <si>
-    <t>123,984</t>
-  </si>
-  <si>
-    <t>61,904</t>
-  </si>
-  <si>
-    <t>117,944</t>
-  </si>
-  <si>
-    <t>65,000</t>
-  </si>
-  <si>
     <t>應付票據</t>
   </si>
   <si>
-    <t>3,737</t>
-  </si>
-  <si>
-    <t>3,790</t>
-  </si>
-  <si>
-    <t>3,735</t>
-  </si>
-  <si>
-    <t>4,525</t>
-  </si>
-  <si>
-    <t>4,161</t>
-  </si>
-  <si>
-    <t>3,896</t>
-  </si>
-  <si>
-    <t>3,926</t>
-  </si>
-  <si>
-    <t>3,154</t>
-  </si>
-  <si>
-    <t>4,135</t>
-  </si>
-  <si>
-    <t>3,285</t>
-  </si>
-  <si>
-    <t>36,410</t>
-  </si>
-  <si>
-    <t>35,222</t>
-  </si>
-  <si>
-    <t>3,108</t>
-  </si>
-  <si>
-    <t>3,072</t>
-  </si>
-  <si>
-    <t>3,073</t>
-  </si>
-  <si>
     <t>應付票據－關係人</t>
   </si>
   <si>
-    <t>199</t>
-  </si>
-  <si>
     <t>應收帳款淨額</t>
   </si>
   <si>
-    <t>138,117</t>
-  </si>
-  <si>
-    <t>174,641</t>
-  </si>
-  <si>
-    <t>207,666</t>
-  </si>
-  <si>
-    <t>184,346</t>
-  </si>
-  <si>
-    <t>199,164</t>
-  </si>
-  <si>
-    <t>115,286</t>
-  </si>
-  <si>
-    <t>149,873</t>
-  </si>
-  <si>
-    <t>109,817</t>
-  </si>
-  <si>
-    <t>77,679</t>
-  </si>
-  <si>
-    <t>53,080</t>
-  </si>
-  <si>
-    <t>55,466</t>
-  </si>
-  <si>
-    <t>100,549</t>
-  </si>
-  <si>
-    <t>79,231</t>
-  </si>
-  <si>
-    <t>72,173</t>
-  </si>
-  <si>
-    <t>74,065</t>
-  </si>
-  <si>
-    <t>82,360</t>
-  </si>
-  <si>
     <t>應收帳款－關係人淨額</t>
   </si>
   <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>6,992</t>
-  </si>
-  <si>
-    <t>33,203</t>
-  </si>
-  <si>
-    <t>11,751</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>應收票據淨額</t>
   </si>
   <si>
-    <t>379,326</t>
-  </si>
-  <si>
-    <t>417,161</t>
-  </si>
-  <si>
-    <t>387,814</t>
-  </si>
-  <si>
-    <t>544,987</t>
-  </si>
-  <si>
-    <t>433,464</t>
-  </si>
-  <si>
-    <t>267,047</t>
-  </si>
-  <si>
-    <t>351,137</t>
-  </si>
-  <si>
-    <t>454,996</t>
-  </si>
-  <si>
-    <t>252,350</t>
-  </si>
-  <si>
-    <t>226,743</t>
-  </si>
-  <si>
-    <t>161,817</t>
-  </si>
-  <si>
-    <t>138,637</t>
-  </si>
-  <si>
-    <t>194,341</t>
-  </si>
-  <si>
-    <t>145,085</t>
-  </si>
-  <si>
-    <t>291,536</t>
-  </si>
-  <si>
     <t>應收票據－關係人淨額</t>
   </si>
   <si>
-    <t>17,120</t>
-  </si>
-  <si>
-    <t>13,754</t>
-  </si>
-  <si>
-    <t>17,207</t>
-  </si>
-  <si>
-    <t>16,313</t>
-  </si>
-  <si>
-    <t>17,148</t>
-  </si>
-  <si>
-    <t>11,014</t>
-  </si>
-  <si>
-    <t>9,329</t>
-  </si>
-  <si>
-    <t>7,031</t>
-  </si>
-  <si>
-    <t>4,567</t>
-  </si>
-  <si>
-    <t>6,801</t>
-  </si>
-  <si>
-    <t>8,290</t>
-  </si>
-  <si>
-    <t>12,769</t>
-  </si>
-  <si>
-    <t>5,487</t>
-  </si>
-  <si>
-    <t>973</t>
-  </si>
-  <si>
-    <t>1,167</t>
-  </si>
-  <si>
     <t>投資性不動產淨額</t>
   </si>
   <si>
-    <t>6,657,510</t>
-  </si>
-  <si>
-    <t>6,905,802</t>
-  </si>
-  <si>
-    <t>6,901,080</t>
-  </si>
-  <si>
-    <t>6,772,724</t>
-  </si>
-  <si>
-    <t>6,793,263</t>
-  </si>
-  <si>
-    <t>7,850,654</t>
-  </si>
-  <si>
-    <t>8,373,345</t>
-  </si>
-  <si>
-    <t>8,317,724</t>
-  </si>
-  <si>
-    <t>8,286,434</t>
-  </si>
-  <si>
-    <t>8,074,033</t>
-  </si>
-  <si>
-    <t>8,149,672</t>
-  </si>
-  <si>
-    <t>8,139,165</t>
-  </si>
-  <si>
-    <t>8,191,575</t>
-  </si>
-  <si>
-    <t>8,299,561</t>
-  </si>
-  <si>
-    <t>8,282,173</t>
-  </si>
-  <si>
-    <t>8,684,752</t>
-  </si>
-  <si>
     <t>採用權益法之投資淨額</t>
   </si>
   <si>
-    <t>696,733</t>
-  </si>
-  <si>
-    <t>655,146</t>
-  </si>
-  <si>
-    <t>478,126</t>
-  </si>
-  <si>
-    <t>488,554</t>
-  </si>
-  <si>
-    <t>1,157,959</t>
-  </si>
-  <si>
-    <t>1,130,270</t>
-  </si>
-  <si>
-    <t>1,097,032</t>
-  </si>
-  <si>
-    <t>1,097,147</t>
-  </si>
-  <si>
-    <t>1,008,126</t>
-  </si>
-  <si>
-    <t>1,006,086</t>
-  </si>
-  <si>
-    <t>1,003,734</t>
-  </si>
-  <si>
-    <t>1,061,845</t>
-  </si>
-  <si>
-    <t>1,046,822</t>
-  </si>
-  <si>
-    <t>1,013,697</t>
-  </si>
-  <si>
-    <t>995,528</t>
-  </si>
-  <si>
-    <t>977,608</t>
-  </si>
-  <si>
     <t>普通股股本</t>
   </si>
   <si>
-    <t>7,768,285</t>
-  </si>
-  <si>
-    <t>7,747,805</t>
-  </si>
-  <si>
     <t>未分配盈餘（或待彌補虧損）</t>
   </si>
   <si>
-    <t>3,394,741</t>
-  </si>
-  <si>
-    <t>3,361,516</t>
-  </si>
-  <si>
-    <t>3,549,491</t>
-  </si>
-  <si>
-    <t>4,692,427</t>
-  </si>
-  <si>
-    <t>4,571,245</t>
-  </si>
-  <si>
-    <t>4,000,410</t>
-  </si>
-  <si>
-    <t>4,154,248</t>
-  </si>
-  <si>
-    <t>4,014,328</t>
-  </si>
-  <si>
-    <t>3,826,555</t>
-  </si>
-  <si>
-    <t>3,709,393</t>
-  </si>
-  <si>
-    <t>3,404,600</t>
-  </si>
-  <si>
-    <t>4,067,819</t>
-  </si>
-  <si>
-    <t>3,879,199</t>
-  </si>
-  <si>
-    <t>2,550,895</t>
-  </si>
-  <si>
-    <t>2,686,366</t>
-  </si>
-  <si>
-    <t>2,845,461</t>
-  </si>
-  <si>
     <t>本期所得稅負債</t>
   </si>
   <si>
-    <t>47,776</t>
-  </si>
-  <si>
-    <t>15,664</t>
-  </si>
-  <si>
-    <t>8,578</t>
-  </si>
-  <si>
-    <t>19,267</t>
-  </si>
-  <si>
-    <t>15,825</t>
-  </si>
-  <si>
-    <t>34,383</t>
-  </si>
-  <si>
-    <t>37,714</t>
-  </si>
-  <si>
-    <t>107,646</t>
-  </si>
-  <si>
     <t>本期所得稅資產</t>
   </si>
   <si>
-    <t>14,226</t>
-  </si>
-  <si>
-    <t>9,879</t>
-  </si>
-  <si>
-    <t>10,391</t>
-  </si>
-  <si>
-    <t>9,801</t>
-  </si>
-  <si>
-    <t>10,050</t>
-  </si>
-  <si>
-    <t>842</t>
-  </si>
-  <si>
-    <t>1,225</t>
-  </si>
-  <si>
     <t>權益總計</t>
   </si>
   <si>
-    <t>16,395,990</t>
-  </si>
-  <si>
-    <t>15,769,322</t>
-  </si>
-  <si>
-    <t>17,460,727</t>
-  </si>
-  <si>
-    <t>21,498,297</t>
-  </si>
-  <si>
-    <t>21,493,908</t>
-  </si>
-  <si>
-    <t>18,791,647</t>
-  </si>
-  <si>
-    <t>19,135,418</t>
-  </si>
-  <si>
-    <t>19,282,058</t>
-  </si>
-  <si>
-    <t>18,648,492</t>
-  </si>
-  <si>
-    <t>17,235,969</t>
-  </si>
-  <si>
-    <t>14,090,025</t>
-  </si>
-  <si>
-    <t>14,046,346</t>
-  </si>
-  <si>
-    <t>13,984,333</t>
-  </si>
-  <si>
-    <t>13,342,739</t>
-  </si>
-  <si>
-    <t>15,891,795</t>
-  </si>
-  <si>
-    <t>15,813,258</t>
-  </si>
-  <si>
     <t>歸屬於母公司業主之權益合計</t>
   </si>
   <si>
-    <t>14,107,266</t>
-  </si>
-  <si>
-    <t>13,569,825</t>
-  </si>
-  <si>
-    <t>15,217,262</t>
-  </si>
-  <si>
-    <t>19,082,091</t>
-  </si>
-  <si>
-    <t>19,470,009</t>
-  </si>
-  <si>
-    <t>16,886,841</t>
-  </si>
-  <si>
-    <t>17,202,246</t>
-  </si>
-  <si>
-    <t>17,353,963</t>
-  </si>
-  <si>
-    <t>16,731,660</t>
-  </si>
-  <si>
-    <t>15,397,504</t>
-  </si>
-  <si>
-    <t>12,374,637</t>
-  </si>
-  <si>
-    <t>12,375,824</t>
-  </si>
-  <si>
-    <t>12,308,886</t>
-  </si>
-  <si>
-    <t>11,694,723</t>
-  </si>
-  <si>
-    <t>14,145,763</t>
-  </si>
-  <si>
-    <t>14,103,781</t>
-  </si>
-  <si>
     <t>母公司暨子公司所持有之母公司庫藏股股數（單位：股）</t>
   </si>
   <si>
-    <t>132,150,185</t>
-  </si>
-  <si>
-    <t>131,226,016</t>
-  </si>
-  <si>
-    <t>132,605,016</t>
-  </si>
-  <si>
-    <t>133,274,016</t>
-  </si>
-  <si>
-    <t>131,226,000</t>
-  </si>
-  <si>
     <t>法定盈餘公積</t>
   </si>
   <si>
-    <t>1,830,635</t>
-  </si>
-  <si>
-    <t>1,957,842</t>
-  </si>
-  <si>
-    <t>1,959,476</t>
-  </si>
-  <si>
-    <t>1,981,627</t>
-  </si>
-  <si>
     <t>流動負債合計</t>
   </si>
   <si>
-    <t>2,958,234</t>
-  </si>
-  <si>
-    <t>3,334,434</t>
-  </si>
-  <si>
-    <t>3,960,240</t>
-  </si>
-  <si>
-    <t>3,287,960</t>
-  </si>
-  <si>
-    <t>4,411,382</t>
-  </si>
-  <si>
-    <t>6,477,182</t>
-  </si>
-  <si>
-    <t>6,052,018</t>
-  </si>
-  <si>
-    <t>3,366,245</t>
-  </si>
-  <si>
-    <t>3,618,876</t>
-  </si>
-  <si>
-    <t>3,318,057</t>
-  </si>
-  <si>
-    <t>2,670,342</t>
-  </si>
-  <si>
-    <t>1,526,371</t>
-  </si>
-  <si>
-    <t>1,515,478</t>
-  </si>
-  <si>
-    <t>2,884,177</t>
-  </si>
-  <si>
-    <t>2,134,150</t>
-  </si>
-  <si>
-    <t>1,981,486</t>
-  </si>
-  <si>
     <t>流動資產合計</t>
   </si>
   <si>
-    <t>12,221,392</t>
-  </si>
-  <si>
-    <t>11,522,945</t>
-  </si>
-  <si>
-    <t>12,068,308</t>
-  </si>
-  <si>
-    <t>13,570,784</t>
-  </si>
-  <si>
-    <t>12,767,191</t>
-  </si>
-  <si>
-    <t>12,823,227</t>
-  </si>
-  <si>
-    <t>12,611,511</t>
-  </si>
-  <si>
-    <t>12,878,015</t>
-  </si>
-  <si>
-    <t>12,473,368</t>
-  </si>
-  <si>
-    <t>12,691,630</t>
-  </si>
-  <si>
-    <t>12,540,833</t>
-  </si>
-  <si>
-    <t>10,683,575</t>
-  </si>
-  <si>
-    <t>10,270,628</t>
-  </si>
-  <si>
-    <t>10,066,494</t>
-  </si>
-  <si>
-    <t>8,638,868</t>
-  </si>
-  <si>
-    <t>9,443,483</t>
-  </si>
-  <si>
     <t>無形資產</t>
   </si>
   <si>
     <t>無活絡市場之債券投資－流動淨額</t>
   </si>
   <si>
-    <t>516,256</t>
-  </si>
-  <si>
-    <t>744,936</t>
-  </si>
-  <si>
     <t>無活絡市場之債券投資－非流動淨額</t>
   </si>
   <si>
-    <t>497,179</t>
-  </si>
-  <si>
-    <t>507,381</t>
-  </si>
-  <si>
     <t>特別盈餘公積</t>
   </si>
   <si>
-    <t>2,819,594</t>
-  </si>
-  <si>
-    <t>2,715,793</t>
-  </si>
-  <si>
-    <t>2,418,255</t>
-  </si>
-  <si>
-    <t>2,409,016</t>
-  </si>
-  <si>
-    <t>2,392,109</t>
-  </si>
-  <si>
-    <t>2,346,051</t>
-  </si>
-  <si>
-    <t>3,508,335</t>
-  </si>
-  <si>
     <t>現金及約當現金</t>
   </si>
   <si>
-    <t>3,832,676</t>
-  </si>
-  <si>
-    <t>3,219,939</t>
-  </si>
-  <si>
-    <t>3,114,484</t>
-  </si>
-  <si>
-    <t>3,294,619</t>
-  </si>
-  <si>
-    <t>3,291,138</t>
-  </si>
-  <si>
-    <t>2,525,559</t>
-  </si>
-  <si>
-    <t>2,868,579</t>
-  </si>
-  <si>
-    <t>3,163,688</t>
-  </si>
-  <si>
-    <t>3,152,757</t>
-  </si>
-  <si>
-    <t>3,544,104</t>
-  </si>
-  <si>
-    <t>1,532,288</t>
-  </si>
-  <si>
-    <t>1,829,306</t>
-  </si>
-  <si>
-    <t>2,196,270</t>
-  </si>
-  <si>
-    <t>1,966,432</t>
-  </si>
-  <si>
-    <t>2,121,020</t>
-  </si>
-  <si>
-    <t>2,341,044</t>
-  </si>
-  <si>
     <t>當期所得稅負債</t>
   </si>
   <si>
-    <t>78,242</t>
-  </si>
-  <si>
-    <t>35,497</t>
-  </si>
-  <si>
-    <t>42,259</t>
-  </si>
-  <si>
-    <t>60,778</t>
-  </si>
-  <si>
-    <t>63,082</t>
-  </si>
-  <si>
-    <t>49,010</t>
-  </si>
-  <si>
-    <t>40,087</t>
-  </si>
-  <si>
-    <t>44,355</t>
-  </si>
-  <si>
     <t>當期所得稅資產</t>
   </si>
   <si>
-    <t>352</t>
-  </si>
-  <si>
-    <t>634</t>
-  </si>
-  <si>
-    <t>6,823</t>
-  </si>
-  <si>
-    <t>6,054</t>
-  </si>
-  <si>
-    <t>5,549</t>
-  </si>
-  <si>
-    <t>5,162</t>
-  </si>
-  <si>
-    <t>14,173</t>
-  </si>
-  <si>
     <t>短期借款</t>
   </si>
   <si>
-    <t>1,143,949</t>
-  </si>
-  <si>
-    <t>1,496,117</t>
-  </si>
-  <si>
-    <t>1,165,251</t>
-  </si>
-  <si>
-    <t>797,205</t>
-  </si>
-  <si>
-    <t>1,418,828</t>
-  </si>
-  <si>
-    <t>2,187,333</t>
-  </si>
-  <si>
-    <t>3,034,167</t>
-  </si>
-  <si>
-    <t>1,057,801</t>
-  </si>
-  <si>
-    <t>1,832,998</t>
-  </si>
-  <si>
-    <t>1,403,586</t>
-  </si>
-  <si>
-    <t>975,174</t>
-  </si>
-  <si>
-    <t>312,817</t>
-  </si>
-  <si>
-    <t>330,554</t>
-  </si>
-  <si>
-    <t>424,290</t>
-  </si>
-  <si>
-    <t>318,270</t>
-  </si>
-  <si>
-    <t>332,240</t>
-  </si>
-  <si>
     <t>股本合計</t>
   </si>
   <si>
     <t>負債及權益總計</t>
   </si>
   <si>
-    <t>32,577,250</t>
-  </si>
-  <si>
-    <t>31,334,774</t>
-  </si>
-  <si>
-    <t>29,598,723</t>
-  </si>
-  <si>
-    <t>27,383,042</t>
-  </si>
-  <si>
-    <t>26,816,477</t>
-  </si>
-  <si>
-    <t>26,304,009</t>
-  </si>
-  <si>
-    <t>25,951,452</t>
-  </si>
-  <si>
-    <t>26,128,917</t>
-  </si>
-  <si>
     <t>負債準備－流動</t>
   </si>
   <si>
-    <t>27,258</t>
-  </si>
-  <si>
-    <t>7,902</t>
-  </si>
-  <si>
-    <t>8,063</t>
-  </si>
-  <si>
-    <t>7,666</t>
-  </si>
-  <si>
-    <t>7,492</t>
-  </si>
-  <si>
-    <t>7,518</t>
-  </si>
-  <si>
     <t>負債準備－非流動</t>
   </si>
   <si>
-    <t>20,471</t>
-  </si>
-  <si>
-    <t>18,954</t>
-  </si>
-  <si>
-    <t>17,900</t>
-  </si>
-  <si>
-    <t>15,595</t>
-  </si>
-  <si>
-    <t>13,794</t>
-  </si>
-  <si>
-    <t>12,292</t>
-  </si>
-  <si>
     <t>負債總計</t>
   </si>
   <si>
-    <t>12,580,964</t>
-  </si>
-  <si>
-    <t>12,283,121</t>
-  </si>
-  <si>
-    <t>12,211,983</t>
-  </si>
-  <si>
-    <t>11,876,356</t>
-  </si>
-  <si>
-    <t>12,574,870</t>
-  </si>
-  <si>
-    <t>14,680,392</t>
-  </si>
-  <si>
-    <t>14,770,516</t>
-  </si>
-  <si>
-    <t>14,384,421</t>
-  </si>
-  <si>
-    <t>13,928,758</t>
-  </si>
-  <si>
-    <t>14,098,805</t>
-  </si>
-  <si>
-    <t>15,508,698</t>
-  </si>
-  <si>
-    <t>13,336,696</t>
-  </si>
-  <si>
-    <t>12,832,144</t>
-  </si>
-  <si>
-    <t>12,961,270</t>
-  </si>
-  <si>
-    <t>10,059,657</t>
-  </si>
-  <si>
-    <t>10,315,659</t>
-  </si>
-  <si>
     <t>資本公積合計</t>
   </si>
   <si>
-    <t>444,825</t>
-  </si>
-  <si>
-    <t>450,521</t>
-  </si>
-  <si>
-    <t>570,096</t>
-  </si>
-  <si>
-    <t>605,968</t>
-  </si>
-  <si>
-    <t>605,975</t>
-  </si>
-  <si>
-    <t>605,621</t>
-  </si>
-  <si>
-    <t>617,579</t>
-  </si>
-  <si>
     <t>資產總計</t>
   </si>
   <si>
-    <t>28,976,954</t>
-  </si>
-  <si>
-    <t>28,052,443</t>
-  </si>
-  <si>
-    <t>29,672,710</t>
-  </si>
-  <si>
-    <t>33,374,653</t>
-  </si>
-  <si>
-    <t>34,068,778</t>
-  </si>
-  <si>
-    <t>33,472,039</t>
-  </si>
-  <si>
-    <t>33,905,934</t>
-  </si>
-  <si>
-    <t>33,666,479</t>
-  </si>
-  <si>
     <t>透過損益按公允價值衡量之金融負債－流動</t>
   </si>
   <si>
-    <t>632</t>
-  </si>
-  <si>
-    <t>447</t>
-  </si>
-  <si>
-    <t>324</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
     <t>透過損益按公允價值衡量之金融負債－非流動</t>
   </si>
   <si>
-    <t>1,121</t>
-  </si>
-  <si>
-    <t>958</t>
-  </si>
-  <si>
-    <t>775</t>
-  </si>
-  <si>
     <t>透過損益按公允價值衡量之金融資產－流動</t>
   </si>
   <si>
-    <t>2,039,831</t>
-  </si>
-  <si>
-    <t>1,820,520</t>
-  </si>
-  <si>
-    <t>1,953,482</t>
-  </si>
-  <si>
-    <t>2,313,953</t>
-  </si>
-  <si>
-    <t>1,936,040</t>
-  </si>
-  <si>
-    <t>1,800,959</t>
-  </si>
-  <si>
-    <t>1,706,989</t>
-  </si>
-  <si>
-    <t>1,671,024</t>
-  </si>
-  <si>
-    <t>1,722,900</t>
-  </si>
-  <si>
-    <t>1,606,690</t>
-  </si>
-  <si>
-    <t>1,266,695</t>
-  </si>
-  <si>
-    <t>488,242</t>
-  </si>
-  <si>
-    <t>477,381</t>
-  </si>
-  <si>
-    <t>436,050</t>
-  </si>
-  <si>
-    <t>345,705</t>
-  </si>
-  <si>
-    <t>361,430</t>
-  </si>
-  <si>
     <t>遞延所得稅負債</t>
   </si>
   <si>
-    <t>1,528,431</t>
-  </si>
-  <si>
-    <t>1,533,864</t>
-  </si>
-  <si>
-    <t>1,514,843</t>
-  </si>
-  <si>
-    <t>1,572,661</t>
-  </si>
-  <si>
-    <t>1,626,143</t>
-  </si>
-  <si>
-    <t>1,543,233</t>
-  </si>
-  <si>
-    <t>1,572,831</t>
-  </si>
-  <si>
-    <t>1,633,163</t>
-  </si>
-  <si>
-    <t>1,553,295</t>
-  </si>
-  <si>
-    <t>1,543,036</t>
-  </si>
-  <si>
-    <t>1,573,267</t>
-  </si>
-  <si>
-    <t>1,437,684</t>
-  </si>
-  <si>
-    <t>1,412,443</t>
-  </si>
-  <si>
-    <t>1,406,879</t>
-  </si>
-  <si>
-    <t>1,355,662</t>
-  </si>
-  <si>
-    <t>1,318,544</t>
-  </si>
-  <si>
     <t>遞延所得稅資產</t>
   </si>
   <si>
-    <t>167,846</t>
-  </si>
-  <si>
-    <t>168,835</t>
-  </si>
-  <si>
-    <t>171,138</t>
-  </si>
-  <si>
-    <t>187,771</t>
-  </si>
-  <si>
-    <t>199,339</t>
-  </si>
-  <si>
-    <t>180,537</t>
-  </si>
-  <si>
-    <t>172,035</t>
-  </si>
-  <si>
-    <t>219,201</t>
-  </si>
-  <si>
-    <t>219,753</t>
-  </si>
-  <si>
-    <t>149,238</t>
-  </si>
-  <si>
-    <t>143,454</t>
-  </si>
-  <si>
-    <t>129,632</t>
-  </si>
-  <si>
-    <t>122,554</t>
-  </si>
-  <si>
-    <t>135,600</t>
-  </si>
-  <si>
-    <t>127,124</t>
-  </si>
-  <si>
-    <t>104,258</t>
-  </si>
-  <si>
     <t>長期借款</t>
   </si>
   <si>
-    <t>7,632,565</t>
-  </si>
-  <si>
-    <t>6,951,742</t>
-  </si>
-  <si>
-    <t>6,232,065</t>
-  </si>
-  <si>
-    <t>6,529,478</t>
-  </si>
-  <si>
-    <t>5,971,515</t>
-  </si>
-  <si>
-    <t>6,073,287</t>
-  </si>
-  <si>
-    <t>6,553,485</t>
-  </si>
-  <si>
-    <t>9,096,887</t>
-  </si>
-  <si>
-    <t>8,463,311</t>
-  </si>
-  <si>
-    <t>8,943,908</t>
-  </si>
-  <si>
-    <t>10,967,165</t>
-  </si>
-  <si>
-    <t>10,116,104</t>
-  </si>
-  <si>
-    <t>9,646,517</t>
-  </si>
-  <si>
-    <t>8,415,610</t>
-  </si>
-  <si>
-    <t>6,317,536</t>
-  </si>
-  <si>
-    <t>6,786,374</t>
-  </si>
-  <si>
     <t>非控制權益</t>
   </si>
   <si>
-    <t>2,288,724</t>
-  </si>
-  <si>
-    <t>2,199,497</t>
-  </si>
-  <si>
-    <t>2,243,465</t>
-  </si>
-  <si>
-    <t>2,416,206</t>
-  </si>
-  <si>
-    <t>2,023,899</t>
-  </si>
-  <si>
-    <t>1,904,806</t>
-  </si>
-  <si>
-    <t>1,933,172</t>
-  </si>
-  <si>
-    <t>1,928,095</t>
-  </si>
-  <si>
-    <t>1,916,832</t>
-  </si>
-  <si>
-    <t>1,838,465</t>
-  </si>
-  <si>
-    <t>1,715,388</t>
-  </si>
-  <si>
-    <t>1,670,522</t>
-  </si>
-  <si>
-    <t>1,675,447</t>
-  </si>
-  <si>
-    <t>1,648,016</t>
-  </si>
-  <si>
-    <t>1,746,032</t>
-  </si>
-  <si>
-    <t>1,709,477</t>
-  </si>
-  <si>
     <t>非流動負債合計</t>
   </si>
   <si>
-    <t>9,622,730</t>
-  </si>
-  <si>
-    <t>8,948,687</t>
-  </si>
-  <si>
-    <t>8,251,743</t>
-  </si>
-  <si>
-    <t>8,588,396</t>
-  </si>
-  <si>
-    <t>8,163,488</t>
-  </si>
-  <si>
-    <t>8,203,210</t>
-  </si>
-  <si>
-    <t>8,718,498</t>
-  </si>
-  <si>
-    <t>11,018,176</t>
-  </si>
-  <si>
-    <t>10,309,882</t>
-  </si>
-  <si>
-    <t>10,780,748</t>
-  </si>
-  <si>
-    <t>12,838,356</t>
-  </si>
-  <si>
-    <t>11,810,325</t>
-  </si>
-  <si>
-    <t>11,316,666</t>
-  </si>
-  <si>
-    <t>10,077,093</t>
-  </si>
-  <si>
-    <t>7,925,507</t>
-  </si>
-  <si>
-    <t>8,334,173</t>
-  </si>
-  <si>
     <t>非流動資產合計</t>
   </si>
   <si>
-    <t>16,755,562</t>
-  </si>
-  <si>
-    <t>16,529,498</t>
-  </si>
-  <si>
-    <t>17,604,402</t>
-  </si>
-  <si>
-    <t>19,803,869</t>
-  </si>
-  <si>
-    <t>21,301,587</t>
-  </si>
-  <si>
-    <t>20,648,812</t>
-  </si>
-  <si>
-    <t>21,294,423</t>
-  </si>
-  <si>
-    <t>20,788,464</t>
-  </si>
-  <si>
-    <t>20,103,882</t>
-  </si>
-  <si>
-    <t>18,643,144</t>
-  </si>
-  <si>
-    <t>17,057,890</t>
-  </si>
-  <si>
-    <t>16,699,467</t>
-  </si>
-  <si>
-    <t>16,545,849</t>
-  </si>
-  <si>
-    <t>16,237,515</t>
-  </si>
-  <si>
-    <t>17,312,584</t>
-  </si>
-  <si>
-    <t>16,685,434</t>
-  </si>
-  <si>
     <t>預付款項</t>
-  </si>
-  <si>
-    <t>232,065</t>
-  </si>
-  <si>
-    <t>247,209</t>
-  </si>
-  <si>
-    <t>378,743</t>
-  </si>
-  <si>
-    <t>163,025</t>
-  </si>
-  <si>
-    <t>185,122</t>
-  </si>
-  <si>
-    <t>204,020</t>
-  </si>
-  <si>
-    <t>210,185</t>
-  </si>
-  <si>
-    <t>150,598</t>
-  </si>
-  <si>
-    <t>227,884</t>
-  </si>
-  <si>
-    <t>206,441</t>
-  </si>
-  <si>
-    <t>200,778</t>
-  </si>
-  <si>
-    <t>150,338</t>
-  </si>
-  <si>
-    <t>181,878</t>
-  </si>
-  <si>
-    <t>167,725</t>
-  </si>
-  <si>
-    <t>165,318</t>
-  </si>
-  <si>
-    <t>152,889</t>
   </si>
   <si>
     <t>預收股款（權益項下）之約當發行股數（單位：股）</t>
@@ -2950,98 +769,98 @@
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
+      <c r="B2" t="n">
+        <v>3851001</v>
       </c>
       <c r="C2" t="n">
         <v>13.29</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
+      <c r="D2" t="n">
+        <v>3863220</v>
       </c>
       <c r="E2" t="n">
         <v>13.77</v>
       </c>
-      <c r="F2" t="s">
-        <v>35</v>
+      <c r="F2" t="n">
+        <v>3811315</v>
       </c>
       <c r="G2" t="n">
         <v>12.84</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
+      <c r="H2" t="n">
+        <v>3615676</v>
       </c>
       <c r="I2" t="n">
         <v>10.83</v>
       </c>
-      <c r="J2" t="s">
-        <v>37</v>
+      <c r="J2" t="n">
+        <v>3539998</v>
       </c>
       <c r="K2" t="n">
         <v>10.39</v>
       </c>
-      <c r="L2" t="s">
-        <v>38</v>
+      <c r="L2" t="n">
+        <v>3440667</v>
       </c>
       <c r="M2" t="n">
         <v>10.28</v>
       </c>
-      <c r="N2" t="s">
-        <v>39</v>
+      <c r="N2" t="n">
+        <v>3423294</v>
       </c>
       <c r="O2" t="n">
         <v>10.1</v>
       </c>
-      <c r="P2" t="s">
-        <v>40</v>
+      <c r="P2" t="n">
+        <v>3085890</v>
       </c>
       <c r="Q2" t="n">
         <v>9.17</v>
       </c>
-      <c r="R2" t="s">
-        <v>41</v>
+      <c r="R2" t="n">
+        <v>2975333</v>
       </c>
       <c r="S2" t="n">
         <v>9.130000000000001</v>
       </c>
-      <c r="T2" t="s">
-        <v>42</v>
+      <c r="T2" t="n">
+        <v>2928776</v>
       </c>
       <c r="U2" t="n">
         <v>9.35</v>
       </c>
-      <c r="V2" t="s">
-        <v>43</v>
+      <c r="V2" t="n">
+        <v>2737527</v>
       </c>
       <c r="W2" t="n">
         <v>9.25</v>
       </c>
-      <c r="X2" t="s">
-        <v>44</v>
+      <c r="X2" t="n">
+        <v>2336208</v>
       </c>
       <c r="Y2" t="n">
         <v>8.529999999999999</v>
       </c>
-      <c r="Z2" t="s">
-        <v>45</v>
+      <c r="Z2" t="n">
+        <v>2266830</v>
       </c>
       <c r="AA2" t="n">
         <v>8.449999999999999</v>
       </c>
-      <c r="AB2" t="s">
-        <v>46</v>
+      <c r="AB2" t="n">
+        <v>2201172</v>
       </c>
       <c r="AC2" t="n">
         <v>8.369999999999999</v>
       </c>
-      <c r="AD2" t="s">
-        <v>47</v>
+      <c r="AD2" t="n">
+        <v>2156601</v>
       </c>
       <c r="AE2" t="n">
         <v>8.31</v>
       </c>
-      <c r="AF2" t="s">
-        <v>48</v>
+      <c r="AF2" t="n">
+        <v>2026241</v>
       </c>
       <c r="AG2" t="n">
         <v>7.75</v>
@@ -3049,100 +868,100 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="B3" t="n">
+        <v>529420</v>
       </c>
       <c r="C3" t="n">
         <v>1.83</v>
       </c>
-      <c r="D3" t="s">
-        <v>51</v>
+      <c r="D3" t="n">
+        <v>524920</v>
       </c>
       <c r="E3" t="n">
         <v>1.87</v>
       </c>
-      <c r="F3" t="s">
-        <v>52</v>
+      <c r="F3" t="n">
+        <v>700185</v>
       </c>
       <c r="G3" t="n">
         <v>2.36</v>
       </c>
-      <c r="H3" t="s">
-        <v>53</v>
+      <c r="H3" t="n">
+        <v>513258</v>
       </c>
       <c r="I3" t="n">
         <v>1.54</v>
       </c>
-      <c r="J3" t="s">
-        <v>53</v>
+      <c r="J3" t="n">
+        <v>513258</v>
       </c>
       <c r="K3" t="n">
         <v>1.51</v>
       </c>
-      <c r="L3" t="s">
-        <v>54</v>
+      <c r="L3" t="n">
+        <v>502323</v>
       </c>
       <c r="M3" t="n">
         <v>1.5</v>
       </c>
-      <c r="N3" t="s">
-        <v>54</v>
+      <c r="N3" t="n">
+        <v>502323</v>
       </c>
       <c r="O3" t="n">
         <v>1.48</v>
       </c>
-      <c r="P3" t="s">
-        <v>55</v>
+      <c r="P3" t="n">
+        <v>489780</v>
       </c>
       <c r="Q3" t="n">
         <v>1.45</v>
       </c>
-      <c r="R3" t="s">
-        <v>55</v>
+      <c r="R3" t="n">
+        <v>489780</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
       </c>
-      <c r="T3" t="s">
-        <v>55</v>
+      <c r="T3" t="n">
+        <v>489780</v>
       </c>
       <c r="U3" t="n">
         <v>1.56</v>
       </c>
-      <c r="V3" t="s">
-        <v>56</v>
+      <c r="V3" t="n">
+        <v>480900</v>
       </c>
       <c r="W3" t="n">
         <v>1.62</v>
       </c>
-      <c r="X3" t="s">
-        <v>57</v>
+      <c r="X3" t="n">
+        <v>324301</v>
       </c>
       <c r="Y3" t="n">
         <v>1.18</v>
       </c>
-      <c r="Z3" t="s">
-        <v>57</v>
+      <c r="Z3" t="n">
+        <v>324301</v>
       </c>
       <c r="AA3" t="n">
         <v>1.21</v>
       </c>
-      <c r="AB3" t="s">
-        <v>58</v>
+      <c r="AB3" t="n">
+        <v>318509</v>
       </c>
       <c r="AC3" t="n">
         <v>1.21</v>
       </c>
-      <c r="AD3" t="s">
-        <v>58</v>
+      <c r="AD3" t="n">
+        <v>318509</v>
       </c>
       <c r="AE3" t="n">
         <v>1.23</v>
       </c>
-      <c r="AF3" t="s">
-        <v>59</v>
+      <c r="AF3" t="n">
+        <v>343715</v>
       </c>
       <c r="AG3" t="n">
         <v>1.32</v>
@@ -3150,100 +969,100 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
+        <v>34</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8044970</v>
       </c>
       <c r="C4" t="n">
         <v>27.76</v>
       </c>
-      <c r="D4" t="s">
-        <v>62</v>
+      <c r="D4" t="n">
+        <v>8011745</v>
       </c>
       <c r="E4" t="n">
         <v>28.56</v>
       </c>
-      <c r="F4" t="s">
-        <v>63</v>
+      <c r="F4" t="n">
+        <v>8199720</v>
       </c>
       <c r="G4" t="n">
         <v>27.63</v>
       </c>
-      <c r="H4" t="s">
-        <v>64</v>
+      <c r="H4" t="n">
+        <v>9238855</v>
       </c>
       <c r="I4" t="n">
         <v>27.68</v>
       </c>
-      <c r="J4" t="s">
-        <v>65</v>
+      <c r="J4" t="n">
+        <v>9117673</v>
       </c>
       <c r="K4" t="n">
         <v>26.76</v>
       </c>
-      <c r="L4" t="s">
-        <v>66</v>
+      <c r="L4" t="n">
+        <v>8376507</v>
       </c>
       <c r="M4" t="n">
         <v>25.03</v>
       </c>
-      <c r="N4" t="s">
-        <v>67</v>
+      <c r="N4" t="n">
+        <v>8530345</v>
       </c>
       <c r="O4" t="n">
         <v>25.16</v>
       </c>
-      <c r="P4" t="s">
-        <v>68</v>
+      <c r="P4" t="n">
+        <v>8390425</v>
       </c>
       <c r="Q4" t="n">
         <v>24.92</v>
       </c>
-      <c r="R4" t="s">
-        <v>69</v>
+      <c r="R4" t="n">
+        <v>8202652</v>
       </c>
       <c r="S4" t="n">
         <v>25.18</v>
       </c>
-      <c r="T4" t="s">
-        <v>70</v>
+      <c r="T4" t="n">
+        <v>8077885</v>
       </c>
       <c r="U4" t="n">
         <v>25.78</v>
       </c>
-      <c r="V4" t="s">
-        <v>71</v>
+      <c r="V4" t="n">
+        <v>7756185</v>
       </c>
       <c r="W4" t="n">
         <v>26.2</v>
       </c>
-      <c r="X4" t="s">
-        <v>72</v>
+      <c r="X4" t="n">
+        <v>8373346</v>
       </c>
       <c r="Y4" t="n">
         <v>30.58</v>
       </c>
-      <c r="Z4" t="s">
-        <v>73</v>
+      <c r="Z4" t="n">
+        <v>8184726</v>
       </c>
       <c r="AA4" t="n">
         <v>30.52</v>
       </c>
-      <c r="AB4" t="s">
-        <v>74</v>
+      <c r="AB4" t="n">
+        <v>8040857</v>
       </c>
       <c r="AC4" t="n">
         <v>30.57</v>
       </c>
-      <c r="AD4" t="s">
-        <v>75</v>
+      <c r="AD4" t="n">
+        <v>8176328</v>
       </c>
       <c r="AE4" t="n">
         <v>31.51</v>
       </c>
-      <c r="AF4" t="s">
-        <v>76</v>
+      <c r="AF4" t="n">
+        <v>8335423</v>
       </c>
       <c r="AG4" t="n">
         <v>31.9</v>
@@ -3251,100 +1070,100 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
+        <v>35</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3442538</v>
       </c>
       <c r="C5" t="n">
         <v>11.88</v>
       </c>
-      <c r="D5" t="s">
-        <v>79</v>
+      <c r="D5" t="n">
+        <v>3269566</v>
       </c>
       <c r="E5" t="n">
         <v>11.66</v>
       </c>
-      <c r="F5" t="s">
-        <v>80</v>
+      <c r="F5" t="n">
+        <v>3690798</v>
       </c>
       <c r="G5" t="n">
         <v>12.44</v>
       </c>
-      <c r="H5" t="s">
-        <v>81</v>
+      <c r="H5" t="n">
+        <v>4031734</v>
       </c>
       <c r="I5" t="n">
         <v>12.08</v>
       </c>
-      <c r="J5" t="s">
-        <v>82</v>
+      <c r="J5" t="n">
+        <v>4179070</v>
       </c>
       <c r="K5" t="n">
         <v>12.27</v>
       </c>
-      <c r="L5" t="s">
-        <v>83</v>
+      <c r="L5" t="n">
+        <v>3972960</v>
       </c>
       <c r="M5" t="n">
         <v>11.87</v>
       </c>
-      <c r="N5" t="s">
-        <v>84</v>
+      <c r="N5" t="n">
+        <v>3801887</v>
       </c>
       <c r="O5" t="n">
         <v>11.21</v>
       </c>
-      <c r="P5" t="s">
-        <v>85</v>
+      <c r="P5" t="n">
+        <v>3708575</v>
       </c>
       <c r="Q5" t="n">
         <v>11.02</v>
       </c>
-      <c r="R5" t="s">
-        <v>86</v>
+      <c r="R5" t="n">
+        <v>3810017</v>
       </c>
       <c r="S5" t="n">
         <v>11.7</v>
       </c>
-      <c r="T5" t="s">
-        <v>87</v>
+      <c r="T5" t="n">
+        <v>3450547</v>
       </c>
       <c r="U5" t="n">
         <v>11.01</v>
       </c>
-      <c r="V5" t="s">
-        <v>88</v>
+      <c r="V5" t="n">
+        <v>4513867</v>
       </c>
       <c r="W5" t="n">
         <v>15.25</v>
       </c>
-      <c r="X5" t="s">
-        <v>89</v>
+      <c r="X5" t="n">
+        <v>3589776</v>
       </c>
       <c r="Y5" t="n">
         <v>13.11</v>
       </c>
-      <c r="Z5" t="s">
-        <v>90</v>
+      <c r="Z5" t="n">
+        <v>3786214</v>
       </c>
       <c r="AA5" t="n">
         <v>14.12</v>
       </c>
-      <c r="AB5" t="s">
-        <v>91</v>
+      <c r="AB5" t="n">
+        <v>3619118</v>
       </c>
       <c r="AC5" t="n">
         <v>13.76</v>
       </c>
-      <c r="AD5" t="s">
-        <v>92</v>
+      <c r="AD5" t="n">
+        <v>2457993</v>
       </c>
       <c r="AE5" t="n">
         <v>9.470000000000001</v>
       </c>
-      <c r="AF5" t="s">
-        <v>93</v>
+      <c r="AF5" t="n">
+        <v>2424363</v>
       </c>
       <c r="AG5" t="n">
         <v>9.279999999999999</v>
@@ -3352,100 +1171,100 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" t="s">
-        <v>95</v>
+        <v>36</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3867438</v>
       </c>
       <c r="C6" t="n">
         <v>13.35</v>
       </c>
-      <c r="D6" t="s">
-        <v>96</v>
+      <c r="D6" t="n">
+        <v>3425217</v>
       </c>
       <c r="E6" t="n">
         <v>12.21</v>
       </c>
-      <c r="F6" t="s">
-        <v>97</v>
+      <c r="F6" t="n">
+        <v>4541915</v>
       </c>
       <c r="G6" t="n">
         <v>15.31</v>
       </c>
-      <c r="H6" t="s">
-        <v>98</v>
+      <c r="H6" t="n">
+        <v>7071724</v>
       </c>
       <c r="I6" t="n">
         <v>21.19</v>
       </c>
-      <c r="J6" t="s">
-        <v>99</v>
+      <c r="J6" t="n">
+        <v>7414004</v>
       </c>
       <c r="K6" t="n">
         <v>21.76</v>
       </c>
-      <c r="L6" t="s">
-        <v>100</v>
+      <c r="L6" t="n">
+        <v>5780651</v>
       </c>
       <c r="M6" t="n">
         <v>17.27</v>
       </c>
-      <c r="N6" t="s">
-        <v>101</v>
+      <c r="N6" t="n">
+        <v>5760686</v>
       </c>
       <c r="O6" t="n">
         <v>16.99</v>
       </c>
-      <c r="P6" t="s">
-        <v>102</v>
+      <c r="P6" t="n">
+        <v>5943688</v>
       </c>
       <c r="Q6" t="n">
         <v>17.65</v>
       </c>
-      <c r="R6" t="s">
-        <v>103</v>
+      <c r="R6" t="n">
+        <v>5506926</v>
       </c>
       <c r="S6" t="n">
         <v>16.9</v>
       </c>
-      <c r="T6" t="s">
-        <v>104</v>
+      <c r="T6" t="n">
+        <v>4508835</v>
       </c>
       <c r="U6" t="n">
         <v>14.39</v>
       </c>
-      <c r="V6" t="s">
-        <v>105</v>
+      <c r="V6" t="n">
+        <v>2955390</v>
       </c>
       <c r="W6" t="n">
         <v>9.98</v>
       </c>
-      <c r="X6" t="s">
-        <v>106</v>
+      <c r="X6" t="n">
+        <v>2930848</v>
       </c>
       <c r="Y6" t="n">
         <v>10.7</v>
       </c>
-      <c r="Z6" t="s">
-        <v>107</v>
+      <c r="Z6" t="n">
+        <v>2831316</v>
       </c>
       <c r="AA6" t="n">
         <v>10.56</v>
       </c>
-      <c r="AB6" t="s">
-        <v>108</v>
+      <c r="AB6" t="n">
+        <v>2557324</v>
       </c>
       <c r="AC6" t="n">
         <v>9.720000000000001</v>
       </c>
-      <c r="AD6" t="s">
-        <v>109</v>
+      <c r="AD6" t="n">
+        <v>3746519</v>
       </c>
       <c r="AE6" t="n">
         <v>14.44</v>
       </c>
-      <c r="AF6" t="s">
-        <v>110</v>
+      <c r="AF6" t="n">
+        <v>3613290</v>
       </c>
       <c r="AG6" t="n">
         <v>13.83</v>
@@ -3453,100 +1272,100 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
+        <v>37</v>
+      </c>
+      <c r="B7" t="n">
+        <v>288531</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>113</v>
+      <c r="D7" t="n">
+        <v>183419</v>
       </c>
       <c r="E7" t="n">
         <v>0.65</v>
       </c>
-      <c r="F7" t="s">
-        <v>114</v>
+      <c r="F7" t="n">
+        <v>169806</v>
       </c>
       <c r="G7" t="n">
         <v>0.57</v>
       </c>
-      <c r="H7" t="s">
-        <v>115</v>
+      <c r="H7" t="n">
+        <v>218166</v>
       </c>
       <c r="I7" t="n">
         <v>0.65</v>
       </c>
-      <c r="J7" t="s">
-        <v>116</v>
+      <c r="J7" t="n">
+        <v>180913</v>
       </c>
       <c r="K7" t="n">
         <v>0.53</v>
       </c>
-      <c r="L7" t="s">
-        <v>117</v>
+      <c r="L7" t="n">
+        <v>995516</v>
       </c>
       <c r="M7" t="n">
         <v>2.97</v>
       </c>
-      <c r="N7" t="s">
-        <v>118</v>
+      <c r="N7" t="n">
+        <v>164785</v>
       </c>
       <c r="O7" t="n">
         <v>0.49</v>
       </c>
-      <c r="P7" t="s">
-        <v>119</v>
+      <c r="P7" t="n">
+        <v>218884</v>
       </c>
       <c r="Q7" t="n">
         <v>0.65</v>
       </c>
-      <c r="R7" t="s">
-        <v>120</v>
+      <c r="R7" t="n">
+        <v>147784</v>
       </c>
       <c r="S7" t="n">
         <v>0.45</v>
       </c>
-      <c r="T7" t="s">
-        <v>121</v>
+      <c r="T7" t="n">
+        <v>413340</v>
       </c>
       <c r="U7" t="n">
         <v>1.32</v>
       </c>
-      <c r="V7" t="s">
-        <v>122</v>
+      <c r="V7" t="n">
+        <v>326500</v>
       </c>
       <c r="W7" t="n">
         <v>1.1</v>
       </c>
-      <c r="X7" t="s">
-        <v>123</v>
+      <c r="X7" t="n">
+        <v>182613</v>
       </c>
       <c r="Y7" t="n">
         <v>0.67</v>
       </c>
-      <c r="Z7" t="s">
-        <v>124</v>
+      <c r="Z7" t="n">
+        <v>161857</v>
       </c>
       <c r="AA7" t="n">
         <v>0.6</v>
       </c>
-      <c r="AB7" t="s">
-        <v>125</v>
+      <c r="AB7" t="n">
+        <v>229915</v>
       </c>
       <c r="AC7" t="n">
         <v>0.87</v>
       </c>
-      <c r="AD7" t="s">
-        <v>126</v>
+      <c r="AD7" t="n">
+        <v>146674</v>
       </c>
       <c r="AE7" t="n">
         <v>0.57</v>
       </c>
-      <c r="AF7" t="s">
-        <v>127</v>
+      <c r="AF7" t="n">
+        <v>396687</v>
       </c>
       <c r="AG7" t="n">
         <v>1.52</v>
@@ -3554,46 +1373,46 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" t="s">
-        <v>129</v>
+        <v>38</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4176</v>
       </c>
       <c r="C8" t="n">
         <v>0.01</v>
       </c>
-      <c r="D8" t="s">
-        <v>130</v>
+      <c r="D8" t="n">
+        <v>5896</v>
       </c>
       <c r="E8" t="n">
         <v>0.02</v>
       </c>
-      <c r="F8" t="s">
-        <v>130</v>
+      <c r="F8" t="n">
+        <v>5896</v>
       </c>
       <c r="G8" t="n">
         <v>0.02</v>
       </c>
-      <c r="H8" t="s">
-        <v>131</v>
+      <c r="H8" t="n">
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>131</v>
+      <c r="J8" t="n">
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
-        <v>131</v>
+      <c r="L8" t="n">
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
-      <c r="N8" t="s">
-        <v>132</v>
+      <c r="N8" t="n">
+        <v>17076</v>
       </c>
       <c r="O8" t="n">
         <v>0.05</v>
@@ -3604,8 +1423,8 @@
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="s"/>
-      <c r="V8" t="s">
-        <v>131</v>
+      <c r="V8" t="n">
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -3623,100 +1442,100 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" t="s">
-        <v>134</v>
+        <v>39</v>
+      </c>
+      <c r="B9" t="n">
+        <v>93263</v>
       </c>
       <c r="C9" t="n">
         <v>0.32</v>
       </c>
-      <c r="D9" t="s">
-        <v>135</v>
+      <c r="D9" t="n">
+        <v>108936</v>
       </c>
       <c r="E9" t="n">
         <v>0.39</v>
       </c>
-      <c r="F9" t="s">
-        <v>136</v>
+      <c r="F9" t="n">
+        <v>105131</v>
       </c>
       <c r="G9" t="n">
         <v>0.35</v>
       </c>
-      <c r="H9" t="s">
-        <v>137</v>
+      <c r="H9" t="n">
+        <v>130832</v>
       </c>
       <c r="I9" t="n">
         <v>0.39</v>
       </c>
-      <c r="J9" t="s">
-        <v>138</v>
+      <c r="J9" t="n">
+        <v>110589</v>
       </c>
       <c r="K9" t="n">
         <v>0.32</v>
       </c>
-      <c r="L9" t="s">
-        <v>139</v>
+      <c r="L9" t="n">
+        <v>130741</v>
       </c>
       <c r="M9" t="n">
         <v>0.39</v>
       </c>
-      <c r="N9" t="s">
-        <v>140</v>
+      <c r="N9" t="n">
+        <v>79643</v>
       </c>
       <c r="O9" t="n">
         <v>0.23</v>
       </c>
-      <c r="P9" t="s">
-        <v>141</v>
+      <c r="P9" t="n">
+        <v>92490</v>
       </c>
       <c r="Q9" t="n">
         <v>0.27</v>
       </c>
-      <c r="R9" t="s">
-        <v>142</v>
+      <c r="R9" t="n">
+        <v>77450</v>
       </c>
       <c r="S9" t="n">
         <v>0.24</v>
       </c>
-      <c r="T9" t="s">
-        <v>143</v>
+      <c r="T9" t="n">
+        <v>57242</v>
       </c>
       <c r="U9" t="n">
         <v>0.18</v>
       </c>
-      <c r="V9" t="s">
-        <v>144</v>
+      <c r="V9" t="n">
+        <v>49803</v>
       </c>
       <c r="W9" t="n">
         <v>0.17</v>
       </c>
-      <c r="X9" t="s">
-        <v>145</v>
+      <c r="X9" t="n">
+        <v>30590</v>
       </c>
       <c r="Y9" t="n">
         <v>0.11</v>
       </c>
-      <c r="Z9" t="s">
-        <v>146</v>
+      <c r="Z9" t="n">
+        <v>25766</v>
       </c>
       <c r="AA9" t="n">
         <v>0.1</v>
       </c>
-      <c r="AB9" t="s">
-        <v>147</v>
+      <c r="AB9" t="n">
+        <v>38609</v>
       </c>
       <c r="AC9" t="n">
         <v>0.15</v>
       </c>
-      <c r="AD9" t="s">
-        <v>148</v>
+      <c r="AD9" t="n">
+        <v>35531</v>
       </c>
       <c r="AE9" t="n">
         <v>0.14</v>
       </c>
-      <c r="AF9" t="s">
-        <v>149</v>
+      <c r="AF9" t="n">
+        <v>1187859</v>
       </c>
       <c r="AG9" t="n">
         <v>4.55</v>
@@ -3724,100 +1543,100 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" t="s">
-        <v>151</v>
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9073</v>
       </c>
       <c r="C10" t="n">
         <v>0.03</v>
       </c>
-      <c r="D10" t="s">
-        <v>152</v>
+      <c r="D10" t="n">
+        <v>9260</v>
       </c>
       <c r="E10" t="n">
         <v>0.03</v>
       </c>
-      <c r="F10" t="s">
-        <v>153</v>
+      <c r="F10" t="n">
+        <v>9173</v>
       </c>
       <c r="G10" t="n">
         <v>0.03</v>
       </c>
-      <c r="H10" t="s">
-        <v>154</v>
+      <c r="H10" t="n">
+        <v>9322</v>
       </c>
       <c r="I10" t="n">
         <v>0.03</v>
       </c>
-      <c r="J10" t="s">
-        <v>155</v>
+      <c r="J10" t="n">
+        <v>9446</v>
       </c>
       <c r="K10" t="n">
         <v>0.03</v>
       </c>
-      <c r="L10" t="s">
-        <v>156</v>
+      <c r="L10" t="n">
+        <v>168936</v>
       </c>
       <c r="M10" t="n">
         <v>0.5</v>
       </c>
-      <c r="N10" t="s">
-        <v>157</v>
+      <c r="N10" t="n">
+        <v>160936</v>
       </c>
       <c r="O10" t="n">
         <v>0.47</v>
       </c>
-      <c r="P10" t="s">
-        <v>158</v>
+      <c r="P10" t="n">
+        <v>220990</v>
       </c>
       <c r="Q10" t="n">
         <v>0.66</v>
       </c>
-      <c r="R10" t="s">
-        <v>159</v>
+      <c r="R10" t="n">
+        <v>203852</v>
       </c>
       <c r="S10" t="n">
         <v>0.63</v>
       </c>
-      <c r="T10" t="s">
-        <v>160</v>
+      <c r="T10" t="n">
+        <v>96726</v>
       </c>
       <c r="U10" t="n">
         <v>0.31</v>
       </c>
-      <c r="V10" t="s">
-        <v>161</v>
+      <c r="V10" t="n">
+        <v>214799</v>
       </c>
       <c r="W10" t="n">
         <v>0.73</v>
       </c>
-      <c r="X10" t="s">
-        <v>162</v>
+      <c r="X10" t="n">
+        <v>168881</v>
       </c>
       <c r="Y10" t="n">
         <v>0.62</v>
       </c>
-      <c r="Z10" t="s">
-        <v>163</v>
+      <c r="Z10" t="n">
+        <v>257877</v>
       </c>
       <c r="AA10" t="n">
         <v>0.96</v>
       </c>
-      <c r="AB10" t="s">
-        <v>164</v>
+      <c r="AB10" t="n">
+        <v>253891</v>
       </c>
       <c r="AC10" t="n">
         <v>0.97</v>
       </c>
-      <c r="AD10" t="s">
-        <v>165</v>
+      <c r="AD10" t="n">
+        <v>234519</v>
       </c>
       <c r="AE10" t="n">
         <v>0.9</v>
       </c>
-      <c r="AF10" t="s">
-        <v>166</v>
+      <c r="AF10" t="n">
+        <v>186669</v>
       </c>
       <c r="AG10" t="n">
         <v>0.71</v>
@@ -3825,100 +1644,100 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" t="s">
-        <v>168</v>
+        <v>41</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-997405</v>
       </c>
       <c r="C11" t="n">
         <v>-3.44</v>
       </c>
-      <c r="D11" t="s">
-        <v>169</v>
+      <c r="D11" t="n">
+        <v>-1501621</v>
       </c>
       <c r="E11" t="n">
         <v>-5.35</v>
       </c>
-      <c r="F11" t="s">
-        <v>170</v>
+      <c r="F11" t="n">
+        <v>-51838</v>
       </c>
       <c r="G11" t="n">
         <v>-0.17</v>
       </c>
-      <c r="H11" t="s">
-        <v>171</v>
+      <c r="H11" t="n">
+        <v>2773856</v>
       </c>
       <c r="I11" t="n">
         <v>8.31</v>
       </c>
-      <c r="J11" t="s">
-        <v>172</v>
+      <c r="J11" t="n">
+        <v>3282956</v>
       </c>
       <c r="K11" t="n">
         <v>9.640000000000001</v>
       </c>
-      <c r="L11" t="s">
-        <v>173</v>
+      <c r="L11" t="n">
+        <v>1440954</v>
       </c>
       <c r="M11" t="n">
         <v>4.3</v>
       </c>
-      <c r="N11" t="s">
-        <v>174</v>
+      <c r="N11" t="n">
+        <v>1482946</v>
       </c>
       <c r="O11" t="n">
         <v>4.37</v>
       </c>
-      <c r="P11" t="s">
-        <v>175</v>
+      <c r="P11" t="n">
+        <v>1774583</v>
       </c>
       <c r="Q11" t="n">
         <v>5.27</v>
       </c>
-      <c r="R11" t="s">
-        <v>176</v>
+      <c r="R11" t="n">
+        <v>1340053</v>
       </c>
       <c r="S11" t="n">
         <v>4.11</v>
       </c>
-      <c r="T11" t="s">
-        <v>177</v>
+      <c r="T11" t="n">
+        <v>130664</v>
       </c>
       <c r="U11" t="n">
         <v>0.42</v>
       </c>
-      <c r="V11" t="s">
-        <v>178</v>
+      <c r="V11" t="n">
+        <v>-2592510</v>
       </c>
       <c r="W11" t="n">
         <v>-8.76</v>
       </c>
-      <c r="X11" t="s">
-        <v>179</v>
+      <c r="X11" t="n">
+        <v>-3201522</v>
       </c>
       <c r="Y11" t="n">
         <v>-11.69</v>
       </c>
-      <c r="Z11" t="s">
-        <v>180</v>
+      <c r="Z11" t="n">
+        <v>-3079840</v>
       </c>
       <c r="AA11" t="n">
         <v>-11.48</v>
       </c>
-      <c r="AB11" t="s">
-        <v>181</v>
+      <c r="AB11" t="n">
+        <v>-3550134</v>
       </c>
       <c r="AC11" t="n">
         <v>-13.5</v>
       </c>
-      <c r="AD11" t="s">
-        <v>182</v>
+      <c r="AD11" t="n">
+        <v>-1246523</v>
       </c>
       <c r="AE11" t="n">
         <v>-4.8</v>
       </c>
-      <c r="AF11" t="s">
-        <v>183</v>
+      <c r="AF11" t="n">
+        <v>-1447600</v>
       </c>
       <c r="AG11" t="n">
         <v>-5.54</v>
@@ -3926,7 +1745,7 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="1" t="s">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s"/>
       <c r="C12" t="s"/>
@@ -3948,8 +1767,8 @@
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="s"/>
-      <c r="V12" t="s">
-        <v>178</v>
+      <c r="V12" t="n">
+        <v>-2592510</v>
       </c>
       <c r="W12" t="n">
         <v>-8.76</v>
@@ -3967,100 +1786,100 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13" t="s">
-        <v>186</v>
+        <v>43</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1060056</v>
       </c>
       <c r="C13" t="n">
         <v>3.66</v>
       </c>
-      <c r="D13" t="s">
-        <v>187</v>
+      <c r="D13" t="n">
+        <v>977703</v>
       </c>
       <c r="E13" t="n">
         <v>3.49</v>
       </c>
-      <c r="F13" t="s">
-        <v>188</v>
+      <c r="F13" t="n">
+        <v>2006890</v>
       </c>
       <c r="G13" t="n">
         <v>6.76</v>
       </c>
-      <c r="H13" t="s">
-        <v>189</v>
+      <c r="H13" t="n">
+        <v>1546990</v>
       </c>
       <c r="I13" t="n">
         <v>4.64</v>
       </c>
-      <c r="J13" t="s">
-        <v>190</v>
+      <c r="J13" t="n">
+        <v>1905419</v>
       </c>
       <c r="K13" t="n">
         <v>5.59</v>
       </c>
-      <c r="L13" t="s">
-        <v>191</v>
+      <c r="L13" t="n">
+        <v>1880339</v>
       </c>
       <c r="M13" t="n">
         <v>5.62</v>
       </c>
-      <c r="N13" t="s">
-        <v>192</v>
+      <c r="N13" t="n">
+        <v>1571768</v>
       </c>
       <c r="O13" t="n">
         <v>4.64</v>
       </c>
-      <c r="P13" t="s">
-        <v>193</v>
+      <c r="P13" t="n">
+        <v>1171406</v>
       </c>
       <c r="Q13" t="n">
         <v>3.48</v>
       </c>
-      <c r="R13" t="s">
-        <v>194</v>
+      <c r="R13" t="n">
+        <v>845507</v>
       </c>
       <c r="S13" t="n">
         <v>2.6</v>
       </c>
-      <c r="T13" t="s">
-        <v>195</v>
+      <c r="T13" t="n">
+        <v>968855</v>
       </c>
       <c r="U13" t="n">
         <v>3.09</v>
       </c>
-      <c r="V13" t="s">
-        <v>196</v>
+      <c r="V13" t="n">
+        <v>894083</v>
       </c>
       <c r="W13" t="n">
         <v>3.02</v>
       </c>
-      <c r="X13" t="s">
-        <v>197</v>
+      <c r="X13" t="n">
+        <v>556874</v>
       </c>
       <c r="Y13" t="n">
         <v>2.03</v>
       </c>
-      <c r="Z13" t="s">
-        <v>198</v>
+      <c r="Z13" t="n">
+        <v>582306</v>
       </c>
       <c r="AA13" t="n">
         <v>2.17</v>
       </c>
-      <c r="AB13" t="s">
-        <v>199</v>
+      <c r="AB13" t="n">
+        <v>1600898</v>
       </c>
       <c r="AC13" t="n">
         <v>6.09</v>
       </c>
-      <c r="AD13" t="s">
-        <v>200</v>
+      <c r="AD13" t="n">
+        <v>1190044</v>
       </c>
       <c r="AE13" t="n">
         <v>4.59</v>
       </c>
-      <c r="AF13" t="s">
-        <v>201</v>
+      <c r="AF13" t="n">
+        <v>821435</v>
       </c>
       <c r="AG13" t="n">
         <v>3.14</v>
@@ -4068,100 +1887,100 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" t="s">
-        <v>203</v>
+        <v>44</v>
+      </c>
+      <c r="B14" t="n">
+        <v>598888</v>
       </c>
       <c r="C14" t="n">
         <v>2.07</v>
       </c>
-      <c r="D14" t="s">
-        <v>204</v>
+      <c r="D14" t="n">
+        <v>573293</v>
       </c>
       <c r="E14" t="n">
         <v>2.04</v>
       </c>
-      <c r="F14" t="s">
-        <v>205</v>
+      <c r="F14" t="n">
+        <v>1229008</v>
       </c>
       <c r="G14" t="n">
         <v>4.14</v>
       </c>
-      <c r="H14" t="s">
-        <v>206</v>
+      <c r="H14" t="n">
+        <v>1562776</v>
       </c>
       <c r="I14" t="n">
         <v>4.68</v>
       </c>
-      <c r="J14" t="s">
-        <v>207</v>
+      <c r="J14" t="n">
+        <v>1058327</v>
       </c>
       <c r="K14" t="n">
         <v>3.11</v>
       </c>
-      <c r="L14" t="s">
-        <v>208</v>
+      <c r="L14" t="n">
+        <v>2046866</v>
       </c>
       <c r="M14" t="n">
         <v>6.12</v>
       </c>
-      <c r="N14" t="s">
-        <v>209</v>
+      <c r="N14" t="n">
+        <v>2149761</v>
       </c>
       <c r="O14" t="n">
         <v>6.34</v>
       </c>
-      <c r="P14" t="s">
-        <v>210</v>
+      <c r="P14" t="n">
+        <v>1981517</v>
       </c>
       <c r="Q14" t="n">
         <v>5.89</v>
       </c>
-      <c r="R14" t="s">
-        <v>211</v>
+      <c r="R14" t="n">
+        <v>1753572</v>
       </c>
       <c r="S14" t="n">
         <v>5.38</v>
       </c>
-      <c r="T14" t="s">
-        <v>212</v>
+      <c r="T14" t="n">
+        <v>2067806</v>
       </c>
       <c r="U14" t="n">
         <v>6.6</v>
       </c>
-      <c r="V14" t="s">
-        <v>213</v>
+      <c r="V14" t="n">
+        <v>3141252</v>
       </c>
       <c r="W14" t="n">
         <v>10.61</v>
       </c>
-      <c r="X14" t="s">
-        <v>214</v>
+      <c r="X14" t="n">
+        <v>2874441</v>
       </c>
       <c r="Y14" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z14" t="s">
-        <v>215</v>
+      <c r="Z14" t="n">
+        <v>1915935</v>
       </c>
       <c r="AA14" t="n">
         <v>7.14</v>
       </c>
-      <c r="AB14" t="s">
-        <v>216</v>
+      <c r="AB14" t="n">
+        <v>2159426</v>
       </c>
       <c r="AC14" t="n">
         <v>8.210000000000001</v>
       </c>
-      <c r="AD14" t="s">
-        <v>217</v>
+      <c r="AD14" t="n">
+        <v>1995275</v>
       </c>
       <c r="AE14" t="n">
         <v>7.69</v>
       </c>
-      <c r="AF14" t="s">
-        <v>218</v>
+      <c r="AF14" t="n">
+        <v>1605981</v>
       </c>
       <c r="AG14" t="n">
         <v>6.15</v>
@@ -4169,100 +1988,100 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B15" t="s">
-        <v>220</v>
+        <v>45</v>
+      </c>
+      <c r="B15" t="n">
+        <v>460613</v>
       </c>
       <c r="C15" t="n">
         <v>1.59</v>
       </c>
-      <c r="D15" t="s">
-        <v>221</v>
+      <c r="D15" t="n">
+        <v>462123</v>
       </c>
       <c r="E15" t="n">
         <v>1.65</v>
       </c>
-      <c r="F15" t="s">
-        <v>222</v>
+      <c r="F15" t="n">
+        <v>504060</v>
       </c>
       <c r="G15" t="n">
         <v>1.7</v>
       </c>
-      <c r="H15" t="s">
-        <v>223</v>
+      <c r="H15" t="n">
+        <v>486257</v>
       </c>
       <c r="I15" t="n">
         <v>1.46</v>
       </c>
-      <c r="J15" t="s">
-        <v>224</v>
+      <c r="J15" t="n">
+        <v>565830</v>
       </c>
       <c r="K15" t="n">
         <v>1.66</v>
       </c>
-      <c r="L15" t="s">
-        <v>225</v>
+      <c r="L15" t="n">
+        <v>566219</v>
       </c>
       <c r="M15" t="n">
         <v>1.69</v>
       </c>
-      <c r="N15" t="s">
-        <v>226</v>
+      <c r="N15" t="n">
+        <v>573228</v>
       </c>
       <c r="O15" t="n">
         <v>1.69</v>
       </c>
-      <c r="P15" t="s">
-        <v>227</v>
+      <c r="P15" t="n">
+        <v>270226</v>
       </c>
       <c r="Q15" t="n">
         <v>0.8</v>
       </c>
-      <c r="R15" t="s">
-        <v>228</v>
+      <c r="R15" t="n">
+        <v>277681</v>
       </c>
       <c r="S15" t="n">
         <v>0.85</v>
       </c>
-      <c r="T15" t="s">
-        <v>229</v>
+      <c r="T15" t="n">
+        <v>280010</v>
       </c>
       <c r="U15" t="n">
         <v>0.89</v>
       </c>
-      <c r="V15" t="s">
-        <v>230</v>
+      <c r="V15" t="n">
+        <v>285632</v>
       </c>
       <c r="W15" t="n">
         <v>0.97</v>
       </c>
-      <c r="X15" t="s">
-        <v>231</v>
+      <c r="X15" t="n">
+        <v>256537</v>
       </c>
       <c r="Y15" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="Z15" t="s">
-        <v>232</v>
+      <c r="Z15" t="n">
+        <v>257706</v>
       </c>
       <c r="AA15" t="n">
         <v>0.96</v>
       </c>
-      <c r="AB15" t="s">
-        <v>233</v>
+      <c r="AB15" t="n">
+        <v>254604</v>
       </c>
       <c r="AC15" t="n">
         <v>0.97</v>
       </c>
-      <c r="AD15" t="s">
-        <v>234</v>
+      <c r="AD15" t="n">
+        <v>252309</v>
       </c>
       <c r="AE15" t="n">
         <v>0.97</v>
       </c>
-      <c r="AF15" t="s">
-        <v>235</v>
+      <c r="AF15" t="n">
+        <v>229255</v>
       </c>
       <c r="AG15" t="n">
         <v>0.88</v>
@@ -4270,100 +2089,100 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B16" t="s">
-        <v>237</v>
+        <v>46</v>
+      </c>
+      <c r="B16" t="n">
+        <v>488435</v>
       </c>
       <c r="C16" t="n">
         <v>1.69</v>
       </c>
-      <c r="D16" t="s">
-        <v>238</v>
+      <c r="D16" t="n">
+        <v>478977</v>
       </c>
       <c r="E16" t="n">
         <v>1.71</v>
       </c>
-      <c r="F16" t="s">
-        <v>239</v>
+      <c r="F16" t="n">
+        <v>1000643</v>
       </c>
       <c r="G16" t="n">
         <v>3.37</v>
       </c>
-      <c r="H16" t="s">
-        <v>240</v>
+      <c r="H16" t="n">
+        <v>1154162</v>
       </c>
       <c r="I16" t="n">
         <v>3.46</v>
       </c>
-      <c r="J16" t="s">
-        <v>241</v>
+      <c r="J16" t="n">
+        <v>1683766</v>
       </c>
       <c r="K16" t="n">
         <v>4.94</v>
       </c>
-      <c r="L16" t="s">
-        <v>242</v>
+      <c r="L16" t="n">
+        <v>1763710</v>
       </c>
       <c r="M16" t="n">
         <v>5.27</v>
       </c>
-      <c r="N16" t="s">
-        <v>243</v>
+      <c r="N16" t="n">
+        <v>1965708</v>
       </c>
       <c r="O16" t="n">
         <v>5.8</v>
       </c>
-      <c r="P16" t="s">
-        <v>244</v>
+      <c r="P16" t="n">
+        <v>1635034</v>
       </c>
       <c r="Q16" t="n">
         <v>4.86</v>
       </c>
-      <c r="R16" t="s">
-        <v>245</v>
+      <c r="R16" t="n">
+        <v>1617530</v>
       </c>
       <c r="S16" t="n">
         <v>4.97</v>
       </c>
-      <c r="T16" t="s">
-        <v>246</v>
+      <c r="T16" t="n">
+        <v>1486396</v>
       </c>
       <c r="U16" t="n">
         <v>4.74</v>
       </c>
-      <c r="V16" t="s">
-        <v>247</v>
+      <c r="V16" t="n">
+        <v>1587213</v>
       </c>
       <c r="W16" t="n">
         <v>5.36</v>
       </c>
-      <c r="X16" t="s">
-        <v>248</v>
+      <c r="X16" t="n">
+        <v>1777468</v>
       </c>
       <c r="Y16" t="n">
         <v>6.49</v>
       </c>
-      <c r="Z16" t="s">
-        <v>249</v>
+      <c r="Z16" t="n">
+        <v>1762451</v>
       </c>
       <c r="AA16" t="n">
         <v>6.57</v>
       </c>
-      <c r="AB16" t="s">
-        <v>250</v>
+      <c r="AB16" t="n">
+        <v>1711652</v>
       </c>
       <c r="AC16" t="n">
         <v>6.51</v>
       </c>
-      <c r="AD16" t="s">
-        <v>251</v>
+      <c r="AD16" t="n">
+        <v>1686130</v>
       </c>
       <c r="AE16" t="n">
         <v>6.5</v>
       </c>
-      <c r="AF16" t="s">
-        <v>252</v>
+      <c r="AF16" t="n">
+        <v>935570</v>
       </c>
       <c r="AG16" t="n">
         <v>3.58</v>
@@ -4371,100 +2190,100 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B17" t="s">
-        <v>254</v>
+        <v>47</v>
+      </c>
+      <c r="B17" t="n">
+        <v>921566</v>
       </c>
       <c r="C17" t="n">
         <v>3.18</v>
       </c>
-      <c r="D17" t="s">
-        <v>255</v>
+      <c r="D17" t="n">
+        <v>923011</v>
       </c>
       <c r="E17" t="n">
         <v>3.29</v>
       </c>
-      <c r="F17" t="s">
-        <v>256</v>
+      <c r="F17" t="n">
+        <v>967937</v>
       </c>
       <c r="G17" t="n">
         <v>3.26</v>
       </c>
-      <c r="H17" t="s">
-        <v>257</v>
+      <c r="H17" t="n">
+        <v>1312784</v>
       </c>
       <c r="I17" t="n">
         <v>3.93</v>
       </c>
-      <c r="J17" t="s">
-        <v>258</v>
+      <c r="J17" t="n">
+        <v>1342103</v>
       </c>
       <c r="K17" t="n">
         <v>3.94</v>
       </c>
-      <c r="L17" t="s">
-        <v>259</v>
+      <c r="L17" t="n">
+        <v>1574644</v>
       </c>
       <c r="M17" t="n">
         <v>4.7</v>
       </c>
-      <c r="N17" t="s">
-        <v>260</v>
+      <c r="N17" t="n">
+        <v>1117994</v>
       </c>
       <c r="O17" t="n">
         <v>3.3</v>
       </c>
-      <c r="P17" t="s">
-        <v>261</v>
+      <c r="P17" t="n">
+        <v>1148184</v>
       </c>
       <c r="Q17" t="n">
         <v>3.41</v>
       </c>
-      <c r="R17" t="s">
-        <v>262</v>
+      <c r="R17" t="n">
+        <v>1142911</v>
       </c>
       <c r="S17" t="n">
         <v>3.51</v>
       </c>
-      <c r="T17" t="s">
-        <v>263</v>
+      <c r="T17" t="n">
+        <v>1161759</v>
       </c>
       <c r="U17" t="n">
         <v>3.71</v>
       </c>
-      <c r="V17" t="s">
-        <v>264</v>
+      <c r="V17" t="n">
+        <v>1192776</v>
       </c>
       <c r="W17" t="n">
         <v>4.03</v>
       </c>
-      <c r="X17" t="s">
-        <v>265</v>
+      <c r="X17" t="n">
+        <v>1229687</v>
       </c>
       <c r="Y17" t="n">
         <v>4.49</v>
       </c>
-      <c r="Z17" t="s">
-        <v>266</v>
+      <c r="Z17" t="n">
+        <v>1195874</v>
       </c>
       <c r="AA17" t="n">
         <v>4.46</v>
       </c>
-      <c r="AB17" t="s">
-        <v>267</v>
+      <c r="AB17" t="n">
+        <v>1156905</v>
       </c>
       <c r="AC17" t="n">
         <v>4.4</v>
       </c>
-      <c r="AD17" t="s">
-        <v>268</v>
+      <c r="AD17" t="n">
+        <v>1063506</v>
       </c>
       <c r="AE17" t="n">
         <v>4.1</v>
       </c>
-      <c r="AF17" t="s">
-        <v>269</v>
+      <c r="AF17" t="n">
+        <v>806951</v>
       </c>
       <c r="AG17" t="n">
         <v>3.09</v>
@@ -4472,100 +2291,100 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B18" t="s">
-        <v>271</v>
+        <v>48</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-1153409</v>
       </c>
       <c r="C18" t="n">
         <v>-3.98</v>
       </c>
-      <c r="D18" t="s">
-        <v>271</v>
+      <c r="D18" t="n">
+        <v>-1153409</v>
       </c>
       <c r="E18" t="n">
         <v>-4.11</v>
       </c>
-      <c r="F18" t="s">
-        <v>272</v>
+      <c r="F18" t="n">
+        <v>-1149426</v>
       </c>
       <c r="G18" t="n">
         <v>-3.87</v>
       </c>
-      <c r="H18" t="s">
-        <v>272</v>
+      <c r="H18" t="n">
+        <v>-1149426</v>
       </c>
       <c r="I18" t="n">
         <v>-3.44</v>
       </c>
-      <c r="J18" t="s">
-        <v>272</v>
+      <c r="J18" t="n">
+        <v>-1149426</v>
       </c>
       <c r="K18" t="n">
         <v>-3.37</v>
       </c>
-      <c r="L18" t="s">
-        <v>272</v>
+      <c r="L18" t="n">
+        <v>-1149426</v>
       </c>
       <c r="M18" t="n">
         <v>-3.43</v>
       </c>
-      <c r="N18" t="s">
-        <v>272</v>
+      <c r="N18" t="n">
+        <v>-1149426</v>
       </c>
       <c r="O18" t="n">
         <v>-3.39</v>
       </c>
-      <c r="P18" t="s">
-        <v>272</v>
+      <c r="P18" t="n">
+        <v>-1149426</v>
       </c>
       <c r="Q18" t="n">
         <v>-3.41</v>
       </c>
-      <c r="R18" t="s">
-        <v>272</v>
+      <c r="R18" t="n">
+        <v>-1149426</v>
       </c>
       <c r="S18" t="n">
         <v>-3.53</v>
       </c>
-      <c r="T18" t="s">
-        <v>272</v>
+      <c r="T18" t="n">
+        <v>-1149426</v>
       </c>
       <c r="U18" t="n">
         <v>-3.67</v>
       </c>
-      <c r="V18" t="s">
-        <v>273</v>
+      <c r="V18" t="n">
+        <v>-1163291</v>
       </c>
       <c r="W18" t="n">
         <v>-3.93</v>
       </c>
-      <c r="X18" t="s">
-        <v>274</v>
+      <c r="X18" t="n">
+        <v>-1170260</v>
       </c>
       <c r="Y18" t="n">
         <v>-4.27</v>
       </c>
-      <c r="Z18" t="s">
-        <v>272</v>
+      <c r="Z18" t="n">
+        <v>-1149426</v>
       </c>
       <c r="AA18" t="n">
         <v>-4.29</v>
       </c>
-      <c r="AB18" t="s">
-        <v>272</v>
+      <c r="AB18" t="n">
+        <v>-1149426</v>
       </c>
       <c r="AC18" t="n">
         <v>-4.37</v>
       </c>
-      <c r="AD18" t="s">
-        <v>272</v>
+      <c r="AD18" t="n">
+        <v>-1149426</v>
       </c>
       <c r="AE18" t="n">
         <v>-4.43</v>
       </c>
-      <c r="AF18" t="s">
-        <v>272</v>
+      <c r="AF18" t="n">
+        <v>-1149426</v>
       </c>
       <c r="AG18" t="n">
         <v>-4.4</v>
@@ -4573,7 +2392,7 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
-        <v>275</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s"/>
       <c r="C19" t="s"/>
@@ -4589,46 +2408,46 @@
       <c r="M19" t="s"/>
       <c r="N19" t="s"/>
       <c r="O19" t="s"/>
-      <c r="P19" t="s">
-        <v>276</v>
+      <c r="P19" t="n">
+        <v>147940</v>
       </c>
       <c r="Q19" t="n">
         <v>0.44</v>
       </c>
-      <c r="R19" t="s">
-        <v>131</v>
+      <c r="R19" t="n">
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
-      <c r="T19" t="s">
-        <v>277</v>
+      <c r="T19" t="n">
+        <v>192061</v>
       </c>
       <c r="U19" t="n">
         <v>0.61</v>
       </c>
-      <c r="V19" t="s">
-        <v>277</v>
+      <c r="V19" t="n">
+        <v>192061</v>
       </c>
       <c r="W19" t="n">
         <v>0.65</v>
       </c>
-      <c r="X19" t="s">
-        <v>131</v>
+      <c r="X19" t="n">
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
       </c>
       <c r="Z19" t="s"/>
       <c r="AA19" t="s"/>
-      <c r="AB19" t="s">
-        <v>131</v>
+      <c r="AB19" t="n">
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
-      <c r="AD19" t="s">
-        <v>131</v>
+      <c r="AD19" t="n">
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
         <v>0</v>
@@ -4638,12 +2457,12 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="1" t="s">
-        <v>278</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s"/>
       <c r="C20" t="s"/>
-      <c r="D20" t="s">
-        <v>131</v>
+      <c r="D20" t="n">
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -4679,7 +2498,7 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="1" t="s">
-        <v>279</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -4689,20 +2508,20 @@
       <c r="G21" t="s"/>
       <c r="H21" t="s"/>
       <c r="I21" t="s"/>
-      <c r="J21" t="s">
-        <v>131</v>
+      <c r="J21" t="n">
+        <v>0</v>
       </c>
       <c r="K21" t="s"/>
-      <c r="L21" t="s">
-        <v>131</v>
+      <c r="L21" t="n">
+        <v>0</v>
       </c>
       <c r="M21" t="s"/>
-      <c r="N21" t="s">
-        <v>131</v>
+      <c r="N21" t="n">
+        <v>0</v>
       </c>
       <c r="O21" t="s"/>
-      <c r="P21" t="s">
-        <v>131</v>
+      <c r="P21" t="n">
+        <v>0</v>
       </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
@@ -4724,100 +2543,100 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B22" t="s">
-        <v>281</v>
+        <v>52</v>
+      </c>
+      <c r="B22" t="n">
+        <v>308533</v>
       </c>
       <c r="C22" t="n">
         <v>1.06</v>
       </c>
-      <c r="D22" t="s">
-        <v>282</v>
+      <c r="D22" t="n">
+        <v>428357</v>
       </c>
       <c r="E22" t="n">
         <v>1.53</v>
       </c>
-      <c r="F22" t="s">
-        <v>283</v>
+      <c r="F22" t="n">
+        <v>450965</v>
       </c>
       <c r="G22" t="n">
         <v>1.52</v>
       </c>
-      <c r="H22" t="s">
-        <v>284</v>
+      <c r="H22" t="n">
+        <v>572950</v>
       </c>
       <c r="I22" t="n">
         <v>1.72</v>
       </c>
-      <c r="J22" t="s">
-        <v>285</v>
+      <c r="J22" t="n">
+        <v>535538</v>
       </c>
       <c r="K22" t="n">
         <v>1.57</v>
       </c>
-      <c r="L22" t="s">
-        <v>286</v>
+      <c r="L22" t="n">
+        <v>463771</v>
       </c>
       <c r="M22" t="n">
         <v>1.39</v>
       </c>
-      <c r="N22" t="s">
-        <v>287</v>
+      <c r="N22" t="n">
+        <v>467874</v>
       </c>
       <c r="O22" t="n">
         <v>1.38</v>
       </c>
-      <c r="P22" t="s">
-        <v>288</v>
+      <c r="P22" t="n">
+        <v>527656</v>
       </c>
       <c r="Q22" t="n">
         <v>1.57</v>
       </c>
-      <c r="R22" t="s">
-        <v>289</v>
+      <c r="R22" t="n">
+        <v>275434</v>
       </c>
       <c r="S22" t="n">
         <v>0.85</v>
       </c>
-      <c r="T22" t="s">
-        <v>290</v>
+      <c r="T22" t="n">
+        <v>224366</v>
       </c>
       <c r="U22" t="n">
         <v>0.72</v>
       </c>
-      <c r="V22" t="s">
-        <v>291</v>
+      <c r="V22" t="n">
+        <v>220477</v>
       </c>
       <c r="W22" t="n">
         <v>0.74</v>
       </c>
-      <c r="X22" t="s">
-        <v>292</v>
+      <c r="X22" t="n">
+        <v>324362</v>
       </c>
       <c r="Y22" t="n">
         <v>1.18</v>
       </c>
-      <c r="Z22" t="s">
-        <v>293</v>
+      <c r="Z22" t="n">
+        <v>229395</v>
       </c>
       <c r="AA22" t="n">
         <v>0.86</v>
       </c>
-      <c r="AB22" t="s">
-        <v>294</v>
+      <c r="AB22" t="n">
+        <v>363261</v>
       </c>
       <c r="AC22" t="n">
         <v>1.38</v>
       </c>
-      <c r="AD22" t="s">
-        <v>295</v>
+      <c r="AD22" t="n">
+        <v>276841</v>
       </c>
       <c r="AE22" t="n">
         <v>1.07</v>
       </c>
-      <c r="AF22" t="s">
-        <v>296</v>
+      <c r="AF22" t="n">
+        <v>242258</v>
       </c>
       <c r="AG22" t="n">
         <v>0.93</v>
@@ -4825,100 +2644,100 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B23" t="s">
-        <v>298</v>
+        <v>53</v>
+      </c>
+      <c r="B23" t="n">
+        <v>61016</v>
       </c>
       <c r="C23" t="n">
         <v>0.21</v>
       </c>
-      <c r="D23" t="s">
-        <v>299</v>
+      <c r="D23" t="n">
+        <v>74324</v>
       </c>
       <c r="E23" t="n">
         <v>0.26</v>
       </c>
-      <c r="F23" t="s">
-        <v>300</v>
+      <c r="F23" t="n">
+        <v>115438</v>
       </c>
       <c r="G23" t="n">
         <v>0.39</v>
       </c>
-      <c r="H23" t="s">
-        <v>301</v>
+      <c r="H23" t="n">
+        <v>86714</v>
       </c>
       <c r="I23" t="n">
         <v>0.26</v>
       </c>
-      <c r="J23" t="s">
-        <v>302</v>
+      <c r="J23" t="n">
+        <v>78147</v>
       </c>
       <c r="K23" t="n">
         <v>0.23</v>
       </c>
-      <c r="L23" t="s">
-        <v>303</v>
+      <c r="L23" t="n">
+        <v>100714</v>
       </c>
       <c r="M23" t="n">
         <v>0.3</v>
       </c>
-      <c r="N23" t="s">
-        <v>304</v>
+      <c r="N23" t="n">
+        <v>140623</v>
       </c>
       <c r="O23" t="n">
         <v>0.41</v>
       </c>
-      <c r="P23" t="s">
-        <v>305</v>
+      <c r="P23" t="n">
+        <v>98415</v>
       </c>
       <c r="Q23" t="n">
         <v>0.29</v>
       </c>
-      <c r="R23" t="s">
-        <v>306</v>
+      <c r="R23" t="n">
+        <v>108654</v>
       </c>
       <c r="S23" t="n">
         <v>0.33</v>
       </c>
-      <c r="T23" t="s">
-        <v>307</v>
+      <c r="T23" t="n">
+        <v>85670</v>
       </c>
       <c r="U23" t="n">
         <v>0.27</v>
       </c>
-      <c r="V23" t="s">
-        <v>308</v>
+      <c r="V23" t="n">
+        <v>110743</v>
       </c>
       <c r="W23" t="n">
         <v>0.37</v>
       </c>
-      <c r="X23" t="s">
-        <v>309</v>
+      <c r="X23" t="n">
+        <v>94028</v>
       </c>
       <c r="Y23" t="n">
         <v>0.34</v>
       </c>
-      <c r="Z23" t="s">
-        <v>305</v>
+      <c r="Z23" t="n">
+        <v>98415</v>
       </c>
       <c r="AA23" t="n">
         <v>0.37</v>
       </c>
-      <c r="AB23" t="s">
-        <v>310</v>
+      <c r="AB23" t="n">
+        <v>110378</v>
       </c>
       <c r="AC23" t="n">
         <v>0.42</v>
       </c>
-      <c r="AD23" t="s">
-        <v>311</v>
+      <c r="AD23" t="n">
+        <v>96535</v>
       </c>
       <c r="AE23" t="n">
         <v>0.37</v>
       </c>
-      <c r="AF23" t="s">
-        <v>302</v>
+      <c r="AF23" t="n">
+        <v>78147</v>
       </c>
       <c r="AG23" t="n">
         <v>0.3</v>
@@ -4926,94 +2745,94 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B24" t="s">
-        <v>313</v>
+        <v>54</v>
+      </c>
+      <c r="B24" t="n">
+        <v>9994</v>
       </c>
       <c r="C24" t="n">
         <v>0.03</v>
       </c>
-      <c r="D24" t="s">
-        <v>314</v>
+      <c r="D24" t="n">
+        <v>129331</v>
       </c>
       <c r="E24" t="n">
         <v>0.46</v>
       </c>
-      <c r="F24" t="s">
-        <v>131</v>
+      <c r="F24" t="n">
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="s">
-        <v>131</v>
+      <c r="H24" t="n">
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="s">
-        <v>315</v>
+      <c r="J24" t="n">
+        <v>224847</v>
       </c>
       <c r="K24" t="n">
         <v>0.66</v>
       </c>
-      <c r="L24" t="s">
-        <v>316</v>
+      <c r="L24" t="n">
+        <v>768756</v>
       </c>
       <c r="M24" t="n">
         <v>2.3</v>
       </c>
-      <c r="N24" t="s">
-        <v>317</v>
+      <c r="N24" t="n">
+        <v>603467</v>
       </c>
       <c r="O24" t="n">
         <v>1.78</v>
       </c>
-      <c r="P24" t="s">
-        <v>318</v>
+      <c r="P24" t="n">
+        <v>235739</v>
       </c>
       <c r="Q24" t="n">
         <v>0.7</v>
       </c>
-      <c r="R24" t="s">
-        <v>319</v>
+      <c r="R24" t="n">
+        <v>349903</v>
       </c>
       <c r="S24" t="n">
         <v>1.07</v>
       </c>
-      <c r="T24" t="s">
-        <v>320</v>
+      <c r="T24" t="n">
+        <v>194949</v>
       </c>
       <c r="U24" t="n">
         <v>0.62</v>
       </c>
-      <c r="V24" t="s">
-        <v>321</v>
+      <c r="V24" t="n">
+        <v>123984</v>
       </c>
       <c r="W24" t="n">
         <v>0.42</v>
       </c>
-      <c r="X24" t="s">
-        <v>131</v>
+      <c r="X24" t="n">
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
       </c>
-      <c r="Z24" t="s">
-        <v>322</v>
+      <c r="Z24" t="n">
+        <v>61904</v>
       </c>
       <c r="AA24" t="n">
         <v>0.23</v>
       </c>
-      <c r="AB24" t="s">
-        <v>323</v>
+      <c r="AB24" t="n">
+        <v>117944</v>
       </c>
       <c r="AC24" t="n">
         <v>0.45</v>
       </c>
-      <c r="AD24" t="s">
-        <v>324</v>
+      <c r="AD24" t="n">
+        <v>65000</v>
       </c>
       <c r="AE24" t="n">
         <v>0.25</v>
@@ -5023,100 +2842,100 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B25" t="s">
-        <v>326</v>
+        <v>55</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3737</v>
       </c>
       <c r="C25" t="n">
         <v>0.01</v>
       </c>
-      <c r="D25" t="s">
-        <v>327</v>
+      <c r="D25" t="n">
+        <v>3790</v>
       </c>
       <c r="E25" t="n">
         <v>0.01</v>
       </c>
-      <c r="F25" t="s">
-        <v>328</v>
+      <c r="F25" t="n">
+        <v>3735</v>
       </c>
       <c r="G25" t="n">
         <v>0.01</v>
       </c>
-      <c r="H25" t="s">
-        <v>329</v>
+      <c r="H25" t="n">
+        <v>4525</v>
       </c>
       <c r="I25" t="n">
         <v>0.01</v>
       </c>
-      <c r="J25" t="s">
-        <v>330</v>
+      <c r="J25" t="n">
+        <v>4161</v>
       </c>
       <c r="K25" t="n">
         <v>0.01</v>
       </c>
-      <c r="L25" t="s">
-        <v>330</v>
+      <c r="L25" t="n">
+        <v>4161</v>
       </c>
       <c r="M25" t="n">
         <v>0.01</v>
       </c>
-      <c r="N25" t="s">
-        <v>331</v>
+      <c r="N25" t="n">
+        <v>3896</v>
       </c>
       <c r="O25" t="n">
         <v>0.01</v>
       </c>
-      <c r="P25" t="s">
-        <v>332</v>
+      <c r="P25" t="n">
+        <v>3926</v>
       </c>
       <c r="Q25" t="n">
         <v>0.01</v>
       </c>
-      <c r="R25" t="s">
-        <v>333</v>
+      <c r="R25" t="n">
+        <v>3154</v>
       </c>
       <c r="S25" t="n">
         <v>0.01</v>
       </c>
-      <c r="T25" t="s">
-        <v>334</v>
+      <c r="T25" t="n">
+        <v>4135</v>
       </c>
       <c r="U25" t="n">
         <v>0.01</v>
       </c>
-      <c r="V25" t="s">
-        <v>335</v>
+      <c r="V25" t="n">
+        <v>3285</v>
       </c>
       <c r="W25" t="n">
         <v>0.01</v>
       </c>
-      <c r="X25" t="s">
-        <v>336</v>
+      <c r="X25" t="n">
+        <v>36410</v>
       </c>
       <c r="Y25" t="n">
         <v>0.13</v>
       </c>
-      <c r="Z25" t="s">
-        <v>337</v>
+      <c r="Z25" t="n">
+        <v>35222</v>
       </c>
       <c r="AA25" t="n">
         <v>0.13</v>
       </c>
-      <c r="AB25" t="s">
-        <v>338</v>
+      <c r="AB25" t="n">
+        <v>3108</v>
       </c>
       <c r="AC25" t="n">
         <v>0.01</v>
       </c>
-      <c r="AD25" t="s">
-        <v>339</v>
+      <c r="AD25" t="n">
+        <v>3072</v>
       </c>
       <c r="AE25" t="n">
         <v>0.01</v>
       </c>
-      <c r="AF25" t="s">
-        <v>340</v>
+      <c r="AF25" t="n">
+        <v>3073</v>
       </c>
       <c r="AG25" t="n">
         <v>0.01</v>
@@ -5124,7 +2943,7 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="1" t="s">
-        <v>341</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s"/>
       <c r="C26" t="s"/>
@@ -5138,8 +2957,8 @@
       <c r="K26" t="s"/>
       <c r="L26" t="s"/>
       <c r="M26" t="s"/>
-      <c r="N26" t="s">
-        <v>342</v>
+      <c r="N26" t="n">
+        <v>199</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -5150,8 +2969,8 @@
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="s"/>
-      <c r="V26" t="s">
-        <v>131</v>
+      <c r="V26" t="n">
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -5169,100 +2988,100 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B27" t="s">
-        <v>344</v>
+        <v>57</v>
+      </c>
+      <c r="B27" t="n">
+        <v>138117</v>
       </c>
       <c r="C27" t="n">
         <v>0.48</v>
       </c>
-      <c r="D27" t="s">
-        <v>345</v>
+      <c r="D27" t="n">
+        <v>174641</v>
       </c>
       <c r="E27" t="n">
         <v>0.62</v>
       </c>
-      <c r="F27" t="s">
-        <v>346</v>
+      <c r="F27" t="n">
+        <v>207666</v>
       </c>
       <c r="G27" t="n">
         <v>0.7</v>
       </c>
-      <c r="H27" t="s">
-        <v>347</v>
+      <c r="H27" t="n">
+        <v>184346</v>
       </c>
       <c r="I27" t="n">
         <v>0.55</v>
       </c>
-      <c r="J27" t="s">
-        <v>348</v>
+      <c r="J27" t="n">
+        <v>199164</v>
       </c>
       <c r="K27" t="n">
         <v>0.58</v>
       </c>
-      <c r="L27" t="s">
-        <v>349</v>
+      <c r="L27" t="n">
+        <v>115286</v>
       </c>
       <c r="M27" t="n">
         <v>0.34</v>
       </c>
-      <c r="N27" t="s">
-        <v>350</v>
+      <c r="N27" t="n">
+        <v>149873</v>
       </c>
       <c r="O27" t="n">
         <v>0.44</v>
       </c>
-      <c r="P27" t="s">
-        <v>351</v>
+      <c r="P27" t="n">
+        <v>109817</v>
       </c>
       <c r="Q27" t="n">
         <v>0.33</v>
       </c>
-      <c r="R27" t="s">
-        <v>352</v>
+      <c r="R27" t="n">
+        <v>77679</v>
       </c>
       <c r="S27" t="n">
         <v>0.24</v>
       </c>
-      <c r="T27" t="s">
-        <v>353</v>
+      <c r="T27" t="n">
+        <v>53080</v>
       </c>
       <c r="U27" t="n">
         <v>0.17</v>
       </c>
-      <c r="V27" t="s">
-        <v>354</v>
+      <c r="V27" t="n">
+        <v>55466</v>
       </c>
       <c r="W27" t="n">
         <v>0.19</v>
       </c>
-      <c r="X27" t="s">
-        <v>355</v>
+      <c r="X27" t="n">
+        <v>100549</v>
       </c>
       <c r="Y27" t="n">
         <v>0.37</v>
       </c>
-      <c r="Z27" t="s">
-        <v>356</v>
+      <c r="Z27" t="n">
+        <v>79231</v>
       </c>
       <c r="AA27" t="n">
         <v>0.3</v>
       </c>
-      <c r="AB27" t="s">
-        <v>357</v>
+      <c r="AB27" t="n">
+        <v>72173</v>
       </c>
       <c r="AC27" t="n">
         <v>0.27</v>
       </c>
-      <c r="AD27" t="s">
-        <v>358</v>
+      <c r="AD27" t="n">
+        <v>74065</v>
       </c>
       <c r="AE27" t="n">
         <v>0.29</v>
       </c>
-      <c r="AF27" t="s">
-        <v>359</v>
+      <c r="AF27" t="n">
+        <v>82360</v>
       </c>
       <c r="AG27" t="n">
         <v>0.32</v>
@@ -5270,100 +3089,100 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B28" t="s">
-        <v>361</v>
+        <v>58</v>
+      </c>
+      <c r="B28" t="n">
+        <v>321</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>362</v>
+      <c r="D28" t="n">
+        <v>85</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
-      <c r="F28" t="s">
-        <v>363</v>
+      <c r="F28" t="n">
+        <v>42</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
-      <c r="H28" t="s">
-        <v>364</v>
+      <c r="H28" t="n">
+        <v>39</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="s">
-        <v>365</v>
+      <c r="J28" t="n">
+        <v>31</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
-      <c r="L28" t="s">
-        <v>366</v>
+      <c r="L28" t="n">
+        <v>33</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
-      <c r="N28" t="s">
-        <v>367</v>
+      <c r="N28" t="n">
+        <v>36</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
-      <c r="P28" t="s">
-        <v>368</v>
+      <c r="P28" t="n">
+        <v>6992</v>
       </c>
       <c r="Q28" t="n">
         <v>0.02</v>
       </c>
-      <c r="R28" t="s">
-        <v>369</v>
+      <c r="R28" t="n">
+        <v>33203</v>
       </c>
       <c r="S28" t="n">
         <v>0.1</v>
       </c>
-      <c r="T28" t="s">
-        <v>370</v>
+      <c r="T28" t="n">
+        <v>11751</v>
       </c>
       <c r="U28" t="n">
         <v>0.04</v>
       </c>
-      <c r="V28" t="s">
-        <v>371</v>
+      <c r="V28" t="n">
+        <v>550</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
-      <c r="X28" t="s">
-        <v>365</v>
+      <c r="X28" t="n">
+        <v>31</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
       </c>
-      <c r="Z28" t="s">
-        <v>372</v>
+      <c r="Z28" t="n">
+        <v>28</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
       </c>
-      <c r="AB28" t="s">
-        <v>373</v>
+      <c r="AB28" t="n">
+        <v>9</v>
       </c>
       <c r="AC28" t="n">
         <v>0</v>
       </c>
-      <c r="AD28" t="s">
-        <v>373</v>
+      <c r="AD28" t="n">
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>0</v>
       </c>
-      <c r="AF28" t="s">
-        <v>373</v>
+      <c r="AF28" t="n">
+        <v>9</v>
       </c>
       <c r="AG28" t="n">
         <v>0</v>
@@ -5371,100 +3190,100 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B29" t="s">
-        <v>375</v>
+        <v>59</v>
+      </c>
+      <c r="B29" t="n">
+        <v>379326</v>
       </c>
       <c r="C29" t="n">
         <v>1.31</v>
       </c>
-      <c r="D29" t="s">
-        <v>376</v>
+      <c r="D29" t="n">
+        <v>417161</v>
       </c>
       <c r="E29" t="n">
         <v>1.49</v>
       </c>
-      <c r="F29" t="s">
-        <v>377</v>
+      <c r="F29" t="n">
+        <v>387814</v>
       </c>
       <c r="G29" t="n">
         <v>1.31</v>
       </c>
-      <c r="H29" t="s">
-        <v>378</v>
+      <c r="H29" t="n">
+        <v>544987</v>
       </c>
       <c r="I29" t="n">
         <v>1.63</v>
       </c>
-      <c r="J29" t="s">
-        <v>379</v>
+      <c r="J29" t="n">
+        <v>433464</v>
       </c>
       <c r="K29" t="n">
         <v>1.27</v>
       </c>
-      <c r="L29" t="s">
-        <v>380</v>
+      <c r="L29" t="n">
+        <v>267047</v>
       </c>
       <c r="M29" t="n">
         <v>0.8</v>
       </c>
-      <c r="N29" t="s">
-        <v>381</v>
+      <c r="N29" t="n">
+        <v>351137</v>
       </c>
       <c r="O29" t="n">
         <v>1.04</v>
       </c>
-      <c r="P29" t="s">
-        <v>382</v>
+      <c r="P29" t="n">
+        <v>454996</v>
       </c>
       <c r="Q29" t="n">
         <v>1.35</v>
       </c>
-      <c r="R29" t="s">
-        <v>383</v>
+      <c r="R29" t="n">
+        <v>252350</v>
       </c>
       <c r="S29" t="n">
         <v>0.77</v>
       </c>
-      <c r="T29" t="s">
-        <v>384</v>
+      <c r="T29" t="n">
+        <v>226743</v>
       </c>
       <c r="U29" t="n">
         <v>0.72</v>
       </c>
-      <c r="V29" t="s">
-        <v>385</v>
+      <c r="V29" t="n">
+        <v>161817</v>
       </c>
       <c r="W29" t="n">
         <v>0.55</v>
       </c>
-      <c r="X29" t="s">
-        <v>348</v>
+      <c r="X29" t="n">
+        <v>199164</v>
       </c>
       <c r="Y29" t="n">
         <v>0.73</v>
       </c>
-      <c r="Z29" t="s">
-        <v>386</v>
+      <c r="Z29" t="n">
+        <v>138637</v>
       </c>
       <c r="AA29" t="n">
         <v>0.52</v>
       </c>
-      <c r="AB29" t="s">
-        <v>387</v>
+      <c r="AB29" t="n">
+        <v>194341</v>
       </c>
       <c r="AC29" t="n">
         <v>0.74</v>
       </c>
-      <c r="AD29" t="s">
-        <v>388</v>
+      <c r="AD29" t="n">
+        <v>145085</v>
       </c>
       <c r="AE29" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AF29" t="s">
-        <v>389</v>
+      <c r="AF29" t="n">
+        <v>291536</v>
       </c>
       <c r="AG29" t="n">
         <v>1.12</v>
@@ -5472,100 +3291,100 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B30" t="s">
-        <v>391</v>
+        <v>60</v>
+      </c>
+      <c r="B30" t="n">
+        <v>17120</v>
       </c>
       <c r="C30" t="n">
         <v>0.06</v>
       </c>
-      <c r="D30" t="s">
-        <v>392</v>
+      <c r="D30" t="n">
+        <v>13754</v>
       </c>
       <c r="E30" t="n">
         <v>0.05</v>
       </c>
-      <c r="F30" t="s">
-        <v>393</v>
+      <c r="F30" t="n">
+        <v>17207</v>
       </c>
       <c r="G30" t="n">
         <v>0.06</v>
       </c>
-      <c r="H30" t="s">
-        <v>394</v>
+      <c r="H30" t="n">
+        <v>16313</v>
       </c>
       <c r="I30" t="n">
         <v>0.05</v>
       </c>
-      <c r="J30" t="s">
-        <v>395</v>
+      <c r="J30" t="n">
+        <v>17148</v>
       </c>
       <c r="K30" t="n">
         <v>0.05</v>
       </c>
-      <c r="L30" t="s">
-        <v>396</v>
+      <c r="L30" t="n">
+        <v>11014</v>
       </c>
       <c r="M30" t="n">
         <v>0.03</v>
       </c>
-      <c r="N30" t="s">
-        <v>397</v>
+      <c r="N30" t="n">
+        <v>9329</v>
       </c>
       <c r="O30" t="n">
         <v>0.03</v>
       </c>
-      <c r="P30" t="s">
-        <v>398</v>
+      <c r="P30" t="n">
+        <v>7031</v>
       </c>
       <c r="Q30" t="n">
         <v>0.02</v>
       </c>
-      <c r="R30" t="s">
-        <v>399</v>
+      <c r="R30" t="n">
+        <v>4567</v>
       </c>
       <c r="S30" t="n">
         <v>0.01</v>
       </c>
-      <c r="T30" t="s">
-        <v>400</v>
+      <c r="T30" t="n">
+        <v>6801</v>
       </c>
       <c r="U30" t="n">
         <v>0.02</v>
       </c>
-      <c r="V30" t="s">
-        <v>401</v>
+      <c r="V30" t="n">
+        <v>8290</v>
       </c>
       <c r="W30" t="n">
         <v>0.03</v>
       </c>
-      <c r="X30" t="s">
-        <v>402</v>
+      <c r="X30" t="n">
+        <v>12769</v>
       </c>
       <c r="Y30" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z30" t="s">
-        <v>403</v>
+      <c r="Z30" t="n">
+        <v>5487</v>
       </c>
       <c r="AA30" t="n">
         <v>0.02</v>
       </c>
-      <c r="AB30" t="s">
-        <v>404</v>
+      <c r="AB30" t="n">
+        <v>973</v>
       </c>
       <c r="AC30" t="n">
         <v>0</v>
       </c>
-      <c r="AD30" t="s">
-        <v>131</v>
+      <c r="AD30" t="n">
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
         <v>0</v>
       </c>
-      <c r="AF30" t="s">
-        <v>405</v>
+      <c r="AF30" t="n">
+        <v>1167</v>
       </c>
       <c r="AG30" t="n">
         <v>0</v>
@@ -5573,100 +3392,100 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B31" t="s">
-        <v>407</v>
+        <v>61</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6657510</v>
       </c>
       <c r="C31" t="n">
         <v>22.98</v>
       </c>
-      <c r="D31" t="s">
-        <v>408</v>
+      <c r="D31" t="n">
+        <v>6905802</v>
       </c>
       <c r="E31" t="n">
         <v>24.62</v>
       </c>
-      <c r="F31" t="s">
-        <v>409</v>
+      <c r="F31" t="n">
+        <v>6901080</v>
       </c>
       <c r="G31" t="n">
         <v>23.26</v>
       </c>
-      <c r="H31" t="s">
-        <v>410</v>
+      <c r="H31" t="n">
+        <v>6772724</v>
       </c>
       <c r="I31" t="n">
         <v>20.29</v>
       </c>
-      <c r="J31" t="s">
-        <v>411</v>
+      <c r="J31" t="n">
+        <v>6793263</v>
       </c>
       <c r="K31" t="n">
         <v>19.94</v>
       </c>
-      <c r="L31" t="s">
-        <v>412</v>
+      <c r="L31" t="n">
+        <v>7850654</v>
       </c>
       <c r="M31" t="n">
         <v>23.45</v>
       </c>
-      <c r="N31" t="s">
-        <v>413</v>
+      <c r="N31" t="n">
+        <v>8373345</v>
       </c>
       <c r="O31" t="n">
         <v>24.7</v>
       </c>
-      <c r="P31" t="s">
-        <v>414</v>
+      <c r="P31" t="n">
+        <v>8317724</v>
       </c>
       <c r="Q31" t="n">
         <v>24.71</v>
       </c>
-      <c r="R31" t="s">
-        <v>415</v>
+      <c r="R31" t="n">
+        <v>8286434</v>
       </c>
       <c r="S31" t="n">
         <v>25.44</v>
       </c>
-      <c r="T31" t="s">
-        <v>416</v>
+      <c r="T31" t="n">
+        <v>8074033</v>
       </c>
       <c r="U31" t="n">
         <v>25.77</v>
       </c>
-      <c r="V31" t="s">
-        <v>417</v>
+      <c r="V31" t="n">
+        <v>8149672</v>
       </c>
       <c r="W31" t="n">
         <v>27.53</v>
       </c>
-      <c r="X31" t="s">
-        <v>418</v>
+      <c r="X31" t="n">
+        <v>8139165</v>
       </c>
       <c r="Y31" t="n">
         <v>29.72</v>
       </c>
-      <c r="Z31" t="s">
-        <v>419</v>
+      <c r="Z31" t="n">
+        <v>8191575</v>
       </c>
       <c r="AA31" t="n">
         <v>30.55</v>
       </c>
-      <c r="AB31" t="s">
-        <v>420</v>
+      <c r="AB31" t="n">
+        <v>8299561</v>
       </c>
       <c r="AC31" t="n">
         <v>31.55</v>
       </c>
-      <c r="AD31" t="s">
-        <v>421</v>
+      <c r="AD31" t="n">
+        <v>8282173</v>
       </c>
       <c r="AE31" t="n">
         <v>31.91</v>
       </c>
-      <c r="AF31" t="s">
-        <v>422</v>
+      <c r="AF31" t="n">
+        <v>8684752</v>
       </c>
       <c r="AG31" t="n">
         <v>33.24</v>
@@ -5674,100 +3493,100 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B32" t="s">
-        <v>424</v>
+        <v>62</v>
+      </c>
+      <c r="B32" t="n">
+        <v>696733</v>
       </c>
       <c r="C32" t="n">
         <v>2.4</v>
       </c>
-      <c r="D32" t="s">
-        <v>425</v>
+      <c r="D32" t="n">
+        <v>655146</v>
       </c>
       <c r="E32" t="n">
         <v>2.34</v>
       </c>
-      <c r="F32" t="s">
-        <v>426</v>
+      <c r="F32" t="n">
+        <v>478126</v>
       </c>
       <c r="G32" t="n">
         <v>1.61</v>
       </c>
-      <c r="H32" t="s">
-        <v>427</v>
+      <c r="H32" t="n">
+        <v>488554</v>
       </c>
       <c r="I32" t="n">
         <v>1.46</v>
       </c>
-      <c r="J32" t="s">
-        <v>428</v>
+      <c r="J32" t="n">
+        <v>1157959</v>
       </c>
       <c r="K32" t="n">
         <v>3.4</v>
       </c>
-      <c r="L32" t="s">
-        <v>429</v>
+      <c r="L32" t="n">
+        <v>1130270</v>
       </c>
       <c r="M32" t="n">
         <v>3.38</v>
       </c>
-      <c r="N32" t="s">
-        <v>430</v>
+      <c r="N32" t="n">
+        <v>1097032</v>
       </c>
       <c r="O32" t="n">
         <v>3.24</v>
       </c>
-      <c r="P32" t="s">
-        <v>431</v>
+      <c r="P32" t="n">
+        <v>1097147</v>
       </c>
       <c r="Q32" t="n">
         <v>3.26</v>
       </c>
-      <c r="R32" t="s">
-        <v>432</v>
+      <c r="R32" t="n">
+        <v>1008126</v>
       </c>
       <c r="S32" t="n">
         <v>3.09</v>
       </c>
-      <c r="T32" t="s">
-        <v>433</v>
+      <c r="T32" t="n">
+        <v>1006086</v>
       </c>
       <c r="U32" t="n">
         <v>3.21</v>
       </c>
-      <c r="V32" t="s">
-        <v>434</v>
+      <c r="V32" t="n">
+        <v>1003734</v>
       </c>
       <c r="W32" t="n">
         <v>3.39</v>
       </c>
-      <c r="X32" t="s">
-        <v>435</v>
+      <c r="X32" t="n">
+        <v>1061845</v>
       </c>
       <c r="Y32" t="n">
         <v>3.88</v>
       </c>
-      <c r="Z32" t="s">
-        <v>436</v>
+      <c r="Z32" t="n">
+        <v>1046822</v>
       </c>
       <c r="AA32" t="n">
         <v>3.9</v>
       </c>
-      <c r="AB32" t="s">
-        <v>437</v>
+      <c r="AB32" t="n">
+        <v>1013697</v>
       </c>
       <c r="AC32" t="n">
         <v>3.85</v>
       </c>
-      <c r="AD32" t="s">
-        <v>438</v>
+      <c r="AD32" t="n">
+        <v>995528</v>
       </c>
       <c r="AE32" t="n">
         <v>3.84</v>
       </c>
-      <c r="AF32" t="s">
-        <v>439</v>
+      <c r="AF32" t="n">
+        <v>977608</v>
       </c>
       <c r="AG32" t="n">
         <v>3.74</v>
@@ -5775,100 +3594,100 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B33" t="s">
-        <v>441</v>
+        <v>63</v>
+      </c>
+      <c r="B33" t="n">
+        <v>7768285</v>
       </c>
       <c r="C33" t="n">
         <v>26.81</v>
       </c>
-      <c r="D33" t="s">
-        <v>441</v>
+      <c r="D33" t="n">
+        <v>7768285</v>
       </c>
       <c r="E33" t="n">
         <v>27.69</v>
       </c>
-      <c r="F33" t="s">
-        <v>441</v>
+      <c r="F33" t="n">
+        <v>7768285</v>
       </c>
       <c r="G33" t="n">
         <v>26.18</v>
       </c>
-      <c r="H33" t="s">
-        <v>441</v>
+      <c r="H33" t="n">
+        <v>7768285</v>
       </c>
       <c r="I33" t="n">
         <v>23.28</v>
       </c>
-      <c r="J33" t="s">
-        <v>441</v>
+      <c r="J33" t="n">
+        <v>7768285</v>
       </c>
       <c r="K33" t="n">
         <v>22.8</v>
       </c>
-      <c r="L33" t="s">
-        <v>441</v>
+      <c r="L33" t="n">
+        <v>7768285</v>
       </c>
       <c r="M33" t="n">
         <v>23.21</v>
       </c>
-      <c r="N33" t="s">
-        <v>441</v>
+      <c r="N33" t="n">
+        <v>7768285</v>
       </c>
       <c r="O33" t="n">
         <v>22.91</v>
       </c>
-      <c r="P33" t="s">
-        <v>441</v>
+      <c r="P33" t="n">
+        <v>7768285</v>
       </c>
       <c r="Q33" t="n">
         <v>23.07</v>
       </c>
-      <c r="R33" t="s">
-        <v>441</v>
+      <c r="R33" t="n">
+        <v>7768285</v>
       </c>
       <c r="S33" t="n">
         <v>23.85</v>
       </c>
-      <c r="T33" t="s">
-        <v>441</v>
+      <c r="T33" t="n">
+        <v>7768285</v>
       </c>
       <c r="U33" t="n">
         <v>24.79</v>
       </c>
-      <c r="V33" t="s">
-        <v>441</v>
+      <c r="V33" t="n">
+        <v>7768285</v>
       </c>
       <c r="W33" t="n">
         <v>26.25</v>
       </c>
-      <c r="X33" t="s">
-        <v>441</v>
+      <c r="X33" t="n">
+        <v>7768285</v>
       </c>
       <c r="Y33" t="n">
         <v>28.37</v>
       </c>
-      <c r="Z33" t="s">
-        <v>442</v>
+      <c r="Z33" t="n">
+        <v>7747805</v>
       </c>
       <c r="AA33" t="n">
         <v>28.89</v>
       </c>
-      <c r="AB33" t="s">
-        <v>442</v>
+      <c r="AB33" t="n">
+        <v>7747805</v>
       </c>
       <c r="AC33" t="n">
         <v>29.45</v>
       </c>
-      <c r="AD33" t="s">
-        <v>442</v>
+      <c r="AD33" t="n">
+        <v>7747805</v>
       </c>
       <c r="AE33" t="n">
         <v>29.85</v>
       </c>
-      <c r="AF33" t="s">
-        <v>442</v>
+      <c r="AF33" t="n">
+        <v>7747805</v>
       </c>
       <c r="AG33" t="n">
         <v>29.65</v>
@@ -5876,100 +3695,100 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B34" t="s">
-        <v>444</v>
+        <v>64</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3394741</v>
       </c>
       <c r="C34" t="n">
         <v>11.72</v>
       </c>
-      <c r="D34" t="s">
-        <v>445</v>
+      <c r="D34" t="n">
+        <v>3361516</v>
       </c>
       <c r="E34" t="n">
         <v>11.98</v>
       </c>
-      <c r="F34" t="s">
-        <v>446</v>
+      <c r="F34" t="n">
+        <v>3549491</v>
       </c>
       <c r="G34" t="n">
         <v>11.96</v>
       </c>
-      <c r="H34" t="s">
-        <v>447</v>
+      <c r="H34" t="n">
+        <v>4692427</v>
       </c>
       <c r="I34" t="n">
         <v>14.06</v>
       </c>
-      <c r="J34" t="s">
-        <v>448</v>
+      <c r="J34" t="n">
+        <v>4571245</v>
       </c>
       <c r="K34" t="n">
         <v>13.42</v>
       </c>
-      <c r="L34" t="s">
-        <v>449</v>
+      <c r="L34" t="n">
+        <v>4000410</v>
       </c>
       <c r="M34" t="n">
         <v>11.95</v>
       </c>
-      <c r="N34" t="s">
-        <v>450</v>
+      <c r="N34" t="n">
+        <v>4154248</v>
       </c>
       <c r="O34" t="n">
         <v>12.25</v>
       </c>
-      <c r="P34" t="s">
-        <v>451</v>
+      <c r="P34" t="n">
+        <v>4014328</v>
       </c>
       <c r="Q34" t="n">
         <v>11.92</v>
       </c>
-      <c r="R34" t="s">
-        <v>452</v>
+      <c r="R34" t="n">
+        <v>3826555</v>
       </c>
       <c r="S34" t="n">
         <v>11.75</v>
       </c>
-      <c r="T34" t="s">
-        <v>453</v>
+      <c r="T34" t="n">
+        <v>3709393</v>
       </c>
       <c r="U34" t="n">
         <v>11.84</v>
       </c>
-      <c r="V34" t="s">
-        <v>454</v>
+      <c r="V34" t="n">
+        <v>3404600</v>
       </c>
       <c r="W34" t="n">
         <v>11.5</v>
       </c>
-      <c r="X34" t="s">
-        <v>455</v>
+      <c r="X34" t="n">
+        <v>4067819</v>
       </c>
       <c r="Y34" t="n">
         <v>14.86</v>
       </c>
-      <c r="Z34" t="s">
-        <v>456</v>
+      <c r="Z34" t="n">
+        <v>3879199</v>
       </c>
       <c r="AA34" t="n">
         <v>14.47</v>
       </c>
-      <c r="AB34" t="s">
-        <v>457</v>
+      <c r="AB34" t="n">
+        <v>2550895</v>
       </c>
       <c r="AC34" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="AD34" t="s">
-        <v>458</v>
+      <c r="AD34" t="n">
+        <v>2686366</v>
       </c>
       <c r="AE34" t="n">
         <v>10.35</v>
       </c>
-      <c r="AF34" t="s">
-        <v>459</v>
+      <c r="AF34" t="n">
+        <v>2845461</v>
       </c>
       <c r="AG34" t="n">
         <v>10.89</v>
@@ -5977,7 +3796,7 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="1" t="s">
-        <v>460</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s"/>
       <c r="C35" t="s"/>
@@ -5995,50 +3814,50 @@
       <c r="O35" t="s"/>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
-      <c r="R35" t="s">
-        <v>461</v>
+      <c r="R35" t="n">
+        <v>47776</v>
       </c>
       <c r="S35" t="n">
         <v>0.15</v>
       </c>
-      <c r="T35" t="s">
-        <v>462</v>
+      <c r="T35" t="n">
+        <v>15664</v>
       </c>
       <c r="U35" t="n">
         <v>0.05</v>
       </c>
-      <c r="V35" t="s">
-        <v>463</v>
+      <c r="V35" t="n">
+        <v>8578</v>
       </c>
       <c r="W35" t="n">
         <v>0.03</v>
       </c>
-      <c r="X35" t="s">
-        <v>464</v>
+      <c r="X35" t="n">
+        <v>19267</v>
       </c>
       <c r="Y35" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="Z35" t="s">
-        <v>465</v>
+      <c r="Z35" t="n">
+        <v>15825</v>
       </c>
       <c r="AA35" t="n">
         <v>0.06</v>
       </c>
-      <c r="AB35" t="s">
-        <v>466</v>
+      <c r="AB35" t="n">
+        <v>34383</v>
       </c>
       <c r="AC35" t="n">
         <v>0.13</v>
       </c>
-      <c r="AD35" t="s">
-        <v>467</v>
+      <c r="AD35" t="n">
+        <v>37714</v>
       </c>
       <c r="AE35" t="n">
         <v>0.15</v>
       </c>
-      <c r="AF35" t="s">
-        <v>468</v>
+      <c r="AF35" t="n">
+        <v>107646</v>
       </c>
       <c r="AG35" t="n">
         <v>0.41</v>
@@ -6046,7 +3865,7 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="1" t="s">
-        <v>469</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s"/>
       <c r="C36" t="s"/>
@@ -6064,50 +3883,50 @@
       <c r="O36" t="s"/>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
-      <c r="R36" t="s">
-        <v>470</v>
+      <c r="R36" t="n">
+        <v>14226</v>
       </c>
       <c r="S36" t="n">
         <v>0.04</v>
       </c>
-      <c r="T36" t="s">
-        <v>471</v>
+      <c r="T36" t="n">
+        <v>9879</v>
       </c>
       <c r="U36" t="n">
         <v>0.03</v>
       </c>
-      <c r="V36" t="s">
-        <v>472</v>
+      <c r="V36" t="n">
+        <v>10391</v>
       </c>
       <c r="W36" t="n">
         <v>0.04</v>
       </c>
-      <c r="X36" t="s">
-        <v>473</v>
+      <c r="X36" t="n">
+        <v>9801</v>
       </c>
       <c r="Y36" t="n">
         <v>0.04</v>
       </c>
-      <c r="Z36" t="s">
-        <v>474</v>
+      <c r="Z36" t="n">
+        <v>10050</v>
       </c>
       <c r="AA36" t="n">
         <v>0.04</v>
       </c>
-      <c r="AB36" t="s">
-        <v>475</v>
+      <c r="AB36" t="n">
+        <v>842</v>
       </c>
       <c r="AC36" t="n">
         <v>0</v>
       </c>
-      <c r="AD36" t="s">
-        <v>475</v>
+      <c r="AD36" t="n">
+        <v>842</v>
       </c>
       <c r="AE36" t="n">
         <v>0</v>
       </c>
-      <c r="AF36" t="s">
-        <v>476</v>
+      <c r="AF36" t="n">
+        <v>1225</v>
       </c>
       <c r="AG36" t="n">
         <v>0</v>
@@ -6115,100 +3934,100 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B37" t="s">
-        <v>478</v>
+        <v>67</v>
+      </c>
+      <c r="B37" t="n">
+        <v>16395990</v>
       </c>
       <c r="C37" t="n">
         <v>56.58</v>
       </c>
-      <c r="D37" t="s">
-        <v>479</v>
+      <c r="D37" t="n">
+        <v>15769322</v>
       </c>
       <c r="E37" t="n">
         <v>56.21</v>
       </c>
-      <c r="F37" t="s">
-        <v>480</v>
+      <c r="F37" t="n">
+        <v>17460727</v>
       </c>
       <c r="G37" t="n">
         <v>58.84</v>
       </c>
-      <c r="H37" t="s">
-        <v>481</v>
+      <c r="H37" t="n">
+        <v>21498297</v>
       </c>
       <c r="I37" t="n">
         <v>64.42</v>
       </c>
-      <c r="J37" t="s">
-        <v>482</v>
+      <c r="J37" t="n">
+        <v>21493908</v>
       </c>
       <c r="K37" t="n">
         <v>63.09</v>
       </c>
-      <c r="L37" t="s">
-        <v>483</v>
+      <c r="L37" t="n">
+        <v>18791647</v>
       </c>
       <c r="M37" t="n">
         <v>56.14</v>
       </c>
-      <c r="N37" t="s">
-        <v>484</v>
+      <c r="N37" t="n">
+        <v>19135418</v>
       </c>
       <c r="O37" t="n">
         <v>56.44</v>
       </c>
-      <c r="P37" t="s">
-        <v>485</v>
+      <c r="P37" t="n">
+        <v>19282058</v>
       </c>
       <c r="Q37" t="n">
         <v>57.27</v>
       </c>
-      <c r="R37" t="s">
-        <v>486</v>
+      <c r="R37" t="n">
+        <v>18648492</v>
       </c>
       <c r="S37" t="n">
         <v>57.24</v>
       </c>
-      <c r="T37" t="s">
-        <v>487</v>
+      <c r="T37" t="n">
+        <v>17235969</v>
       </c>
       <c r="U37" t="n">
         <v>55.01</v>
       </c>
-      <c r="V37" t="s">
-        <v>488</v>
+      <c r="V37" t="n">
+        <v>14090025</v>
       </c>
       <c r="W37" t="n">
         <v>47.6</v>
       </c>
-      <c r="X37" t="s">
-        <v>489</v>
+      <c r="X37" t="n">
+        <v>14046346</v>
       </c>
       <c r="Y37" t="n">
         <v>51.3</v>
       </c>
-      <c r="Z37" t="s">
-        <v>490</v>
+      <c r="Z37" t="n">
+        <v>13984333</v>
       </c>
       <c r="AA37" t="n">
         <v>52.15</v>
       </c>
-      <c r="AB37" t="s">
-        <v>491</v>
+      <c r="AB37" t="n">
+        <v>13342739</v>
       </c>
       <c r="AC37" t="n">
         <v>50.73</v>
       </c>
-      <c r="AD37" t="s">
-        <v>492</v>
+      <c r="AD37" t="n">
+        <v>15891795</v>
       </c>
       <c r="AE37" t="n">
         <v>61.24</v>
       </c>
-      <c r="AF37" t="s">
-        <v>493</v>
+      <c r="AF37" t="n">
+        <v>15813258</v>
       </c>
       <c r="AG37" t="n">
         <v>60.52</v>
@@ -6216,100 +4035,100 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B38" t="s">
-        <v>495</v>
+        <v>68</v>
+      </c>
+      <c r="B38" t="n">
+        <v>14107266</v>
       </c>
       <c r="C38" t="n">
         <v>48.68</v>
       </c>
-      <c r="D38" t="s">
-        <v>496</v>
+      <c r="D38" t="n">
+        <v>13569825</v>
       </c>
       <c r="E38" t="n">
         <v>48.37</v>
       </c>
-      <c r="F38" t="s">
-        <v>497</v>
+      <c r="F38" t="n">
+        <v>15217262</v>
       </c>
       <c r="G38" t="n">
         <v>51.28</v>
       </c>
-      <c r="H38" t="s">
-        <v>498</v>
+      <c r="H38" t="n">
+        <v>19082091</v>
       </c>
       <c r="I38" t="n">
         <v>57.18</v>
       </c>
-      <c r="J38" t="s">
-        <v>499</v>
+      <c r="J38" t="n">
+        <v>19470009</v>
       </c>
       <c r="K38" t="n">
         <v>57.15</v>
       </c>
-      <c r="L38" t="s">
-        <v>500</v>
+      <c r="L38" t="n">
+        <v>16886841</v>
       </c>
       <c r="M38" t="n">
         <v>50.45</v>
       </c>
-      <c r="N38" t="s">
-        <v>501</v>
+      <c r="N38" t="n">
+        <v>17202246</v>
       </c>
       <c r="O38" t="n">
         <v>50.74</v>
       </c>
-      <c r="P38" t="s">
-        <v>502</v>
+      <c r="P38" t="n">
+        <v>17353963</v>
       </c>
       <c r="Q38" t="n">
         <v>51.55</v>
       </c>
-      <c r="R38" t="s">
-        <v>503</v>
+      <c r="R38" t="n">
+        <v>16731660</v>
       </c>
       <c r="S38" t="n">
         <v>51.36</v>
       </c>
-      <c r="T38" t="s">
-        <v>504</v>
+      <c r="T38" t="n">
+        <v>15397504</v>
       </c>
       <c r="U38" t="n">
         <v>49.14</v>
       </c>
-      <c r="V38" t="s">
-        <v>505</v>
+      <c r="V38" t="n">
+        <v>12374637</v>
       </c>
       <c r="W38" t="n">
         <v>41.81</v>
       </c>
-      <c r="X38" t="s">
-        <v>506</v>
+      <c r="X38" t="n">
+        <v>12375824</v>
       </c>
       <c r="Y38" t="n">
         <v>45.2</v>
       </c>
-      <c r="Z38" t="s">
-        <v>507</v>
+      <c r="Z38" t="n">
+        <v>12308886</v>
       </c>
       <c r="AA38" t="n">
         <v>45.9</v>
       </c>
-      <c r="AB38" t="s">
-        <v>508</v>
+      <c r="AB38" t="n">
+        <v>11694723</v>
       </c>
       <c r="AC38" t="n">
         <v>44.46</v>
       </c>
-      <c r="AD38" t="s">
-        <v>509</v>
+      <c r="AD38" t="n">
+        <v>14145763</v>
       </c>
       <c r="AE38" t="n">
         <v>54.51</v>
       </c>
-      <c r="AF38" t="s">
-        <v>510</v>
+      <c r="AF38" t="n">
+        <v>14103781</v>
       </c>
       <c r="AG38" t="n">
         <v>53.98</v>
@@ -6317,169 +4136,169 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B39" t="s">
-        <v>512</v>
+        <v>69</v>
+      </c>
+      <c r="B39" t="n">
+        <v>132150185</v>
       </c>
       <c r="C39" t="s"/>
-      <c r="D39" t="s">
-        <v>512</v>
+      <c r="D39" t="n">
+        <v>132150185</v>
       </c>
       <c r="E39" t="s"/>
-      <c r="F39" t="s">
-        <v>513</v>
+      <c r="F39" t="n">
+        <v>131226016</v>
       </c>
       <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>513</v>
+      <c r="H39" t="n">
+        <v>131226016</v>
       </c>
       <c r="I39" t="s"/>
-      <c r="J39" t="s">
-        <v>513</v>
+      <c r="J39" t="n">
+        <v>131226016</v>
       </c>
       <c r="K39" t="s"/>
-      <c r="L39" t="s">
-        <v>513</v>
+      <c r="L39" t="n">
+        <v>131226016</v>
       </c>
       <c r="M39" t="s"/>
-      <c r="N39" t="s">
-        <v>513</v>
+      <c r="N39" t="n">
+        <v>131226016</v>
       </c>
       <c r="O39" t="s"/>
-      <c r="P39" t="s">
-        <v>513</v>
+      <c r="P39" t="n">
+        <v>131226016</v>
       </c>
       <c r="Q39" t="s"/>
-      <c r="R39" t="s">
-        <v>513</v>
+      <c r="R39" t="n">
+        <v>131226016</v>
       </c>
       <c r="S39" t="s"/>
-      <c r="T39" t="s">
-        <v>513</v>
+      <c r="T39" t="n">
+        <v>131226016</v>
       </c>
       <c r="U39" t="s"/>
-      <c r="V39" t="s">
-        <v>514</v>
+      <c r="V39" t="n">
+        <v>132605016</v>
       </c>
       <c r="W39" t="s"/>
-      <c r="X39" t="s">
-        <v>515</v>
+      <c r="X39" t="n">
+        <v>133274016</v>
       </c>
       <c r="Y39" t="s"/>
-      <c r="Z39" t="s">
-        <v>513</v>
+      <c r="Z39" t="n">
+        <v>131226016</v>
       </c>
       <c r="AA39" t="s"/>
-      <c r="AB39" t="s">
-        <v>513</v>
+      <c r="AB39" t="n">
+        <v>131226016</v>
       </c>
       <c r="AC39" t="s"/>
-      <c r="AD39" t="s">
-        <v>516</v>
+      <c r="AD39" t="n">
+        <v>131226000</v>
       </c>
       <c r="AE39" t="s"/>
-      <c r="AF39" t="s">
-        <v>516</v>
+      <c r="AF39" t="n">
+        <v>131226000</v>
       </c>
       <c r="AG39" t="s"/>
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B40" t="s">
-        <v>518</v>
+        <v>70</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1830635</v>
       </c>
       <c r="C40" t="n">
         <v>6.32</v>
       </c>
-      <c r="D40" t="s">
-        <v>518</v>
+      <c r="D40" t="n">
+        <v>1830635</v>
       </c>
       <c r="E40" t="n">
         <v>6.53</v>
       </c>
-      <c r="F40" t="s">
-        <v>518</v>
+      <c r="F40" t="n">
+        <v>1830635</v>
       </c>
       <c r="G40" t="n">
         <v>6.17</v>
       </c>
-      <c r="H40" t="s">
-        <v>518</v>
+      <c r="H40" t="n">
+        <v>1830635</v>
       </c>
       <c r="I40" t="n">
         <v>5.49</v>
       </c>
-      <c r="J40" t="s">
-        <v>518</v>
+      <c r="J40" t="n">
+        <v>1830635</v>
       </c>
       <c r="K40" t="n">
         <v>5.37</v>
       </c>
-      <c r="L40" t="s">
-        <v>519</v>
+      <c r="L40" t="n">
+        <v>1957842</v>
       </c>
       <c r="M40" t="n">
         <v>5.85</v>
       </c>
-      <c r="N40" t="s">
-        <v>519</v>
+      <c r="N40" t="n">
+        <v>1957842</v>
       </c>
       <c r="O40" t="n">
         <v>5.77</v>
       </c>
-      <c r="P40" t="s">
-        <v>519</v>
+      <c r="P40" t="n">
+        <v>1957842</v>
       </c>
       <c r="Q40" t="n">
         <v>5.82</v>
       </c>
-      <c r="R40" t="s">
-        <v>519</v>
+      <c r="R40" t="n">
+        <v>1957842</v>
       </c>
       <c r="S40" t="n">
         <v>6.01</v>
       </c>
-      <c r="T40" t="s">
-        <v>520</v>
+      <c r="T40" t="n">
+        <v>1959476</v>
       </c>
       <c r="U40" t="n">
         <v>6.25</v>
       </c>
-      <c r="V40" t="s">
-        <v>520</v>
+      <c r="V40" t="n">
+        <v>1959476</v>
       </c>
       <c r="W40" t="n">
         <v>6.62</v>
       </c>
-      <c r="X40" t="s">
-        <v>520</v>
+      <c r="X40" t="n">
+        <v>1959476</v>
       </c>
       <c r="Y40" t="n">
         <v>7.16</v>
       </c>
-      <c r="Z40" t="s">
-        <v>520</v>
+      <c r="Z40" t="n">
+        <v>1959476</v>
       </c>
       <c r="AA40" t="n">
         <v>7.31</v>
       </c>
-      <c r="AB40" t="s">
-        <v>521</v>
+      <c r="AB40" t="n">
+        <v>1981627</v>
       </c>
       <c r="AC40" t="n">
         <v>7.53</v>
       </c>
-      <c r="AD40" t="s">
-        <v>521</v>
+      <c r="AD40" t="n">
+        <v>1981627</v>
       </c>
       <c r="AE40" t="n">
         <v>7.64</v>
       </c>
-      <c r="AF40" t="s">
-        <v>521</v>
+      <c r="AF40" t="n">
+        <v>1981627</v>
       </c>
       <c r="AG40" t="n">
         <v>7.58</v>
@@ -6487,100 +4306,100 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B41" t="s">
-        <v>523</v>
+        <v>71</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2958234</v>
       </c>
       <c r="C41" t="n">
         <v>10.21</v>
       </c>
-      <c r="D41" t="s">
-        <v>524</v>
+      <c r="D41" t="n">
+        <v>3334434</v>
       </c>
       <c r="E41" t="n">
         <v>11.89</v>
       </c>
-      <c r="F41" t="s">
-        <v>525</v>
+      <c r="F41" t="n">
+        <v>3960240</v>
       </c>
       <c r="G41" t="n">
         <v>13.35</v>
       </c>
-      <c r="H41" t="s">
-        <v>526</v>
+      <c r="H41" t="n">
+        <v>3287960</v>
       </c>
       <c r="I41" t="n">
         <v>9.85</v>
       </c>
-      <c r="J41" t="s">
-        <v>527</v>
+      <c r="J41" t="n">
+        <v>4411382</v>
       </c>
       <c r="K41" t="n">
         <v>12.95</v>
       </c>
-      <c r="L41" t="s">
-        <v>528</v>
+      <c r="L41" t="n">
+        <v>6477182</v>
       </c>
       <c r="M41" t="n">
         <v>19.35</v>
       </c>
-      <c r="N41" t="s">
-        <v>529</v>
+      <c r="N41" t="n">
+        <v>6052018</v>
       </c>
       <c r="O41" t="n">
         <v>17.85</v>
       </c>
-      <c r="P41" t="s">
-        <v>530</v>
+      <c r="P41" t="n">
+        <v>3366245</v>
       </c>
       <c r="Q41" t="n">
         <v>10</v>
       </c>
-      <c r="R41" t="s">
-        <v>531</v>
+      <c r="R41" t="n">
+        <v>3618876</v>
       </c>
       <c r="S41" t="n">
         <v>11.11</v>
       </c>
-      <c r="T41" t="s">
-        <v>532</v>
+      <c r="T41" t="n">
+        <v>3318057</v>
       </c>
       <c r="U41" t="n">
         <v>10.59</v>
       </c>
-      <c r="V41" t="s">
-        <v>533</v>
+      <c r="V41" t="n">
+        <v>2670342</v>
       </c>
       <c r="W41" t="n">
         <v>9.02</v>
       </c>
-      <c r="X41" t="s">
-        <v>534</v>
+      <c r="X41" t="n">
+        <v>1526371</v>
       </c>
       <c r="Y41" t="n">
         <v>5.57</v>
       </c>
-      <c r="Z41" t="s">
-        <v>535</v>
+      <c r="Z41" t="n">
+        <v>1515478</v>
       </c>
       <c r="AA41" t="n">
         <v>5.65</v>
       </c>
-      <c r="AB41" t="s">
-        <v>536</v>
+      <c r="AB41" t="n">
+        <v>2884177</v>
       </c>
       <c r="AC41" t="n">
         <v>10.96</v>
       </c>
-      <c r="AD41" t="s">
-        <v>537</v>
+      <c r="AD41" t="n">
+        <v>2134150</v>
       </c>
       <c r="AE41" t="n">
         <v>8.220000000000001</v>
       </c>
-      <c r="AF41" t="s">
-        <v>538</v>
+      <c r="AF41" t="n">
+        <v>1981486</v>
       </c>
       <c r="AG41" t="n">
         <v>7.58</v>
@@ -6588,100 +4407,100 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="B42" t="s">
-        <v>540</v>
+        <v>72</v>
+      </c>
+      <c r="B42" t="n">
+        <v>12221392</v>
       </c>
       <c r="C42" t="n">
         <v>42.18</v>
       </c>
-      <c r="D42" t="s">
-        <v>541</v>
+      <c r="D42" t="n">
+        <v>11522945</v>
       </c>
       <c r="E42" t="n">
         <v>41.08</v>
       </c>
-      <c r="F42" t="s">
-        <v>542</v>
+      <c r="F42" t="n">
+        <v>12068308</v>
       </c>
       <c r="G42" t="n">
         <v>40.67</v>
       </c>
-      <c r="H42" t="s">
-        <v>543</v>
+      <c r="H42" t="n">
+        <v>13570784</v>
       </c>
       <c r="I42" t="n">
         <v>40.66</v>
       </c>
-      <c r="J42" t="s">
-        <v>544</v>
+      <c r="J42" t="n">
+        <v>12767191</v>
       </c>
       <c r="K42" t="n">
         <v>37.47</v>
       </c>
-      <c r="L42" t="s">
-        <v>545</v>
+      <c r="L42" t="n">
+        <v>12823227</v>
       </c>
       <c r="M42" t="n">
         <v>38.31</v>
       </c>
-      <c r="N42" t="s">
-        <v>546</v>
+      <c r="N42" t="n">
+        <v>12611511</v>
       </c>
       <c r="O42" t="n">
         <v>37.2</v>
       </c>
-      <c r="P42" t="s">
-        <v>547</v>
+      <c r="P42" t="n">
+        <v>12878015</v>
       </c>
       <c r="Q42" t="n">
         <v>38.25</v>
       </c>
-      <c r="R42" t="s">
-        <v>548</v>
+      <c r="R42" t="n">
+        <v>12473368</v>
       </c>
       <c r="S42" t="n">
         <v>38.29</v>
       </c>
-      <c r="T42" t="s">
-        <v>549</v>
+      <c r="T42" t="n">
+        <v>12691630</v>
       </c>
       <c r="U42" t="n">
         <v>40.5</v>
       </c>
-      <c r="V42" t="s">
-        <v>550</v>
+      <c r="V42" t="n">
+        <v>12540833</v>
       </c>
       <c r="W42" t="n">
         <v>42.37</v>
       </c>
-      <c r="X42" t="s">
-        <v>551</v>
+      <c r="X42" t="n">
+        <v>10683575</v>
       </c>
       <c r="Y42" t="n">
         <v>39.02</v>
       </c>
-      <c r="Z42" t="s">
-        <v>552</v>
+      <c r="Z42" t="n">
+        <v>10270628</v>
       </c>
       <c r="AA42" t="n">
         <v>38.3</v>
       </c>
-      <c r="AB42" t="s">
-        <v>553</v>
+      <c r="AB42" t="n">
+        <v>10066494</v>
       </c>
       <c r="AC42" t="n">
         <v>38.27</v>
       </c>
-      <c r="AD42" t="s">
-        <v>554</v>
+      <c r="AD42" t="n">
+        <v>8638868</v>
       </c>
       <c r="AE42" t="n">
         <v>33.29</v>
       </c>
-      <c r="AF42" t="s">
-        <v>555</v>
+      <c r="AF42" t="n">
+        <v>9443483</v>
       </c>
       <c r="AG42" t="n">
         <v>36.14</v>
@@ -6689,28 +4508,28 @@
     </row>
     <row r="43" spans="1:33">
       <c r="A43" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="B43" t="s">
-        <v>131</v>
+        <v>73</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
-      <c r="D43" t="s">
-        <v>131</v>
+      <c r="D43" t="n">
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
-      <c r="F43" t="s">
-        <v>131</v>
+      <c r="F43" t="n">
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
-      <c r="H43" t="s">
-        <v>131</v>
+      <c r="H43" t="n">
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -6742,16 +4561,16 @@
     </row>
     <row r="44" spans="1:33">
       <c r="A44" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="B44" t="s">
-        <v>558</v>
+        <v>74</v>
+      </c>
+      <c r="B44" t="n">
+        <v>516256</v>
       </c>
       <c r="C44" t="n">
         <v>1.78</v>
       </c>
-      <c r="D44" t="s">
-        <v>559</v>
+      <c r="D44" t="n">
+        <v>744936</v>
       </c>
       <c r="E44" t="n">
         <v>2.66</v>
@@ -6787,16 +4606,16 @@
     </row>
     <row r="45" spans="1:33">
       <c r="A45" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B45" t="s">
-        <v>561</v>
+        <v>75</v>
+      </c>
+      <c r="B45" t="n">
+        <v>497179</v>
       </c>
       <c r="C45" t="n">
         <v>1.72</v>
       </c>
-      <c r="D45" t="s">
-        <v>562</v>
+      <c r="D45" t="n">
+        <v>507381</v>
       </c>
       <c r="E45" t="n">
         <v>1.81</v>
@@ -6832,100 +4651,100 @@
     </row>
     <row r="46" spans="1:33">
       <c r="A46" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B46" t="s">
-        <v>564</v>
+        <v>76</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2819594</v>
       </c>
       <c r="C46" t="n">
         <v>9.73</v>
       </c>
-      <c r="D46" t="s">
-        <v>564</v>
+      <c r="D46" t="n">
+        <v>2819594</v>
       </c>
       <c r="E46" t="n">
         <v>10.05</v>
       </c>
-      <c r="F46" t="s">
-        <v>564</v>
+      <c r="F46" t="n">
+        <v>2819594</v>
       </c>
       <c r="G46" t="n">
         <v>9.5</v>
       </c>
-      <c r="H46" t="s">
-        <v>565</v>
+      <c r="H46" t="n">
+        <v>2715793</v>
       </c>
       <c r="I46" t="n">
         <v>8.140000000000001</v>
       </c>
-      <c r="J46" t="s">
-        <v>565</v>
+      <c r="J46" t="n">
+        <v>2715793</v>
       </c>
       <c r="K46" t="n">
         <v>7.97</v>
       </c>
-      <c r="L46" t="s">
-        <v>566</v>
+      <c r="L46" t="n">
+        <v>2418255</v>
       </c>
       <c r="M46" t="n">
         <v>7.22</v>
       </c>
-      <c r="N46" t="s">
-        <v>566</v>
+      <c r="N46" t="n">
+        <v>2418255</v>
       </c>
       <c r="O46" t="n">
         <v>7.13</v>
       </c>
-      <c r="P46" t="s">
-        <v>566</v>
+      <c r="P46" t="n">
+        <v>2418255</v>
       </c>
       <c r="Q46" t="n">
         <v>7.18</v>
       </c>
-      <c r="R46" t="s">
-        <v>566</v>
+      <c r="R46" t="n">
+        <v>2418255</v>
       </c>
       <c r="S46" t="n">
         <v>7.42</v>
       </c>
-      <c r="T46" t="s">
-        <v>567</v>
+      <c r="T46" t="n">
+        <v>2409016</v>
       </c>
       <c r="U46" t="n">
         <v>7.69</v>
       </c>
-      <c r="V46" t="s">
-        <v>568</v>
+      <c r="V46" t="n">
+        <v>2392109</v>
       </c>
       <c r="W46" t="n">
         <v>8.08</v>
       </c>
-      <c r="X46" t="s">
-        <v>569</v>
+      <c r="X46" t="n">
+        <v>2346051</v>
       </c>
       <c r="Y46" t="n">
         <v>8.57</v>
       </c>
-      <c r="Z46" t="s">
-        <v>569</v>
+      <c r="Z46" t="n">
+        <v>2346051</v>
       </c>
       <c r="AA46" t="n">
         <v>8.75</v>
       </c>
-      <c r="AB46" t="s">
-        <v>570</v>
+      <c r="AB46" t="n">
+        <v>3508335</v>
       </c>
       <c r="AC46" t="n">
         <v>13.34</v>
       </c>
-      <c r="AD46" t="s">
-        <v>570</v>
+      <c r="AD46" t="n">
+        <v>3508335</v>
       </c>
       <c r="AE46" t="n">
         <v>13.52</v>
       </c>
-      <c r="AF46" t="s">
-        <v>570</v>
+      <c r="AF46" t="n">
+        <v>3508335</v>
       </c>
       <c r="AG46" t="n">
         <v>13.43</v>
@@ -6933,100 +4752,100 @@
     </row>
     <row r="47" spans="1:33">
       <c r="A47" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="B47" t="s">
-        <v>572</v>
+        <v>77</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3832676</v>
       </c>
       <c r="C47" t="n">
         <v>13.23</v>
       </c>
-      <c r="D47" t="s">
-        <v>573</v>
+      <c r="D47" t="n">
+        <v>3219939</v>
       </c>
       <c r="E47" t="n">
         <v>11.48</v>
       </c>
-      <c r="F47" t="s">
-        <v>574</v>
+      <c r="F47" t="n">
+        <v>3114484</v>
       </c>
       <c r="G47" t="n">
         <v>10.5</v>
       </c>
-      <c r="H47" t="s">
-        <v>575</v>
+      <c r="H47" t="n">
+        <v>3294619</v>
       </c>
       <c r="I47" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="J47" t="s">
-        <v>576</v>
+      <c r="J47" t="n">
+        <v>3291138</v>
       </c>
       <c r="K47" t="n">
         <v>9.66</v>
       </c>
-      <c r="L47" t="s">
-        <v>577</v>
+      <c r="L47" t="n">
+        <v>2525559</v>
       </c>
       <c r="M47" t="n">
         <v>7.55</v>
       </c>
-      <c r="N47" t="s">
-        <v>578</v>
+      <c r="N47" t="n">
+        <v>2868579</v>
       </c>
       <c r="O47" t="n">
         <v>8.460000000000001</v>
       </c>
-      <c r="P47" t="s">
-        <v>579</v>
+      <c r="P47" t="n">
+        <v>3163688</v>
       </c>
       <c r="Q47" t="n">
         <v>9.4</v>
       </c>
-      <c r="R47" t="s">
-        <v>580</v>
+      <c r="R47" t="n">
+        <v>3152757</v>
       </c>
       <c r="S47" t="n">
         <v>9.68</v>
       </c>
-      <c r="T47" t="s">
-        <v>581</v>
+      <c r="T47" t="n">
+        <v>3544104</v>
       </c>
       <c r="U47" t="n">
         <v>11.31</v>
       </c>
-      <c r="V47" t="s">
-        <v>582</v>
+      <c r="V47" t="n">
+        <v>1532288</v>
       </c>
       <c r="W47" t="n">
         <v>5.18</v>
       </c>
-      <c r="X47" t="s">
-        <v>583</v>
+      <c r="X47" t="n">
+        <v>1829306</v>
       </c>
       <c r="Y47" t="n">
         <v>6.68</v>
       </c>
-      <c r="Z47" t="s">
-        <v>584</v>
+      <c r="Z47" t="n">
+        <v>2196270</v>
       </c>
       <c r="AA47" t="n">
         <v>8.19</v>
       </c>
-      <c r="AB47" t="s">
-        <v>585</v>
+      <c r="AB47" t="n">
+        <v>1966432</v>
       </c>
       <c r="AC47" t="n">
         <v>7.48</v>
       </c>
-      <c r="AD47" t="s">
-        <v>586</v>
+      <c r="AD47" t="n">
+        <v>2121020</v>
       </c>
       <c r="AE47" t="n">
         <v>8.17</v>
       </c>
-      <c r="AF47" t="s">
-        <v>587</v>
+      <c r="AF47" t="n">
+        <v>2341044</v>
       </c>
       <c r="AG47" t="n">
         <v>8.960000000000001</v>
@@ -7034,52 +4853,52 @@
     </row>
     <row r="48" spans="1:33">
       <c r="A48" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B48" t="s">
-        <v>589</v>
+        <v>78</v>
+      </c>
+      <c r="B48" t="n">
+        <v>78242</v>
       </c>
       <c r="C48" t="n">
         <v>0.27</v>
       </c>
-      <c r="D48" t="s">
-        <v>590</v>
+      <c r="D48" t="n">
+        <v>35497</v>
       </c>
       <c r="E48" t="n">
         <v>0.13</v>
       </c>
-      <c r="F48" t="s">
-        <v>591</v>
+      <c r="F48" t="n">
+        <v>42259</v>
       </c>
       <c r="G48" t="n">
         <v>0.14</v>
       </c>
-      <c r="H48" t="s">
-        <v>592</v>
+      <c r="H48" t="n">
+        <v>60778</v>
       </c>
       <c r="I48" t="n">
         <v>0.18</v>
       </c>
-      <c r="J48" t="s">
-        <v>593</v>
+      <c r="J48" t="n">
+        <v>63082</v>
       </c>
       <c r="K48" t="n">
         <v>0.19</v>
       </c>
-      <c r="L48" t="s">
-        <v>594</v>
+      <c r="L48" t="n">
+        <v>49010</v>
       </c>
       <c r="M48" t="n">
         <v>0.15</v>
       </c>
-      <c r="N48" t="s">
-        <v>595</v>
+      <c r="N48" t="n">
+        <v>40087</v>
       </c>
       <c r="O48" t="n">
         <v>0.12</v>
       </c>
-      <c r="P48" t="s">
-        <v>596</v>
+      <c r="P48" t="n">
+        <v>44355</v>
       </c>
       <c r="Q48" t="n">
         <v>0.13</v>
@@ -7103,52 +4922,52 @@
     </row>
     <row r="49" spans="1:33">
       <c r="A49" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B49" t="s">
-        <v>598</v>
+        <v>79</v>
+      </c>
+      <c r="B49" t="n">
+        <v>352</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
-      <c r="D49" t="s">
-        <v>599</v>
+      <c r="D49" t="n">
+        <v>634</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
-      <c r="F49" t="s">
-        <v>600</v>
+      <c r="F49" t="n">
+        <v>6823</v>
       </c>
       <c r="G49" t="n">
         <v>0.02</v>
       </c>
-      <c r="H49" t="s">
-        <v>601</v>
+      <c r="H49" t="n">
+        <v>6054</v>
       </c>
       <c r="I49" t="n">
         <v>0.02</v>
       </c>
-      <c r="J49" t="s">
-        <v>602</v>
+      <c r="J49" t="n">
+        <v>5549</v>
       </c>
       <c r="K49" t="n">
         <v>0.02</v>
       </c>
-      <c r="L49" t="s">
-        <v>603</v>
+      <c r="L49" t="n">
+        <v>5162</v>
       </c>
       <c r="M49" t="n">
         <v>0.02</v>
       </c>
-      <c r="N49" t="s">
-        <v>603</v>
+      <c r="N49" t="n">
+        <v>5162</v>
       </c>
       <c r="O49" t="n">
         <v>0.02</v>
       </c>
-      <c r="P49" t="s">
-        <v>604</v>
+      <c r="P49" t="n">
+        <v>14173</v>
       </c>
       <c r="Q49" t="n">
         <v>0.04</v>
@@ -7172,100 +4991,100 @@
     </row>
     <row r="50" spans="1:33">
       <c r="A50" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="B50" t="s">
-        <v>606</v>
+        <v>80</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1143949</v>
       </c>
       <c r="C50" t="n">
         <v>3.95</v>
       </c>
-      <c r="D50" t="s">
-        <v>607</v>
+      <c r="D50" t="n">
+        <v>1496117</v>
       </c>
       <c r="E50" t="n">
         <v>5.33</v>
       </c>
-      <c r="F50" t="s">
-        <v>608</v>
+      <c r="F50" t="n">
+        <v>1165251</v>
       </c>
       <c r="G50" t="n">
         <v>3.93</v>
       </c>
-      <c r="H50" t="s">
-        <v>609</v>
+      <c r="H50" t="n">
+        <v>797205</v>
       </c>
       <c r="I50" t="n">
         <v>2.39</v>
       </c>
-      <c r="J50" t="s">
-        <v>610</v>
+      <c r="J50" t="n">
+        <v>1418828</v>
       </c>
       <c r="K50" t="n">
         <v>4.16</v>
       </c>
-      <c r="L50" t="s">
-        <v>611</v>
+      <c r="L50" t="n">
+        <v>2187333</v>
       </c>
       <c r="M50" t="n">
         <v>6.53</v>
       </c>
-      <c r="N50" t="s">
-        <v>612</v>
+      <c r="N50" t="n">
+        <v>3034167</v>
       </c>
       <c r="O50" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="P50" t="s">
-        <v>613</v>
+      <c r="P50" t="n">
+        <v>1057801</v>
       </c>
       <c r="Q50" t="n">
         <v>3.14</v>
       </c>
-      <c r="R50" t="s">
-        <v>614</v>
+      <c r="R50" t="n">
+        <v>1832998</v>
       </c>
       <c r="S50" t="n">
         <v>5.63</v>
       </c>
-      <c r="T50" t="s">
-        <v>615</v>
+      <c r="T50" t="n">
+        <v>1403586</v>
       </c>
       <c r="U50" t="n">
         <v>4.48</v>
       </c>
-      <c r="V50" t="s">
-        <v>616</v>
+      <c r="V50" t="n">
+        <v>975174</v>
       </c>
       <c r="W50" t="n">
         <v>3.29</v>
       </c>
-      <c r="X50" t="s">
-        <v>617</v>
+      <c r="X50" t="n">
+        <v>312817</v>
       </c>
       <c r="Y50" t="n">
         <v>1.14</v>
       </c>
-      <c r="Z50" t="s">
-        <v>618</v>
+      <c r="Z50" t="n">
+        <v>330554</v>
       </c>
       <c r="AA50" t="n">
         <v>1.23</v>
       </c>
-      <c r="AB50" t="s">
-        <v>619</v>
+      <c r="AB50" t="n">
+        <v>424290</v>
       </c>
       <c r="AC50" t="n">
         <v>1.61</v>
       </c>
-      <c r="AD50" t="s">
-        <v>620</v>
+      <c r="AD50" t="n">
+        <v>318270</v>
       </c>
       <c r="AE50" t="n">
         <v>1.23</v>
       </c>
-      <c r="AF50" t="s">
-        <v>621</v>
+      <c r="AF50" t="n">
+        <v>332240</v>
       </c>
       <c r="AG50" t="n">
         <v>1.27</v>
@@ -7273,100 +5092,100 @@
     </row>
     <row r="51" spans="1:33">
       <c r="A51" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="B51" t="s">
-        <v>441</v>
+        <v>81</v>
+      </c>
+      <c r="B51" t="n">
+        <v>7768285</v>
       </c>
       <c r="C51" t="n">
         <v>26.81</v>
       </c>
-      <c r="D51" t="s">
-        <v>441</v>
+      <c r="D51" t="n">
+        <v>7768285</v>
       </c>
       <c r="E51" t="n">
         <v>27.69</v>
       </c>
-      <c r="F51" t="s">
-        <v>441</v>
+      <c r="F51" t="n">
+        <v>7768285</v>
       </c>
       <c r="G51" t="n">
         <v>26.18</v>
       </c>
-      <c r="H51" t="s">
-        <v>441</v>
+      <c r="H51" t="n">
+        <v>7768285</v>
       </c>
       <c r="I51" t="n">
         <v>23.28</v>
       </c>
-      <c r="J51" t="s">
-        <v>441</v>
+      <c r="J51" t="n">
+        <v>7768285</v>
       </c>
       <c r="K51" t="n">
         <v>22.8</v>
       </c>
-      <c r="L51" t="s">
-        <v>441</v>
+      <c r="L51" t="n">
+        <v>7768285</v>
       </c>
       <c r="M51" t="n">
         <v>23.21</v>
       </c>
-      <c r="N51" t="s">
-        <v>441</v>
+      <c r="N51" t="n">
+        <v>7768285</v>
       </c>
       <c r="O51" t="n">
         <v>22.91</v>
       </c>
-      <c r="P51" t="s">
-        <v>441</v>
+      <c r="P51" t="n">
+        <v>7768285</v>
       </c>
       <c r="Q51" t="n">
         <v>23.07</v>
       </c>
-      <c r="R51" t="s">
-        <v>441</v>
+      <c r="R51" t="n">
+        <v>7768285</v>
       </c>
       <c r="S51" t="n">
         <v>23.85</v>
       </c>
-      <c r="T51" t="s">
-        <v>441</v>
+      <c r="T51" t="n">
+        <v>7768285</v>
       </c>
       <c r="U51" t="n">
         <v>24.79</v>
       </c>
-      <c r="V51" t="s">
-        <v>441</v>
+      <c r="V51" t="n">
+        <v>7768285</v>
       </c>
       <c r="W51" t="n">
         <v>26.25</v>
       </c>
-      <c r="X51" t="s">
-        <v>441</v>
+      <c r="X51" t="n">
+        <v>7768285</v>
       </c>
       <c r="Y51" t="n">
         <v>28.37</v>
       </c>
-      <c r="Z51" t="s">
-        <v>442</v>
+      <c r="Z51" t="n">
+        <v>7747805</v>
       </c>
       <c r="AA51" t="n">
         <v>28.89</v>
       </c>
-      <c r="AB51" t="s">
-        <v>442</v>
+      <c r="AB51" t="n">
+        <v>7747805</v>
       </c>
       <c r="AC51" t="n">
         <v>29.45</v>
       </c>
-      <c r="AD51" t="s">
-        <v>442</v>
+      <c r="AD51" t="n">
+        <v>7747805</v>
       </c>
       <c r="AE51" t="n">
         <v>29.85</v>
       </c>
-      <c r="AF51" t="s">
-        <v>442</v>
+      <c r="AF51" t="n">
+        <v>7747805</v>
       </c>
       <c r="AG51" t="n">
         <v>29.65</v>
@@ -7374,7 +5193,7 @@
     </row>
     <row r="52" spans="1:33">
       <c r="A52" s="1" t="s">
-        <v>623</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s"/>
       <c r="C52" t="s"/>
@@ -7392,50 +5211,50 @@
       <c r="O52" t="s"/>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
-      <c r="R52" t="s">
-        <v>624</v>
+      <c r="R52" t="n">
+        <v>32577250</v>
       </c>
       <c r="S52" t="n">
         <v>100</v>
       </c>
-      <c r="T52" t="s">
-        <v>625</v>
+      <c r="T52" t="n">
+        <v>31334774</v>
       </c>
       <c r="U52" t="n">
         <v>100</v>
       </c>
-      <c r="V52" t="s">
-        <v>626</v>
+      <c r="V52" t="n">
+        <v>29598723</v>
       </c>
       <c r="W52" t="n">
         <v>100</v>
       </c>
-      <c r="X52" t="s">
-        <v>627</v>
+      <c r="X52" t="n">
+        <v>27383042</v>
       </c>
       <c r="Y52" t="n">
         <v>100</v>
       </c>
-      <c r="Z52" t="s">
-        <v>628</v>
+      <c r="Z52" t="n">
+        <v>26816477</v>
       </c>
       <c r="AA52" t="n">
         <v>100</v>
       </c>
-      <c r="AB52" t="s">
-        <v>629</v>
+      <c r="AB52" t="n">
+        <v>26304009</v>
       </c>
       <c r="AC52" t="n">
         <v>100</v>
       </c>
-      <c r="AD52" t="s">
-        <v>630</v>
+      <c r="AD52" t="n">
+        <v>25951452</v>
       </c>
       <c r="AE52" t="n">
         <v>100</v>
       </c>
-      <c r="AF52" t="s">
-        <v>631</v>
+      <c r="AF52" t="n">
+        <v>26128917</v>
       </c>
       <c r="AG52" t="n">
         <v>100</v>
@@ -7443,7 +5262,7 @@
     </row>
     <row r="53" spans="1:33">
       <c r="A53" s="1" t="s">
-        <v>632</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s"/>
       <c r="C53" t="s"/>
@@ -7455,38 +5274,38 @@
       <c r="I53" t="s"/>
       <c r="J53" t="s"/>
       <c r="K53" t="s"/>
-      <c r="L53" t="s">
-        <v>633</v>
+      <c r="L53" t="n">
+        <v>27258</v>
       </c>
       <c r="M53" t="n">
         <v>0.08</v>
       </c>
-      <c r="N53" t="s">
-        <v>634</v>
+      <c r="N53" t="n">
+        <v>7902</v>
       </c>
       <c r="O53" t="n">
         <v>0.02</v>
       </c>
-      <c r="P53" t="s">
-        <v>635</v>
+      <c r="P53" t="n">
+        <v>8063</v>
       </c>
       <c r="Q53" t="n">
         <v>0.02</v>
       </c>
-      <c r="R53" t="s">
-        <v>636</v>
+      <c r="R53" t="n">
+        <v>7666</v>
       </c>
       <c r="S53" t="n">
         <v>0.02</v>
       </c>
-      <c r="T53" t="s">
-        <v>637</v>
+      <c r="T53" t="n">
+        <v>7492</v>
       </c>
       <c r="U53" t="n">
         <v>0.02</v>
       </c>
-      <c r="V53" t="s">
-        <v>638</v>
+      <c r="V53" t="n">
+        <v>7518</v>
       </c>
       <c r="W53" t="n">
         <v>0.03</v>
@@ -7504,7 +5323,7 @@
     </row>
     <row r="54" spans="1:33">
       <c r="A54" s="1" t="s">
-        <v>639</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s"/>
       <c r="C54" t="s"/>
@@ -7516,38 +5335,38 @@
       <c r="I54" t="s"/>
       <c r="J54" t="s"/>
       <c r="K54" t="s"/>
-      <c r="L54" t="s">
-        <v>640</v>
+      <c r="L54" t="n">
+        <v>20471</v>
       </c>
       <c r="M54" t="n">
         <v>0.06</v>
       </c>
-      <c r="N54" t="s">
-        <v>641</v>
+      <c r="N54" t="n">
+        <v>18954</v>
       </c>
       <c r="O54" t="n">
         <v>0.06</v>
       </c>
-      <c r="P54" t="s">
-        <v>642</v>
+      <c r="P54" t="n">
+        <v>17900</v>
       </c>
       <c r="Q54" t="n">
         <v>0.05</v>
       </c>
-      <c r="R54" t="s">
-        <v>643</v>
+      <c r="R54" t="n">
+        <v>15595</v>
       </c>
       <c r="S54" t="n">
         <v>0.05</v>
       </c>
-      <c r="T54" t="s">
-        <v>644</v>
+      <c r="T54" t="n">
+        <v>13794</v>
       </c>
       <c r="U54" t="n">
         <v>0.04</v>
       </c>
-      <c r="V54" t="s">
-        <v>645</v>
+      <c r="V54" t="n">
+        <v>12292</v>
       </c>
       <c r="W54" t="n">
         <v>0.04</v>
@@ -7565,100 +5384,100 @@
     </row>
     <row r="55" spans="1:33">
       <c r="A55" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="B55" t="s">
-        <v>647</v>
+        <v>85</v>
+      </c>
+      <c r="B55" t="n">
+        <v>12580964</v>
       </c>
       <c r="C55" t="n">
         <v>43.42</v>
       </c>
-      <c r="D55" t="s">
-        <v>648</v>
+      <c r="D55" t="n">
+        <v>12283121</v>
       </c>
       <c r="E55" t="n">
         <v>43.79</v>
       </c>
-      <c r="F55" t="s">
-        <v>649</v>
+      <c r="F55" t="n">
+        <v>12211983</v>
       </c>
       <c r="G55" t="n">
         <v>41.16</v>
       </c>
-      <c r="H55" t="s">
-        <v>650</v>
+      <c r="H55" t="n">
+        <v>11876356</v>
       </c>
       <c r="I55" t="n">
         <v>35.58</v>
       </c>
-      <c r="J55" t="s">
-        <v>651</v>
+      <c r="J55" t="n">
+        <v>12574870</v>
       </c>
       <c r="K55" t="n">
         <v>36.91</v>
       </c>
-      <c r="L55" t="s">
-        <v>652</v>
+      <c r="L55" t="n">
+        <v>14680392</v>
       </c>
       <c r="M55" t="n">
         <v>43.86</v>
       </c>
-      <c r="N55" t="s">
-        <v>653</v>
+      <c r="N55" t="n">
+        <v>14770516</v>
       </c>
       <c r="O55" t="n">
         <v>43.56</v>
       </c>
-      <c r="P55" t="s">
-        <v>654</v>
+      <c r="P55" t="n">
+        <v>14384421</v>
       </c>
       <c r="Q55" t="n">
         <v>42.73</v>
       </c>
-      <c r="R55" t="s">
-        <v>655</v>
+      <c r="R55" t="n">
+        <v>13928758</v>
       </c>
       <c r="S55" t="n">
         <v>42.76</v>
       </c>
-      <c r="T55" t="s">
-        <v>656</v>
+      <c r="T55" t="n">
+        <v>14098805</v>
       </c>
       <c r="U55" t="n">
         <v>44.99</v>
       </c>
-      <c r="V55" t="s">
-        <v>657</v>
+      <c r="V55" t="n">
+        <v>15508698</v>
       </c>
       <c r="W55" t="n">
         <v>52.4</v>
       </c>
-      <c r="X55" t="s">
-        <v>658</v>
+      <c r="X55" t="n">
+        <v>13336696</v>
       </c>
       <c r="Y55" t="n">
         <v>48.7</v>
       </c>
-      <c r="Z55" t="s">
-        <v>659</v>
+      <c r="Z55" t="n">
+        <v>12832144</v>
       </c>
       <c r="AA55" t="n">
         <v>47.85</v>
       </c>
-      <c r="AB55" t="s">
-        <v>660</v>
+      <c r="AB55" t="n">
+        <v>12961270</v>
       </c>
       <c r="AC55" t="n">
         <v>49.27</v>
       </c>
-      <c r="AD55" t="s">
-        <v>661</v>
+      <c r="AD55" t="n">
+        <v>10059657</v>
       </c>
       <c r="AE55" t="n">
         <v>38.76</v>
       </c>
-      <c r="AF55" t="s">
-        <v>662</v>
+      <c r="AF55" t="n">
+        <v>10315659</v>
       </c>
       <c r="AG55" t="n">
         <v>39.48</v>
@@ -7666,100 +5485,100 @@
     </row>
     <row r="56" spans="1:33">
       <c r="A56" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="B56" t="s">
-        <v>664</v>
+        <v>86</v>
+      </c>
+      <c r="B56" t="n">
+        <v>444825</v>
       </c>
       <c r="C56" t="n">
         <v>1.54</v>
       </c>
-      <c r="D56" t="s">
-        <v>664</v>
+      <c r="D56" t="n">
+        <v>444825</v>
       </c>
       <c r="E56" t="n">
         <v>1.59</v>
       </c>
-      <c r="F56" t="s">
-        <v>665</v>
+      <c r="F56" t="n">
+        <v>450521</v>
       </c>
       <c r="G56" t="n">
         <v>1.52</v>
       </c>
-      <c r="H56" t="s">
-        <v>665</v>
+      <c r="H56" t="n">
+        <v>450521</v>
       </c>
       <c r="I56" t="n">
         <v>1.35</v>
       </c>
-      <c r="J56" t="s">
-        <v>665</v>
+      <c r="J56" t="n">
+        <v>450521</v>
       </c>
       <c r="K56" t="n">
         <v>1.32</v>
       </c>
-      <c r="L56" t="s">
-        <v>665</v>
+      <c r="L56" t="n">
+        <v>450521</v>
       </c>
       <c r="M56" t="n">
         <v>1.35</v>
       </c>
-      <c r="N56" t="s">
-        <v>666</v>
+      <c r="N56" t="n">
+        <v>570096</v>
       </c>
       <c r="O56" t="n">
         <v>1.68</v>
       </c>
-      <c r="P56" t="s">
-        <v>666</v>
+      <c r="P56" t="n">
+        <v>570096</v>
       </c>
       <c r="Q56" t="n">
         <v>1.69</v>
       </c>
-      <c r="R56" t="s">
-        <v>666</v>
+      <c r="R56" t="n">
+        <v>570096</v>
       </c>
       <c r="S56" t="n">
         <v>1.75</v>
       </c>
-      <c r="T56" t="s">
-        <v>666</v>
+      <c r="T56" t="n">
+        <v>570096</v>
       </c>
       <c r="U56" t="n">
         <v>1.82</v>
       </c>
-      <c r="V56" t="s">
-        <v>667</v>
+      <c r="V56" t="n">
+        <v>605968</v>
       </c>
       <c r="W56" t="n">
         <v>2.05</v>
       </c>
-      <c r="X56" t="s">
-        <v>668</v>
+      <c r="X56" t="n">
+        <v>605975</v>
       </c>
       <c r="Y56" t="n">
         <v>2.21</v>
       </c>
-      <c r="Z56" t="s">
-        <v>669</v>
+      <c r="Z56" t="n">
+        <v>605621</v>
       </c>
       <c r="AA56" t="n">
         <v>2.26</v>
       </c>
-      <c r="AB56" t="s">
-        <v>669</v>
+      <c r="AB56" t="n">
+        <v>605621</v>
       </c>
       <c r="AC56" t="n">
         <v>2.3</v>
       </c>
-      <c r="AD56" t="s">
-        <v>670</v>
+      <c r="AD56" t="n">
+        <v>617579</v>
       </c>
       <c r="AE56" t="n">
         <v>2.38</v>
       </c>
-      <c r="AF56" t="s">
-        <v>670</v>
+      <c r="AF56" t="n">
+        <v>617579</v>
       </c>
       <c r="AG56" t="n">
         <v>2.36</v>
@@ -7767,100 +5586,100 @@
     </row>
     <row r="57" spans="1:33">
       <c r="A57" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B57" t="s">
-        <v>672</v>
+        <v>87</v>
+      </c>
+      <c r="B57" t="n">
+        <v>28976954</v>
       </c>
       <c r="C57" t="n">
         <v>100</v>
       </c>
-      <c r="D57" t="s">
-        <v>673</v>
+      <c r="D57" t="n">
+        <v>28052443</v>
       </c>
       <c r="E57" t="n">
         <v>100</v>
       </c>
-      <c r="F57" t="s">
-        <v>674</v>
+      <c r="F57" t="n">
+        <v>29672710</v>
       </c>
       <c r="G57" t="n">
         <v>100</v>
       </c>
-      <c r="H57" t="s">
-        <v>675</v>
+      <c r="H57" t="n">
+        <v>33374653</v>
       </c>
       <c r="I57" t="n">
         <v>100</v>
       </c>
-      <c r="J57" t="s">
-        <v>676</v>
+      <c r="J57" t="n">
+        <v>34068778</v>
       </c>
       <c r="K57" t="n">
         <v>100</v>
       </c>
-      <c r="L57" t="s">
-        <v>677</v>
+      <c r="L57" t="n">
+        <v>33472039</v>
       </c>
       <c r="M57" t="n">
         <v>100</v>
       </c>
-      <c r="N57" t="s">
-        <v>678</v>
+      <c r="N57" t="n">
+        <v>33905934</v>
       </c>
       <c r="O57" t="n">
         <v>100</v>
       </c>
-      <c r="P57" t="s">
-        <v>679</v>
+      <c r="P57" t="n">
+        <v>33666479</v>
       </c>
       <c r="Q57" t="n">
         <v>100</v>
       </c>
-      <c r="R57" t="s">
-        <v>624</v>
+      <c r="R57" t="n">
+        <v>32577250</v>
       </c>
       <c r="S57" t="n">
         <v>100</v>
       </c>
-      <c r="T57" t="s">
-        <v>625</v>
+      <c r="T57" t="n">
+        <v>31334774</v>
       </c>
       <c r="U57" t="n">
         <v>100</v>
       </c>
-      <c r="V57" t="s">
-        <v>626</v>
+      <c r="V57" t="n">
+        <v>29598723</v>
       </c>
       <c r="W57" t="n">
         <v>100</v>
       </c>
-      <c r="X57" t="s">
-        <v>627</v>
+      <c r="X57" t="n">
+        <v>27383042</v>
       </c>
       <c r="Y57" t="n">
         <v>100</v>
       </c>
-      <c r="Z57" t="s">
-        <v>628</v>
+      <c r="Z57" t="n">
+        <v>26816477</v>
       </c>
       <c r="AA57" t="n">
         <v>100</v>
       </c>
-      <c r="AB57" t="s">
-        <v>629</v>
+      <c r="AB57" t="n">
+        <v>26304009</v>
       </c>
       <c r="AC57" t="n">
         <v>100</v>
       </c>
-      <c r="AD57" t="s">
-        <v>630</v>
+      <c r="AD57" t="n">
+        <v>25951452</v>
       </c>
       <c r="AE57" t="n">
         <v>100</v>
       </c>
-      <c r="AF57" t="s">
-        <v>631</v>
+      <c r="AF57" t="n">
+        <v>26128917</v>
       </c>
       <c r="AG57" t="n">
         <v>100</v>
@@ -7868,7 +5687,7 @@
     </row>
     <row r="58" spans="1:33">
       <c r="A58" s="1" t="s">
-        <v>680</v>
+        <v>88</v>
       </c>
       <c r="B58" t="s"/>
       <c r="C58" t="s"/>
@@ -7876,50 +5695,50 @@
       <c r="E58" t="s"/>
       <c r="F58" t="s"/>
       <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>681</v>
+      <c r="H58" t="n">
+        <v>632</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="s">
-        <v>682</v>
+      <c r="J58" t="n">
+        <v>447</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
-      <c r="L58" t="s">
-        <v>683</v>
+      <c r="L58" t="n">
+        <v>324</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
-      <c r="N58" t="s">
-        <v>684</v>
+      <c r="N58" t="n">
+        <v>174</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
       </c>
-      <c r="P58" t="s">
-        <v>131</v>
+      <c r="P58" t="n">
+        <v>0</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
       </c>
-      <c r="R58" t="s">
-        <v>131</v>
+      <c r="R58" t="n">
+        <v>0</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
       </c>
-      <c r="T58" t="s">
-        <v>131</v>
+      <c r="T58" t="n">
+        <v>0</v>
       </c>
       <c r="U58" t="n">
         <v>0</v>
       </c>
-      <c r="V58" t="s">
-        <v>131</v>
+      <c r="V58" t="n">
+        <v>0</v>
       </c>
       <c r="W58" t="n">
         <v>0</v>
@@ -7937,46 +5756,46 @@
     </row>
     <row r="59" spans="1:33">
       <c r="A59" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="B59" t="s">
-        <v>686</v>
+        <v>89</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1121</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
-      <c r="D59" t="s">
-        <v>687</v>
+      <c r="D59" t="n">
+        <v>958</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
-      <c r="F59" t="s">
-        <v>688</v>
+      <c r="F59" t="n">
+        <v>775</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
-      <c r="H59" t="s">
-        <v>131</v>
+      <c r="H59" t="n">
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="s">
-        <v>131</v>
+      <c r="J59" t="n">
+        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
-      <c r="L59" t="s">
-        <v>131</v>
+      <c r="L59" t="n">
+        <v>0</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
-      <c r="N59" t="s">
-        <v>131</v>
+      <c r="N59" t="n">
+        <v>0</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -8002,100 +5821,100 @@
     </row>
     <row r="60" spans="1:33">
       <c r="A60" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="B60" t="s">
-        <v>690</v>
+        <v>90</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2039831</v>
       </c>
       <c r="C60" t="n">
         <v>7.04</v>
       </c>
-      <c r="D60" t="s">
-        <v>691</v>
+      <c r="D60" t="n">
+        <v>1820520</v>
       </c>
       <c r="E60" t="n">
         <v>6.49</v>
       </c>
-      <c r="F60" t="s">
-        <v>692</v>
+      <c r="F60" t="n">
+        <v>1953482</v>
       </c>
       <c r="G60" t="n">
         <v>6.58</v>
       </c>
-      <c r="H60" t="s">
-        <v>693</v>
+      <c r="H60" t="n">
+        <v>2313953</v>
       </c>
       <c r="I60" t="n">
         <v>6.93</v>
       </c>
-      <c r="J60" t="s">
-        <v>694</v>
+      <c r="J60" t="n">
+        <v>1936040</v>
       </c>
       <c r="K60" t="n">
         <v>5.68</v>
       </c>
-      <c r="L60" t="s">
-        <v>695</v>
+      <c r="L60" t="n">
+        <v>1800959</v>
       </c>
       <c r="M60" t="n">
         <v>5.38</v>
       </c>
-      <c r="N60" t="s">
-        <v>696</v>
+      <c r="N60" t="n">
+        <v>1706989</v>
       </c>
       <c r="O60" t="n">
         <v>5.03</v>
       </c>
-      <c r="P60" t="s">
-        <v>697</v>
+      <c r="P60" t="n">
+        <v>1671024</v>
       </c>
       <c r="Q60" t="n">
         <v>4.96</v>
       </c>
-      <c r="R60" t="s">
-        <v>698</v>
+      <c r="R60" t="n">
+        <v>1722900</v>
       </c>
       <c r="S60" t="n">
         <v>5.29</v>
       </c>
-      <c r="T60" t="s">
-        <v>699</v>
+      <c r="T60" t="n">
+        <v>1606690</v>
       </c>
       <c r="U60" t="n">
         <v>5.13</v>
       </c>
-      <c r="V60" t="s">
-        <v>700</v>
+      <c r="V60" t="n">
+        <v>1266695</v>
       </c>
       <c r="W60" t="n">
         <v>4.28</v>
       </c>
-      <c r="X60" t="s">
-        <v>701</v>
+      <c r="X60" t="n">
+        <v>488242</v>
       </c>
       <c r="Y60" t="n">
         <v>1.78</v>
       </c>
-      <c r="Z60" t="s">
-        <v>702</v>
+      <c r="Z60" t="n">
+        <v>477381</v>
       </c>
       <c r="AA60" t="n">
         <v>1.78</v>
       </c>
-      <c r="AB60" t="s">
-        <v>703</v>
+      <c r="AB60" t="n">
+        <v>436050</v>
       </c>
       <c r="AC60" t="n">
         <v>1.66</v>
       </c>
-      <c r="AD60" t="s">
-        <v>704</v>
+      <c r="AD60" t="n">
+        <v>345705</v>
       </c>
       <c r="AE60" t="n">
         <v>1.33</v>
       </c>
-      <c r="AF60" t="s">
-        <v>705</v>
+      <c r="AF60" t="n">
+        <v>361430</v>
       </c>
       <c r="AG60" t="n">
         <v>1.38</v>
@@ -8103,100 +5922,100 @@
     </row>
     <row r="61" spans="1:33">
       <c r="A61" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="B61" t="s">
-        <v>707</v>
+        <v>91</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1528431</v>
       </c>
       <c r="C61" t="n">
         <v>5.27</v>
       </c>
-      <c r="D61" t="s">
-        <v>708</v>
+      <c r="D61" t="n">
+        <v>1533864</v>
       </c>
       <c r="E61" t="n">
         <v>5.47</v>
       </c>
-      <c r="F61" t="s">
-        <v>709</v>
+      <c r="F61" t="n">
+        <v>1514843</v>
       </c>
       <c r="G61" t="n">
         <v>5.11</v>
       </c>
-      <c r="H61" t="s">
-        <v>710</v>
+      <c r="H61" t="n">
+        <v>1572661</v>
       </c>
       <c r="I61" t="n">
         <v>4.71</v>
       </c>
-      <c r="J61" t="s">
-        <v>711</v>
+      <c r="J61" t="n">
+        <v>1626143</v>
       </c>
       <c r="K61" t="n">
         <v>4.77</v>
       </c>
-      <c r="L61" t="s">
-        <v>712</v>
+      <c r="L61" t="n">
+        <v>1543233</v>
       </c>
       <c r="M61" t="n">
         <v>4.61</v>
       </c>
-      <c r="N61" t="s">
-        <v>713</v>
+      <c r="N61" t="n">
+        <v>1572831</v>
       </c>
       <c r="O61" t="n">
         <v>4.64</v>
       </c>
-      <c r="P61" t="s">
-        <v>714</v>
+      <c r="P61" t="n">
+        <v>1633163</v>
       </c>
       <c r="Q61" t="n">
         <v>4.85</v>
       </c>
-      <c r="R61" t="s">
-        <v>715</v>
+      <c r="R61" t="n">
+        <v>1553295</v>
       </c>
       <c r="S61" t="n">
         <v>4.77</v>
       </c>
-      <c r="T61" t="s">
-        <v>716</v>
+      <c r="T61" t="n">
+        <v>1543036</v>
       </c>
       <c r="U61" t="n">
         <v>4.92</v>
       </c>
-      <c r="V61" t="s">
-        <v>717</v>
+      <c r="V61" t="n">
+        <v>1573267</v>
       </c>
       <c r="W61" t="n">
         <v>5.32</v>
       </c>
-      <c r="X61" t="s">
-        <v>718</v>
+      <c r="X61" t="n">
+        <v>1437684</v>
       </c>
       <c r="Y61" t="n">
         <v>5.25</v>
       </c>
-      <c r="Z61" t="s">
-        <v>719</v>
+      <c r="Z61" t="n">
+        <v>1412443</v>
       </c>
       <c r="AA61" t="n">
         <v>5.27</v>
       </c>
-      <c r="AB61" t="s">
-        <v>720</v>
+      <c r="AB61" t="n">
+        <v>1406879</v>
       </c>
       <c r="AC61" t="n">
         <v>5.35</v>
       </c>
-      <c r="AD61" t="s">
-        <v>721</v>
+      <c r="AD61" t="n">
+        <v>1355662</v>
       </c>
       <c r="AE61" t="n">
         <v>5.22</v>
       </c>
-      <c r="AF61" t="s">
-        <v>722</v>
+      <c r="AF61" t="n">
+        <v>1318544</v>
       </c>
       <c r="AG61" t="n">
         <v>5.05</v>
@@ -8204,100 +6023,100 @@
     </row>
     <row r="62" spans="1:33">
       <c r="A62" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="B62" t="s">
-        <v>724</v>
+        <v>92</v>
+      </c>
+      <c r="B62" t="n">
+        <v>167846</v>
       </c>
       <c r="C62" t="n">
         <v>0.58</v>
       </c>
-      <c r="D62" t="s">
-        <v>725</v>
+      <c r="D62" t="n">
+        <v>168835</v>
       </c>
       <c r="E62" t="n">
         <v>0.6</v>
       </c>
-      <c r="F62" t="s">
-        <v>726</v>
+      <c r="F62" t="n">
+        <v>171138</v>
       </c>
       <c r="G62" t="n">
         <v>0.58</v>
       </c>
-      <c r="H62" t="s">
-        <v>727</v>
+      <c r="H62" t="n">
+        <v>187771</v>
       </c>
       <c r="I62" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="J62" t="s">
-        <v>728</v>
+      <c r="J62" t="n">
+        <v>199339</v>
       </c>
       <c r="K62" t="n">
         <v>0.59</v>
       </c>
-      <c r="L62" t="s">
-        <v>729</v>
+      <c r="L62" t="n">
+        <v>180537</v>
       </c>
       <c r="M62" t="n">
         <v>0.54</v>
       </c>
-      <c r="N62" t="s">
-        <v>730</v>
+      <c r="N62" t="n">
+        <v>172035</v>
       </c>
       <c r="O62" t="n">
         <v>0.51</v>
       </c>
-      <c r="P62" t="s">
-        <v>731</v>
+      <c r="P62" t="n">
+        <v>219201</v>
       </c>
       <c r="Q62" t="n">
         <v>0.65</v>
       </c>
-      <c r="R62" t="s">
-        <v>732</v>
+      <c r="R62" t="n">
+        <v>219753</v>
       </c>
       <c r="S62" t="n">
         <v>0.67</v>
       </c>
-      <c r="T62" t="s">
-        <v>733</v>
+      <c r="T62" t="n">
+        <v>149238</v>
       </c>
       <c r="U62" t="n">
         <v>0.48</v>
       </c>
-      <c r="V62" t="s">
-        <v>734</v>
+      <c r="V62" t="n">
+        <v>143454</v>
       </c>
       <c r="W62" t="n">
         <v>0.48</v>
       </c>
-      <c r="X62" t="s">
-        <v>735</v>
+      <c r="X62" t="n">
+        <v>129632</v>
       </c>
       <c r="Y62" t="n">
         <v>0.47</v>
       </c>
-      <c r="Z62" t="s">
-        <v>736</v>
+      <c r="Z62" t="n">
+        <v>122554</v>
       </c>
       <c r="AA62" t="n">
         <v>0.46</v>
       </c>
-      <c r="AB62" t="s">
-        <v>737</v>
+      <c r="AB62" t="n">
+        <v>135600</v>
       </c>
       <c r="AC62" t="n">
         <v>0.52</v>
       </c>
-      <c r="AD62" t="s">
-        <v>738</v>
+      <c r="AD62" t="n">
+        <v>127124</v>
       </c>
       <c r="AE62" t="n">
         <v>0.49</v>
       </c>
-      <c r="AF62" t="s">
-        <v>739</v>
+      <c r="AF62" t="n">
+        <v>104258</v>
       </c>
       <c r="AG62" t="n">
         <v>0.4</v>
@@ -8305,100 +6124,100 @@
     </row>
     <row r="63" spans="1:33">
       <c r="A63" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="B63" t="s">
-        <v>741</v>
+        <v>93</v>
+      </c>
+      <c r="B63" t="n">
+        <v>7632565</v>
       </c>
       <c r="C63" t="n">
         <v>26.34</v>
       </c>
-      <c r="D63" t="s">
-        <v>742</v>
+      <c r="D63" t="n">
+        <v>6951742</v>
       </c>
       <c r="E63" t="n">
         <v>24.78</v>
       </c>
-      <c r="F63" t="s">
-        <v>743</v>
+      <c r="F63" t="n">
+        <v>6232065</v>
       </c>
       <c r="G63" t="n">
         <v>21</v>
       </c>
-      <c r="H63" t="s">
-        <v>744</v>
+      <c r="H63" t="n">
+        <v>6529478</v>
       </c>
       <c r="I63" t="n">
         <v>19.56</v>
       </c>
-      <c r="J63" t="s">
-        <v>745</v>
+      <c r="J63" t="n">
+        <v>5971515</v>
       </c>
       <c r="K63" t="n">
         <v>17.53</v>
       </c>
-      <c r="L63" t="s">
-        <v>746</v>
+      <c r="L63" t="n">
+        <v>6073287</v>
       </c>
       <c r="M63" t="n">
         <v>18.14</v>
       </c>
-      <c r="N63" t="s">
-        <v>747</v>
+      <c r="N63" t="n">
+        <v>6553485</v>
       </c>
       <c r="O63" t="n">
         <v>19.33</v>
       </c>
-      <c r="P63" t="s">
-        <v>748</v>
+      <c r="P63" t="n">
+        <v>9096887</v>
       </c>
       <c r="Q63" t="n">
         <v>27.02</v>
       </c>
-      <c r="R63" t="s">
-        <v>749</v>
+      <c r="R63" t="n">
+        <v>8463311</v>
       </c>
       <c r="S63" t="n">
         <v>25.98</v>
       </c>
-      <c r="T63" t="s">
-        <v>750</v>
+      <c r="T63" t="n">
+        <v>8943908</v>
       </c>
       <c r="U63" t="n">
         <v>28.54</v>
       </c>
-      <c r="V63" t="s">
-        <v>751</v>
+      <c r="V63" t="n">
+        <v>10967165</v>
       </c>
       <c r="W63" t="n">
         <v>37.05</v>
       </c>
-      <c r="X63" t="s">
-        <v>752</v>
+      <c r="X63" t="n">
+        <v>10116104</v>
       </c>
       <c r="Y63" t="n">
         <v>36.94</v>
       </c>
-      <c r="Z63" t="s">
-        <v>753</v>
+      <c r="Z63" t="n">
+        <v>9646517</v>
       </c>
       <c r="AA63" t="n">
         <v>35.97</v>
       </c>
-      <c r="AB63" t="s">
-        <v>754</v>
+      <c r="AB63" t="n">
+        <v>8415610</v>
       </c>
       <c r="AC63" t="n">
         <v>31.99</v>
       </c>
-      <c r="AD63" t="s">
-        <v>755</v>
+      <c r="AD63" t="n">
+        <v>6317536</v>
       </c>
       <c r="AE63" t="n">
         <v>24.34</v>
       </c>
-      <c r="AF63" t="s">
-        <v>756</v>
+      <c r="AF63" t="n">
+        <v>6786374</v>
       </c>
       <c r="AG63" t="n">
         <v>25.97</v>
@@ -8406,100 +6225,100 @@
     </row>
     <row r="64" spans="1:33">
       <c r="A64" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B64" t="s">
-        <v>758</v>
+        <v>94</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2288724</v>
       </c>
       <c r="C64" t="n">
         <v>7.9</v>
       </c>
-      <c r="D64" t="s">
-        <v>759</v>
+      <c r="D64" t="n">
+        <v>2199497</v>
       </c>
       <c r="E64" t="n">
         <v>7.84</v>
       </c>
-      <c r="F64" t="s">
-        <v>760</v>
+      <c r="F64" t="n">
+        <v>2243465</v>
       </c>
       <c r="G64" t="n">
         <v>7.56</v>
       </c>
-      <c r="H64" t="s">
-        <v>761</v>
+      <c r="H64" t="n">
+        <v>2416206</v>
       </c>
       <c r="I64" t="n">
         <v>7.24</v>
       </c>
-      <c r="J64" t="s">
-        <v>762</v>
+      <c r="J64" t="n">
+        <v>2023899</v>
       </c>
       <c r="K64" t="n">
         <v>5.94</v>
       </c>
-      <c r="L64" t="s">
-        <v>763</v>
+      <c r="L64" t="n">
+        <v>1904806</v>
       </c>
       <c r="M64" t="n">
         <v>5.69</v>
       </c>
-      <c r="N64" t="s">
-        <v>764</v>
+      <c r="N64" t="n">
+        <v>1933172</v>
       </c>
       <c r="O64" t="n">
         <v>5.7</v>
       </c>
-      <c r="P64" t="s">
-        <v>765</v>
+      <c r="P64" t="n">
+        <v>1928095</v>
       </c>
       <c r="Q64" t="n">
         <v>5.73</v>
       </c>
-      <c r="R64" t="s">
-        <v>766</v>
+      <c r="R64" t="n">
+        <v>1916832</v>
       </c>
       <c r="S64" t="n">
         <v>5.88</v>
       </c>
-      <c r="T64" t="s">
-        <v>767</v>
+      <c r="T64" t="n">
+        <v>1838465</v>
       </c>
       <c r="U64" t="n">
         <v>5.87</v>
       </c>
-      <c r="V64" t="s">
-        <v>768</v>
+      <c r="V64" t="n">
+        <v>1715388</v>
       </c>
       <c r="W64" t="n">
         <v>5.8</v>
       </c>
-      <c r="X64" t="s">
-        <v>769</v>
+      <c r="X64" t="n">
+        <v>1670522</v>
       </c>
       <c r="Y64" t="n">
         <v>6.1</v>
       </c>
-      <c r="Z64" t="s">
-        <v>770</v>
+      <c r="Z64" t="n">
+        <v>1675447</v>
       </c>
       <c r="AA64" t="n">
         <v>6.25</v>
       </c>
-      <c r="AB64" t="s">
-        <v>771</v>
+      <c r="AB64" t="n">
+        <v>1648016</v>
       </c>
       <c r="AC64" t="n">
         <v>6.27</v>
       </c>
-      <c r="AD64" t="s">
-        <v>772</v>
+      <c r="AD64" t="n">
+        <v>1746032</v>
       </c>
       <c r="AE64" t="n">
         <v>6.73</v>
       </c>
-      <c r="AF64" t="s">
-        <v>773</v>
+      <c r="AF64" t="n">
+        <v>1709477</v>
       </c>
       <c r="AG64" t="n">
         <v>6.54</v>
@@ -8507,100 +6326,100 @@
     </row>
     <row r="65" spans="1:33">
       <c r="A65" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="B65" t="s">
-        <v>775</v>
+        <v>95</v>
+      </c>
+      <c r="B65" t="n">
+        <v>9622730</v>
       </c>
       <c r="C65" t="n">
         <v>33.21</v>
       </c>
-      <c r="D65" t="s">
-        <v>776</v>
+      <c r="D65" t="n">
+        <v>8948687</v>
       </c>
       <c r="E65" t="n">
         <v>31.9</v>
       </c>
-      <c r="F65" t="s">
-        <v>777</v>
+      <c r="F65" t="n">
+        <v>8251743</v>
       </c>
       <c r="G65" t="n">
         <v>27.81</v>
       </c>
-      <c r="H65" t="s">
-        <v>778</v>
+      <c r="H65" t="n">
+        <v>8588396</v>
       </c>
       <c r="I65" t="n">
         <v>25.73</v>
       </c>
-      <c r="J65" t="s">
-        <v>779</v>
+      <c r="J65" t="n">
+        <v>8163488</v>
       </c>
       <c r="K65" t="n">
         <v>23.96</v>
       </c>
-      <c r="L65" t="s">
-        <v>780</v>
+      <c r="L65" t="n">
+        <v>8203210</v>
       </c>
       <c r="M65" t="n">
         <v>24.51</v>
       </c>
-      <c r="N65" t="s">
-        <v>781</v>
+      <c r="N65" t="n">
+        <v>8718498</v>
       </c>
       <c r="O65" t="n">
         <v>25.71</v>
       </c>
-      <c r="P65" t="s">
-        <v>782</v>
+      <c r="P65" t="n">
+        <v>11018176</v>
       </c>
       <c r="Q65" t="n">
         <v>32.73</v>
       </c>
-      <c r="R65" t="s">
-        <v>783</v>
+      <c r="R65" t="n">
+        <v>10309882</v>
       </c>
       <c r="S65" t="n">
         <v>31.65</v>
       </c>
-      <c r="T65" t="s">
-        <v>784</v>
+      <c r="T65" t="n">
+        <v>10780748</v>
       </c>
       <c r="U65" t="n">
         <v>34.41</v>
       </c>
-      <c r="V65" t="s">
-        <v>785</v>
+      <c r="V65" t="n">
+        <v>12838356</v>
       </c>
       <c r="W65" t="n">
         <v>43.37</v>
       </c>
-      <c r="X65" t="s">
-        <v>786</v>
+      <c r="X65" t="n">
+        <v>11810325</v>
       </c>
       <c r="Y65" t="n">
         <v>43.13</v>
       </c>
-      <c r="Z65" t="s">
-        <v>787</v>
+      <c r="Z65" t="n">
+        <v>11316666</v>
       </c>
       <c r="AA65" t="n">
         <v>42.2</v>
       </c>
-      <c r="AB65" t="s">
-        <v>788</v>
+      <c r="AB65" t="n">
+        <v>10077093</v>
       </c>
       <c r="AC65" t="n">
         <v>38.31</v>
       </c>
-      <c r="AD65" t="s">
-        <v>789</v>
+      <c r="AD65" t="n">
+        <v>7925507</v>
       </c>
       <c r="AE65" t="n">
         <v>30.54</v>
       </c>
-      <c r="AF65" t="s">
-        <v>790</v>
+      <c r="AF65" t="n">
+        <v>8334173</v>
       </c>
       <c r="AG65" t="n">
         <v>31.9</v>
@@ -8608,100 +6427,100 @@
     </row>
     <row r="66" spans="1:33">
       <c r="A66" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="B66" t="s">
-        <v>792</v>
+        <v>96</v>
+      </c>
+      <c r="B66" t="n">
+        <v>16755562</v>
       </c>
       <c r="C66" t="n">
         <v>57.82</v>
       </c>
-      <c r="D66" t="s">
-        <v>793</v>
+      <c r="D66" t="n">
+        <v>16529498</v>
       </c>
       <c r="E66" t="n">
         <v>58.92</v>
       </c>
-      <c r="F66" t="s">
-        <v>794</v>
+      <c r="F66" t="n">
+        <v>17604402</v>
       </c>
       <c r="G66" t="n">
         <v>59.33</v>
       </c>
-      <c r="H66" t="s">
-        <v>795</v>
+      <c r="H66" t="n">
+        <v>19803869</v>
       </c>
       <c r="I66" t="n">
         <v>59.34</v>
       </c>
-      <c r="J66" t="s">
-        <v>796</v>
+      <c r="J66" t="n">
+        <v>21301587</v>
       </c>
       <c r="K66" t="n">
         <v>62.53</v>
       </c>
-      <c r="L66" t="s">
-        <v>797</v>
+      <c r="L66" t="n">
+        <v>20648812</v>
       </c>
       <c r="M66" t="n">
         <v>61.69</v>
       </c>
-      <c r="N66" t="s">
-        <v>798</v>
+      <c r="N66" t="n">
+        <v>21294423</v>
       </c>
       <c r="O66" t="n">
         <v>62.8</v>
       </c>
-      <c r="P66" t="s">
-        <v>799</v>
+      <c r="P66" t="n">
+        <v>20788464</v>
       </c>
       <c r="Q66" t="n">
         <v>61.75</v>
       </c>
-      <c r="R66" t="s">
-        <v>800</v>
+      <c r="R66" t="n">
+        <v>20103882</v>
       </c>
       <c r="S66" t="n">
         <v>61.71</v>
       </c>
-      <c r="T66" t="s">
-        <v>801</v>
+      <c r="T66" t="n">
+        <v>18643144</v>
       </c>
       <c r="U66" t="n">
         <v>59.5</v>
       </c>
-      <c r="V66" t="s">
-        <v>802</v>
+      <c r="V66" t="n">
+        <v>17057890</v>
       </c>
       <c r="W66" t="n">
         <v>57.63</v>
       </c>
-      <c r="X66" t="s">
-        <v>803</v>
+      <c r="X66" t="n">
+        <v>16699467</v>
       </c>
       <c r="Y66" t="n">
         <v>60.98</v>
       </c>
-      <c r="Z66" t="s">
-        <v>804</v>
+      <c r="Z66" t="n">
+        <v>16545849</v>
       </c>
       <c r="AA66" t="n">
         <v>61.7</v>
       </c>
-      <c r="AB66" t="s">
-        <v>805</v>
+      <c r="AB66" t="n">
+        <v>16237515</v>
       </c>
       <c r="AC66" t="n">
         <v>61.73</v>
       </c>
-      <c r="AD66" t="s">
-        <v>806</v>
+      <c r="AD66" t="n">
+        <v>17312584</v>
       </c>
       <c r="AE66" t="n">
         <v>66.70999999999999</v>
       </c>
-      <c r="AF66" t="s">
-        <v>807</v>
+      <c r="AF66" t="n">
+        <v>16685434</v>
       </c>
       <c r="AG66" t="n">
         <v>63.86</v>
@@ -8709,100 +6528,100 @@
     </row>
     <row r="67" spans="1:33">
       <c r="A67" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="B67" t="s">
-        <v>809</v>
+        <v>97</v>
+      </c>
+      <c r="B67" t="n">
+        <v>232065</v>
       </c>
       <c r="C67" t="n">
         <v>0.8</v>
       </c>
-      <c r="D67" t="s">
-        <v>810</v>
+      <c r="D67" t="n">
+        <v>247209</v>
       </c>
       <c r="E67" t="n">
         <v>0.88</v>
       </c>
-      <c r="F67" t="s">
-        <v>811</v>
+      <c r="F67" t="n">
+        <v>378743</v>
       </c>
       <c r="G67" t="n">
         <v>1.28</v>
       </c>
-      <c r="H67" t="s">
-        <v>812</v>
+      <c r="H67" t="n">
+        <v>163025</v>
       </c>
       <c r="I67" t="n">
         <v>0.49</v>
       </c>
-      <c r="J67" t="s">
-        <v>813</v>
+      <c r="J67" t="n">
+        <v>185122</v>
       </c>
       <c r="K67" t="n">
         <v>0.54</v>
       </c>
-      <c r="L67" t="s">
-        <v>814</v>
+      <c r="L67" t="n">
+        <v>204020</v>
       </c>
       <c r="M67" t="n">
         <v>0.61</v>
       </c>
-      <c r="N67" t="s">
-        <v>815</v>
+      <c r="N67" t="n">
+        <v>210185</v>
       </c>
       <c r="O67" t="n">
         <v>0.62</v>
       </c>
-      <c r="P67" t="s">
-        <v>816</v>
+      <c r="P67" t="n">
+        <v>150598</v>
       </c>
       <c r="Q67" t="n">
         <v>0.45</v>
       </c>
-      <c r="R67" t="s">
-        <v>817</v>
+      <c r="R67" t="n">
+        <v>227884</v>
       </c>
       <c r="S67" t="n">
         <v>0.7</v>
       </c>
-      <c r="T67" t="s">
-        <v>818</v>
+      <c r="T67" t="n">
+        <v>206441</v>
       </c>
       <c r="U67" t="n">
         <v>0.66</v>
       </c>
-      <c r="V67" t="s">
-        <v>819</v>
+      <c r="V67" t="n">
+        <v>200778</v>
       </c>
       <c r="W67" t="n">
         <v>0.68</v>
       </c>
-      <c r="X67" t="s">
-        <v>820</v>
+      <c r="X67" t="n">
+        <v>150338</v>
       </c>
       <c r="Y67" t="n">
         <v>0.55</v>
       </c>
-      <c r="Z67" t="s">
-        <v>821</v>
+      <c r="Z67" t="n">
+        <v>181878</v>
       </c>
       <c r="AA67" t="n">
         <v>0.68</v>
       </c>
-      <c r="AB67" t="s">
-        <v>822</v>
+      <c r="AB67" t="n">
+        <v>167725</v>
       </c>
       <c r="AC67" t="n">
         <v>0.64</v>
       </c>
-      <c r="AD67" t="s">
-        <v>823</v>
+      <c r="AD67" t="n">
+        <v>165318</v>
       </c>
       <c r="AE67" t="n">
         <v>0.64</v>
       </c>
-      <c r="AF67" t="s">
-        <v>824</v>
+      <c r="AF67" t="n">
+        <v>152889</v>
       </c>
       <c r="AG67" t="n">
         <v>0.59</v>
@@ -8810,70 +6629,70 @@
     </row>
     <row r="68" spans="1:33">
       <c r="A68" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="B68" t="s">
-        <v>131</v>
+        <v>98</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
       </c>
       <c r="C68" t="s"/>
-      <c r="D68" t="s">
-        <v>131</v>
+      <c r="D68" t="n">
+        <v>0</v>
       </c>
       <c r="E68" t="s"/>
-      <c r="F68" t="s">
-        <v>131</v>
+      <c r="F68" t="n">
+        <v>0</v>
       </c>
       <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>131</v>
+      <c r="H68" t="n">
+        <v>0</v>
       </c>
       <c r="I68" t="s"/>
-      <c r="J68" t="s">
-        <v>131</v>
+      <c r="J68" t="n">
+        <v>0</v>
       </c>
       <c r="K68" t="s"/>
-      <c r="L68" t="s">
-        <v>131</v>
+      <c r="L68" t="n">
+        <v>0</v>
       </c>
       <c r="M68" t="s"/>
-      <c r="N68" t="s">
-        <v>131</v>
+      <c r="N68" t="n">
+        <v>0</v>
       </c>
       <c r="O68" t="s"/>
-      <c r="P68" t="s">
-        <v>131</v>
+      <c r="P68" t="n">
+        <v>0</v>
       </c>
       <c r="Q68" t="s"/>
-      <c r="R68" t="s">
-        <v>131</v>
+      <c r="R68" t="n">
+        <v>0</v>
       </c>
       <c r="S68" t="s"/>
-      <c r="T68" t="s">
-        <v>131</v>
+      <c r="T68" t="n">
+        <v>0</v>
       </c>
       <c r="U68" t="s"/>
-      <c r="V68" t="s">
-        <v>131</v>
+      <c r="V68" t="n">
+        <v>0</v>
       </c>
       <c r="W68" t="s"/>
-      <c r="X68" t="s">
-        <v>131</v>
+      <c r="X68" t="n">
+        <v>0</v>
       </c>
       <c r="Y68" t="s"/>
-      <c r="Z68" t="s">
-        <v>131</v>
+      <c r="Z68" t="n">
+        <v>0</v>
       </c>
       <c r="AA68" t="s"/>
-      <c r="AB68" t="s">
-        <v>131</v>
+      <c r="AB68" t="n">
+        <v>0</v>
       </c>
       <c r="AC68" t="s"/>
-      <c r="AD68" t="s">
-        <v>131</v>
+      <c r="AD68" t="n">
+        <v>0</v>
       </c>
       <c r="AE68" t="s"/>
-      <c r="AF68" t="s">
-        <v>131</v>
+      <c r="AF68" t="n">
+        <v>0</v>
       </c>
       <c r="AG68" t="s"/>
     </row>
